--- a/publication/analyses/outputs/outliers/gdptlab_nneigh_errxy_relative_focus_invalid-only.xlsx
+++ b/publication/analyses/outputs/outliers/gdptlab_nneigh_errxy_relative_focus_invalid-only.xlsx
@@ -549,25 +549,25 @@
         <v>122.0647129704042</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1700057588775863</v>
+        <v>-0.1700214934636151</v>
       </c>
       <c r="K2" t="n">
-        <v>-44.27966828738288</v>
+        <v>-44.27965255279685</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N2" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O2" t="n">
-        <v>3.528627090492414</v>
+        <v>3.528630731600352</v>
       </c>
       <c r="P2" t="n">
-        <v>3.528627090492414</v>
+        <v>3.528630731600352</v>
       </c>
       <c r="Q2" t="n">
         <v>5.994750497642011</v>
@@ -602,25 +602,25 @@
         <v>414.2892363431762</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3583691373029012</v>
+        <v>-0.3583830307826972</v>
       </c>
       <c r="K3" t="n">
-        <v>-42.8572839186447</v>
+        <v>-42.8572700251649</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N3" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O3" t="n">
-        <v>4.951011459230592</v>
+        <v>4.951013259232298</v>
       </c>
       <c r="P3" t="n">
-        <v>4.951011459230592</v>
+        <v>4.951013259232298</v>
       </c>
       <c r="Q3" t="n">
         <v>5.578973622381724</v>
@@ -655,25 +655,25 @@
         <v>348.7298209259084</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3333993470018086</v>
+        <v>-0.3334216159005621</v>
       </c>
       <c r="K4" t="n">
-        <v>-43.07281355237219</v>
+        <v>-43.07279128347344</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N4" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O4" t="n">
-        <v>4.735481825503101</v>
+        <v>4.735492000923763</v>
       </c>
       <c r="P4" t="n">
-        <v>4.735481825503101</v>
+        <v>4.735492000923763</v>
       </c>
       <c r="Q4" t="n">
         <v>10.96250019704885</v>
@@ -708,25 +708,25 @@
         <v>376.2132089378615</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02677251189565055</v>
+        <v>0.02675409793192074</v>
       </c>
       <c r="K5" t="n">
-        <v>-44.49124774825916</v>
+        <v>-44.49122933429543</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N5" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O5" t="n">
-        <v>3.317047629616134</v>
+        <v>3.317053950101773</v>
       </c>
       <c r="P5" t="n">
-        <v>3.317047629616134</v>
+        <v>3.317053950101773</v>
       </c>
       <c r="Q5" t="n">
         <v>3.598746969731331</v>
@@ -761,25 +761,25 @@
         <v>134.216449526963</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.155100278907895</v>
+        <v>-0.1551087195562104</v>
       </c>
       <c r="K6" t="n">
-        <v>-44.80621111739705</v>
+        <v>-44.80620267674873</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N6" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O6" t="n">
-        <v>3.002084260478242</v>
+        <v>3.002080607648466</v>
       </c>
       <c r="P6" t="n">
-        <v>3.002084260478242</v>
+        <v>3.002080607648466</v>
       </c>
       <c r="Q6" t="n">
         <v>12.26259512777552</v>
@@ -814,25 +814,25 @@
         <v>514.3431979812384</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1252209822916299</v>
+        <v>0.1252348357111757</v>
       </c>
       <c r="K7" t="n">
-        <v>-47.49459983143638</v>
+        <v>-47.49461368485593</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N7" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3136955464389075</v>
+        <v>0.3136695995412708</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3136955464389075</v>
+        <v>0.3136695995412708</v>
       </c>
       <c r="Q7" t="n">
         <v>4.710428273741919</v>
@@ -867,25 +867,25 @@
         <v>386.237666842158</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0982704318918195</v>
+        <v>0.09825757772223653</v>
       </c>
       <c r="K8" t="n">
-        <v>-44.97181717923947</v>
+        <v>-44.97180432506988</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N8" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O8" t="n">
-        <v>2.836478198635824</v>
+        <v>2.836478959327316</v>
       </c>
       <c r="P8" t="n">
-        <v>2.836478198635824</v>
+        <v>2.836478959327316</v>
       </c>
       <c r="Q8" t="n">
         <v>8.74766224013349</v>
@@ -920,25 +920,25 @@
         <v>126.3731022963805</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1445493007148073</v>
+        <v>-0.1445572878707466</v>
       </c>
       <c r="K9" t="n">
-        <v>-45.99389383868522</v>
+        <v>-45.99388585152928</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N9" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O9" t="n">
-        <v>1.814401539190065</v>
+        <v>1.814397432867914</v>
       </c>
       <c r="P9" t="n">
-        <v>1.814401539190065</v>
+        <v>1.814397432867914</v>
       </c>
       <c r="Q9" t="n">
         <v>3.768805584474418</v>
@@ -973,25 +973,25 @@
         <v>276.5127918887113</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05515507206928305</v>
+        <v>0.05515694271629457</v>
       </c>
       <c r="K10" t="n">
-        <v>-46.65352639638891</v>
+        <v>-46.65352826703592</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N10" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O10" t="n">
-        <v>1.154768981486377</v>
+        <v>1.154755017361275</v>
       </c>
       <c r="P10" t="n">
-        <v>1.154768981486377</v>
+        <v>1.154755017361275</v>
       </c>
       <c r="Q10" t="n">
         <v>7.240585774517459</v>
@@ -1026,25 +1026,25 @@
         <v>177.1997809222104</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005746067949942812</v>
+        <v>0.00573619875542164</v>
       </c>
       <c r="K11" t="n">
-        <v>-46.55774292068709</v>
+        <v>-46.55773305149257</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N11" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O11" t="n">
-        <v>1.250552457188199</v>
+        <v>1.250550232904629</v>
       </c>
       <c r="P11" t="n">
-        <v>1.250552457188199</v>
+        <v>1.250550232904629</v>
       </c>
       <c r="Q11" t="n">
         <v>3.44939156008025</v>
@@ -1079,25 +1079,25 @@
         <v>111.1735109732117</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1609284440444156</v>
+        <v>-0.160943832702884</v>
       </c>
       <c r="K12" t="n">
-        <v>-43.51656216340911</v>
+        <v>-43.51654677475064</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N12" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O12" t="n">
-        <v>4.291733214466184</v>
+        <v>4.291736509646562</v>
       </c>
       <c r="P12" t="n">
-        <v>4.291733214466184</v>
+        <v>4.291736509646562</v>
       </c>
       <c r="Q12" t="n">
         <v>7.275866347765307</v>
@@ -1132,25 +1132,25 @@
         <v>414.3325754257523</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.3583188337796628</v>
+        <v>-0.3583327147155515</v>
       </c>
       <c r="K13" t="n">
-        <v>-43.37941229441341</v>
+        <v>-43.37939841347752</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N13" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O13" t="n">
-        <v>4.428883083461884</v>
+        <v>4.428884870919681</v>
       </c>
       <c r="P13" t="n">
-        <v>4.428883083461884</v>
+        <v>4.428884870919681</v>
       </c>
       <c r="Q13" t="n">
         <v>5.858560802044815</v>
@@ -1185,25 +1185,25 @@
         <v>122.0134874270163</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1699470192722501</v>
+        <v>-0.1699627531513315</v>
       </c>
       <c r="K14" t="n">
-        <v>-44.5610217256451</v>
+        <v>-44.56100599176602</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N14" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O14" t="n">
-        <v>3.247273652230191</v>
+        <v>3.247277292631182</v>
       </c>
       <c r="P14" t="n">
-        <v>3.247273652230191</v>
+        <v>3.247277292631182</v>
       </c>
       <c r="Q14" t="n">
         <v>5.911799567522497</v>
@@ -1238,25 +1238,25 @@
         <v>348.5688030775049</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3332870953057423</v>
+        <v>-0.3333093597267194</v>
       </c>
       <c r="K15" t="n">
-        <v>-43.19016466800795</v>
+        <v>-43.19014240358697</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N15" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O15" t="n">
-        <v>4.618130709867344</v>
+        <v>4.61814088081023</v>
       </c>
       <c r="P15" t="n">
-        <v>4.618130709867344</v>
+        <v>4.61814088081023</v>
       </c>
       <c r="Q15" t="n">
         <v>10.82017182908619</v>
@@ -1291,25 +1291,25 @@
         <v>376.0335287453329</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02707181004215187</v>
+        <v>0.02705342538238398</v>
       </c>
       <c r="K16" t="n">
-        <v>-44.56470365700076</v>
+        <v>-44.56468527234099</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N16" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O16" t="n">
-        <v>3.243591720874534</v>
+        <v>3.243598012056211</v>
       </c>
       <c r="P16" t="n">
-        <v>3.243591720874534</v>
+        <v>3.243598012056211</v>
       </c>
       <c r="Q16" t="n">
         <v>4.040385086421639</v>
@@ -1344,25 +1344,25 @@
         <v>385.768211078051</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09785008391252603</v>
+        <v>0.09783721413763402</v>
       </c>
       <c r="K17" t="n">
-        <v>-45.15507735754674</v>
+        <v>-45.15506448777185</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N17" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O17" t="n">
-        <v>2.653218020328552</v>
+        <v>2.653218796625353</v>
       </c>
       <c r="P17" t="n">
-        <v>2.653218020328552</v>
+        <v>2.653218796625353</v>
       </c>
       <c r="Q17" t="n">
         <v>8.251788880766277</v>
@@ -1397,25 +1397,25 @@
         <v>177.2397653345141</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0057746414185047</v>
+        <v>0.005764773023479108</v>
       </c>
       <c r="K18" t="n">
-        <v>-46.55695168911409</v>
+        <v>-46.55694182071907</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N18" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O18" t="n">
-        <v>1.251343688761196</v>
+        <v>1.251341463678131</v>
       </c>
       <c r="P18" t="n">
-        <v>1.251343688761196</v>
+        <v>1.251341463678131</v>
       </c>
       <c r="Q18" t="n">
         <v>3.407138372213773</v>
@@ -1450,25 +1450,25 @@
         <v>265.0134636066604</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05636144184527581</v>
+        <v>0.05636243572755717</v>
       </c>
       <c r="K19" t="n">
-        <v>-45.85633427724213</v>
+        <v>-45.85633527112441</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N19" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O19" t="n">
-        <v>1.951961100633156</v>
+        <v>1.951948013272784</v>
       </c>
       <c r="P19" t="n">
-        <v>1.951961100633156</v>
+        <v>1.951948013272784</v>
       </c>
       <c r="Q19" t="n">
         <v>19.14615442767022</v>
@@ -1503,25 +1503,25 @@
         <v>414.0713069719004</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.3581615621119241</v>
+        <v>-0.3581754419082088</v>
       </c>
       <c r="K20" t="n">
-        <v>-43.94943128594156</v>
+        <v>-43.94941740614528</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N20" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O20" t="n">
-        <v>3.858864091933725</v>
+        <v>3.858865878251919</v>
       </c>
       <c r="P20" t="n">
-        <v>3.858864091933725</v>
+        <v>3.858865878251919</v>
       </c>
       <c r="Q20" t="n">
         <v>5.811736238847398</v>
@@ -1556,28 +1556,28 @@
         <v>121.9570737809272</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1699476675550358</v>
+        <v>-0.1699633972338717</v>
       </c>
       <c r="K21" t="n">
-        <v>-44.43432177233596</v>
+        <v>-44.43430604265712</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N21" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O21" t="n">
-        <v>3.373973605539334</v>
+        <v>3.373977241740079</v>
       </c>
       <c r="P21" t="n">
-        <v>3.373973605539334</v>
+        <v>3.373977241740079</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.906479810046204</v>
+        <v>5.906479810046205</v>
       </c>
     </row>
     <row r="22">
@@ -1609,25 +1609,25 @@
         <v>348.8365627619614</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.3334546974886905</v>
+        <v>-0.3334769739878496</v>
       </c>
       <c r="K22" t="n">
-        <v>-43.03561880052709</v>
+        <v>-43.03559652402793</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N22" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O22" t="n">
-        <v>4.7726765773482</v>
+        <v>4.772686760369268</v>
       </c>
       <c r="P22" t="n">
-        <v>4.7726765773482</v>
+        <v>4.772686760369268</v>
       </c>
       <c r="Q22" t="n">
         <v>11.10272009694788</v>
@@ -1662,25 +1662,25 @@
         <v>375.6555994674122</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02649107769227044</v>
+        <v>0.02647266882955535</v>
       </c>
       <c r="K23" t="n">
-        <v>-46.21874151647869</v>
+        <v>-46.21872310761598</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N23" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O23" t="n">
-        <v>1.589553861396595</v>
+        <v>1.58956017678122</v>
       </c>
       <c r="P23" t="n">
-        <v>1.589553861396595</v>
+        <v>1.58956017678122</v>
       </c>
       <c r="Q23" t="n">
         <v>4.057135776516168</v>
@@ -1715,25 +1715,25 @@
         <v>134.1820788020021</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.1550729804257145</v>
+        <v>-0.1550814205125235</v>
       </c>
       <c r="K24" t="n">
-        <v>-44.17382541532957</v>
+        <v>-44.17381697524276</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N24" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O24" t="n">
-        <v>3.634469962545722</v>
+        <v>3.63446630915444</v>
       </c>
       <c r="P24" t="n">
-        <v>3.634469962545722</v>
+        <v>3.63446630915444</v>
       </c>
       <c r="Q24" t="n">
         <v>12.22654183681737</v>
@@ -1768,25 +1768,25 @@
         <v>147.4222218841704</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.169609568141162</v>
+        <v>-0.1696186079966893</v>
       </c>
       <c r="K25" t="n">
-        <v>-43.33651625581828</v>
+        <v>-43.33650721596275</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N25" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O25" t="n">
-        <v>4.471779122057008</v>
+        <v>4.471776068434444</v>
       </c>
       <c r="P25" t="n">
-        <v>4.471779122057008</v>
+        <v>4.471776068434444</v>
       </c>
       <c r="Q25" t="n">
         <v>3.748693661167655</v>
@@ -1821,28 +1821,28 @@
         <v>387.3383704401513</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09885469330276919</v>
+        <v>0.09884183448816941</v>
       </c>
       <c r="K26" t="n">
-        <v>-44.76699142657719</v>
+        <v>-44.76697856776259</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N26" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O26" t="n">
-        <v>3.041303951298104</v>
+        <v>3.041304716634613</v>
       </c>
       <c r="P26" t="n">
-        <v>3.041303951298104</v>
+        <v>3.041304716634613</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.848328401707953</v>
+        <v>9.848328401707954</v>
       </c>
     </row>
     <row r="27">
@@ -1874,28 +1874,28 @@
         <v>126.0379913757218</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1445162261675605</v>
+        <v>-0.144524226310395</v>
       </c>
       <c r="K27" t="n">
-        <v>-45.65117382591973</v>
+        <v>-45.65116582577689</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N27" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O27" t="n">
-        <v>2.157121551955562</v>
+        <v>2.157117458620306</v>
       </c>
       <c r="P27" t="n">
-        <v>2.157121551955562</v>
+        <v>2.157117458620306</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.977303955532537</v>
+        <v>3.977303955532538</v>
       </c>
     </row>
     <row r="28">
@@ -1927,25 +1927,25 @@
         <v>341.2438495931971</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.2331113819590556</v>
+        <v>-0.2331112683827072</v>
       </c>
       <c r="K28" t="n">
-        <v>-46.25746359038149</v>
+        <v>-46.25746370395784</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N28" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O28" t="n">
-        <v>-3.111105558391849</v>
+        <v>-3.111105600462636</v>
       </c>
       <c r="P28" t="n">
-        <v>3.111105558391849</v>
+        <v>3.111105600462636</v>
       </c>
       <c r="Q28" t="n">
         <v>3.442021609750124</v>
@@ -1980,25 +1980,25 @@
         <v>413.7255735824933</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.3308085484534331</v>
+        <v>-0.3308084656089676</v>
       </c>
       <c r="K29" t="n">
-        <v>-41.19425708829167</v>
+        <v>-41.19425717113614</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N29" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O29" t="n">
-        <v>1.952100943697971</v>
+        <v>1.952100932359066</v>
       </c>
       <c r="P29" t="n">
-        <v>1.952100943697971</v>
+        <v>1.952100932359066</v>
       </c>
       <c r="Q29" t="n">
         <v>5.64562180843448</v>
@@ -2033,25 +2033,25 @@
         <v>121.5001609296479</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.04571614457564976</v>
+        <v>-0.04571605112489863</v>
       </c>
       <c r="K30" t="n">
-        <v>-43.46518970047728</v>
+        <v>-43.46518979392803</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N30" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.3188316684876398</v>
+        <v>-0.3188316904328303</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3188316684876398</v>
+        <v>0.3188316904328303</v>
       </c>
       <c r="Q30" t="n">
         <v>5.005147278094614</v>
@@ -2086,25 +2086,25 @@
         <v>286.9360259831046</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06211539972687774</v>
+        <v>0.06211538651467663</v>
       </c>
       <c r="K31" t="n">
-        <v>-40.08311259638453</v>
+        <v>-40.08311258317233</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N31" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O31" t="n">
-        <v>3.063245435605111</v>
+        <v>3.063245520322873</v>
       </c>
       <c r="P31" t="n">
-        <v>3.063245435605111</v>
+        <v>3.063245520322873</v>
       </c>
       <c r="Q31" t="n">
         <v>4.305547307996208</v>
@@ -2139,25 +2139,25 @@
         <v>347.5977304019414</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1949770311239476</v>
+        <v>-0.1949768989863472</v>
       </c>
       <c r="K32" t="n">
-        <v>-44.62097139380101</v>
+        <v>-44.62097152593861</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N32" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O32" t="n">
-        <v>-1.474613361811365</v>
+        <v>-1.474613422443404</v>
       </c>
       <c r="P32" t="n">
-        <v>1.474613361811365</v>
+        <v>1.474613422443404</v>
       </c>
       <c r="Q32" t="n">
         <v>9.750440398813609</v>
@@ -2192,25 +2192,25 @@
         <v>348.3184577128857</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2511882780597574</v>
+        <v>0.2511883152186343</v>
       </c>
       <c r="K33" t="n">
-        <v>-41.06168832216095</v>
+        <v>-41.06168835931983</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N33" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O33" t="n">
-        <v>2.084669709828688</v>
+        <v>2.084669744175372</v>
       </c>
       <c r="P33" t="n">
-        <v>2.084669709828688</v>
+        <v>2.084669744175372</v>
       </c>
       <c r="Q33" t="n">
         <v>9.017630347096624</v>
@@ -2245,25 +2245,25 @@
         <v>514.5625771972244</v>
       </c>
       <c r="J34" t="n">
-        <v>0.007402005328387418</v>
+        <v>0.00740192302439624</v>
       </c>
       <c r="K34" t="n">
-        <v>-42.38587564727419</v>
+        <v>-42.3858755649702</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N34" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O34" t="n">
-        <v>0.760482384715452</v>
+        <v>0.7604825385250038</v>
       </c>
       <c r="P34" t="n">
-        <v>0.760482384715452</v>
+        <v>0.7604825385250038</v>
       </c>
       <c r="Q34" t="n">
         <v>4.530404080115845</v>
@@ -2298,25 +2298,25 @@
         <v>305.0835241297558</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.2370210309503733</v>
+        <v>-0.2370209416145173</v>
       </c>
       <c r="K35" t="n">
-        <v>-47.39395579547289</v>
+        <v>-47.39395588480875</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N35" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O35" t="n">
-        <v>-4.247597763483249</v>
+        <v>-4.247597781313544</v>
       </c>
       <c r="P35" t="n">
-        <v>4.247597763483249</v>
+        <v>4.247597781313544</v>
       </c>
       <c r="Q35" t="n">
         <v>4.396986166137475</v>
@@ -2351,25 +2351,25 @@
         <v>345.9726685944753</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2413522641865882</v>
+        <v>0.2413523664854154</v>
       </c>
       <c r="K36" t="n">
-        <v>-40.08539505523814</v>
+        <v>-40.08539515753697</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N36" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O36" t="n">
-        <v>3.060962976751497</v>
+        <v>3.060962945958231</v>
       </c>
       <c r="P36" t="n">
-        <v>3.060962976751497</v>
+        <v>3.060962945958231</v>
       </c>
       <c r="Q36" t="n">
         <v>7.190956571890365</v>
@@ -2404,25 +2404,25 @@
         <v>382.3296417076004</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2888901227081035</v>
+        <v>0.2888901988779295</v>
       </c>
       <c r="K37" t="n">
-        <v>-43.29759625475993</v>
+        <v>-43.29759633092976</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N37" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.1512382227702886</v>
+        <v>-0.1512382274345541</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1512382227702886</v>
+        <v>0.1512382274345541</v>
       </c>
       <c r="Q37" t="n">
         <v>4.831545570185395</v>
@@ -2457,25 +2457,25 @@
         <v>332.7216966462492</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.1893026371646371</v>
+        <v>-0.1893025087569455</v>
       </c>
       <c r="K38" t="n">
-        <v>-41.17712274534708</v>
+        <v>-41.17712287375477</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N38" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O38" t="n">
-        <v>1.969235286642565</v>
+        <v>1.969235229740434</v>
       </c>
       <c r="P38" t="n">
-        <v>1.969235286642565</v>
+        <v>1.969235229740434</v>
       </c>
       <c r="Q38" t="n">
         <v>5.690550176148412</v>
@@ -2510,25 +2510,25 @@
         <v>276.1908613528952</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05014832524709334</v>
+        <v>0.05014831366339223</v>
       </c>
       <c r="K39" t="n">
-        <v>-40.0623524531381</v>
+        <v>-40.0623524415544</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N39" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O39" t="n">
-        <v>3.084005578851546</v>
+        <v>3.084005661940807</v>
       </c>
       <c r="P39" t="n">
-        <v>3.084005578851546</v>
+        <v>3.084005661940807</v>
       </c>
       <c r="Q39" t="n">
         <v>5.01656511471574</v>
@@ -2563,25 +2563,25 @@
         <v>367.805227275076</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2511079177862996</v>
+        <v>0.2511080276083959</v>
       </c>
       <c r="K40" t="n">
-        <v>-40.16512516360972</v>
+        <v>-40.16512527343182</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N40" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O40" t="n">
-        <v>2.981232868379919</v>
+        <v>2.981232830063384</v>
       </c>
       <c r="P40" t="n">
-        <v>2.981232868379919</v>
+        <v>2.981232830063384</v>
       </c>
       <c r="Q40" t="n">
         <v>3.586766560945117</v>
@@ -2616,25 +2616,25 @@
         <v>341.2121988217804</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.2331063245587117</v>
+        <v>-0.233106210995274</v>
       </c>
       <c r="K41" t="n">
-        <v>-46.55014534740938</v>
+        <v>-46.55014546097282</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N41" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O41" t="n">
-        <v>-3.403787315419741</v>
+        <v>-3.403787357477619</v>
       </c>
       <c r="P41" t="n">
-        <v>3.403787315419741</v>
+        <v>3.403787357477619</v>
       </c>
       <c r="Q41" t="n">
         <v>3.437316569991166</v>
@@ -2669,25 +2669,25 @@
         <v>414.4943294743498</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.3313514356026133</v>
+        <v>-0.3313513526404321</v>
       </c>
       <c r="K42" t="n">
-        <v>-39.69103572717763</v>
+        <v>-39.69103581013982</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N42" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O42" t="n">
-        <v>3.455322304812007</v>
+        <v>3.455322293355387</v>
       </c>
       <c r="P42" t="n">
-        <v>3.455322304812007</v>
+        <v>3.455322293355387</v>
       </c>
       <c r="Q42" t="n">
         <v>5.426113261625757</v>
@@ -2722,25 +2722,25 @@
         <v>286.9977580585739</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06240335593567892</v>
+        <v>0.06240334274486514</v>
       </c>
       <c r="K43" t="n">
-        <v>-39.92368510111819</v>
+        <v>-39.92368508792737</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N43" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O43" t="n">
-        <v>3.222672930871454</v>
+        <v>3.222673015567828</v>
       </c>
       <c r="P43" t="n">
-        <v>3.222672930871454</v>
+        <v>3.222673015567828</v>
       </c>
       <c r="Q43" t="n">
         <v>4.00542025510313</v>
@@ -2775,25 +2775,25 @@
         <v>121.5421340712577</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0458582011456059</v>
+        <v>-0.04585810770339549</v>
       </c>
       <c r="K44" t="n">
-        <v>-43.50329151466168</v>
+        <v>-43.50329160810389</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N44" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.3569334826720407</v>
+        <v>-0.3569335046086906</v>
       </c>
       <c r="P44" t="n">
-        <v>0.3569334826720407</v>
+        <v>0.3569335046086906</v>
       </c>
       <c r="Q44" t="n">
         <v>5.109388681257216</v>
@@ -2828,25 +2828,25 @@
         <v>346.2346616027965</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.1939673737997722</v>
+        <v>-0.1939672418402765</v>
       </c>
       <c r="K45" t="n">
-        <v>-47.19235970413938</v>
+        <v>-47.19235983609888</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N45" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O45" t="n">
-        <v>-4.046001672149742</v>
+        <v>-4.046001732603678</v>
       </c>
       <c r="P45" t="n">
-        <v>4.046001672149742</v>
+        <v>4.046001732603678</v>
       </c>
       <c r="Q45" t="n">
         <v>8.666410506938188</v>
@@ -2881,25 +2881,25 @@
         <v>348.418516258937</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2512899735086549</v>
+        <v>0.251290010691136</v>
       </c>
       <c r="K46" t="n">
-        <v>-40.96086367583387</v>
+        <v>-40.96086371301635</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N46" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O46" t="n">
-        <v>2.185494356155772</v>
+        <v>2.185494390478851</v>
       </c>
       <c r="P46" t="n">
-        <v>2.185494356155772</v>
+        <v>2.185494390478851</v>
       </c>
       <c r="Q46" t="n">
         <v>8.878580572666952</v>
@@ -2934,25 +2934,25 @@
         <v>515.1332708282962</v>
       </c>
       <c r="J47" t="n">
-        <v>0.007318932381338072</v>
+        <v>0.007318849914021541</v>
       </c>
       <c r="K47" t="n">
-        <v>-42.45234539223441</v>
+        <v>-42.45234530976709</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N47" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O47" t="n">
-        <v>0.6940126397552362</v>
+        <v>0.6940127937281133</v>
       </c>
       <c r="P47" t="n">
-        <v>0.6940126397552362</v>
+        <v>0.6940127937281133</v>
       </c>
       <c r="Q47" t="n">
         <v>3.947120296495714</v>
@@ -2987,25 +2987,25 @@
         <v>345.8702979955314</v>
       </c>
       <c r="J48" t="n">
-        <v>0.07713679745899071</v>
+        <v>0.07713695270354748</v>
       </c>
       <c r="K48" t="n">
-        <v>-41.20719968188078</v>
+        <v>-41.20719983712534</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N48" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O48" t="n">
-        <v>1.939158350108862</v>
+        <v>1.939158266369866</v>
       </c>
       <c r="P48" t="n">
-        <v>1.939158350108862</v>
+        <v>1.939158266369866</v>
       </c>
       <c r="Q48" t="n">
         <v>7.649841019083891</v>
@@ -3040,25 +3040,25 @@
         <v>305.2931198064575</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.237240892808309</v>
+        <v>-0.2372408035152702</v>
       </c>
       <c r="K49" t="n">
-        <v>-47.02520966886066</v>
+        <v>-47.0252097581537</v>
       </c>
       <c r="L49" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N49" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O49" t="n">
-        <v>-3.878851636871019</v>
+        <v>-3.878851654658497</v>
       </c>
       <c r="P49" t="n">
-        <v>3.878851636871019</v>
+        <v>3.878851654658497</v>
       </c>
       <c r="Q49" t="n">
         <v>4.206142238311988</v>
@@ -3093,25 +3093,25 @@
         <v>366.1617964408501</v>
       </c>
       <c r="J50" t="n">
-        <v>0.250130883329831</v>
+        <v>0.2501309927903677</v>
       </c>
       <c r="K50" t="n">
-        <v>-40.01849797349426</v>
+        <v>-40.01849808295479</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N50" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O50" t="n">
-        <v>3.127860058495386</v>
+        <v>3.12786002054041</v>
       </c>
       <c r="P50" t="n">
-        <v>3.127860058495386</v>
+        <v>3.12786002054041</v>
       </c>
       <c r="Q50" t="n">
         <v>4.740401307833067</v>
@@ -3146,25 +3146,25 @@
         <v>277.7877264577766</v>
       </c>
       <c r="J51" t="n">
-        <v>0.05078057654981194</v>
+        <v>0.05078056457386282</v>
       </c>
       <c r="K51" t="n">
-        <v>-40.41417759528147</v>
+        <v>-40.41417758330552</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N51" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O51" t="n">
-        <v>2.73218043670817</v>
+        <v>2.732180520189679</v>
       </c>
       <c r="P51" t="n">
-        <v>2.73218043670817</v>
+        <v>2.732180520189679</v>
       </c>
       <c r="Q51" t="n">
         <v>3.460597017295508</v>
@@ -3199,25 +3199,25 @@
         <v>341.2970311748338</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.2332087895226636</v>
+        <v>-0.2332086759713548</v>
       </c>
       <c r="K52" t="n">
-        <v>-45.797171376636</v>
+        <v>-45.79717149018731</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N52" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O52" t="n">
-        <v>-2.650813344646359</v>
+        <v>-2.650813386692107</v>
       </c>
       <c r="P52" t="n">
-        <v>2.650813344646359</v>
+        <v>2.650813386692107</v>
       </c>
       <c r="Q52" t="n">
         <v>3.302431705833907</v>
@@ -3252,25 +3252,25 @@
         <v>414.3060095519243</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.3311856456357916</v>
+        <v>-0.3311855626503402</v>
       </c>
       <c r="K53" t="n">
-        <v>-40.80238604200296</v>
+        <v>-40.80238612498841</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N53" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O53" t="n">
-        <v>2.343971989986684</v>
+        <v>2.343971978506794</v>
       </c>
       <c r="P53" t="n">
-        <v>2.343971989986684</v>
+        <v>2.343971978506794</v>
       </c>
       <c r="Q53" t="n">
         <v>5.28257643535455</v>
@@ -3305,25 +3305,25 @@
         <v>121.7123132155565</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.04586699730291599</v>
+        <v>-0.045866903810861</v>
       </c>
       <c r="K54" t="n">
-        <v>-43.38313622693006</v>
+        <v>-43.38313632042211</v>
       </c>
       <c r="L54" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N54" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.2367781949404133</v>
+        <v>-0.2367782169269077</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2367781949404133</v>
+        <v>0.2367782169269077</v>
       </c>
       <c r="Q54" t="n">
         <v>5.24777279628081</v>
@@ -3358,25 +3358,25 @@
         <v>286.9724165092431</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06220518247907592</v>
+        <v>0.06220516926842379</v>
       </c>
       <c r="K55" t="n">
-        <v>-40.15898397542416</v>
+        <v>-40.1589839622135</v>
       </c>
       <c r="L55" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N55" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O55" t="n">
-        <v>2.987374056565486</v>
+        <v>2.987374141281698</v>
       </c>
       <c r="P55" t="n">
-        <v>2.987374056565486</v>
+        <v>2.987374141281698</v>
       </c>
       <c r="Q55" t="n">
         <v>4.202950699394897</v>
@@ -3411,25 +3411,25 @@
         <v>346.5611587763995</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.1943423821258463</v>
+        <v>-0.1943422501679493</v>
       </c>
       <c r="K56" t="n">
-        <v>-44.72556158216618</v>
+        <v>-44.72556171412408</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N56" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O56" t="n">
-        <v>-1.579203550176537</v>
+        <v>-1.579203610628873</v>
       </c>
       <c r="P56" t="n">
-        <v>1.579203550176537</v>
+        <v>1.579203610628873</v>
       </c>
       <c r="Q56" t="n">
         <v>8.830260036051573</v>
@@ -3464,25 +3464,25 @@
         <v>348.833298865956</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2517929394395253</v>
+        <v>0.2517929768167662</v>
       </c>
       <c r="K57" t="n">
-        <v>-40.36329654141051</v>
+        <v>-40.36329657878775</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N57" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O57" t="n">
-        <v>2.783061490579129</v>
+        <v>2.783061524707449</v>
       </c>
       <c r="P57" t="n">
-        <v>2.783061490579129</v>
+        <v>2.783061524707449</v>
       </c>
       <c r="Q57" t="n">
         <v>7.967473777893195</v>
@@ -3517,25 +3517,25 @@
         <v>514.469272329301</v>
       </c>
       <c r="J58" t="n">
-        <v>0.007510501371520206</v>
+        <v>0.007510419097243926</v>
       </c>
       <c r="K58" t="n">
-        <v>-43.46325452884498</v>
+        <v>-43.46325444657071</v>
       </c>
       <c r="L58" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N58" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.3168964968553425</v>
+        <v>-0.3168963430755056</v>
       </c>
       <c r="P58" t="n">
-        <v>0.3168964968553425</v>
+        <v>0.3168963430755056</v>
       </c>
       <c r="Q58" t="n">
         <v>4.644466344406049</v>
@@ -3570,25 +3570,25 @@
         <v>345.7189942026448</v>
       </c>
       <c r="J59" t="n">
-        <v>0.07704958134988971</v>
+        <v>0.07704973655884828</v>
       </c>
       <c r="K59" t="n">
-        <v>-38.87927659332759</v>
+        <v>-38.87927674853655</v>
       </c>
       <c r="L59" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N59" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O59" t="n">
-        <v>4.267081438662053</v>
+        <v>4.267081354958655</v>
       </c>
       <c r="P59" t="n">
-        <v>4.267081438662053</v>
+        <v>4.267081354958655</v>
       </c>
       <c r="Q59" t="n">
         <v>7.662042018404425</v>
@@ -3623,25 +3623,25 @@
         <v>347.2263521208451</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1781919677979289</v>
+        <v>0.1781919621771451</v>
       </c>
       <c r="K60" t="n">
-        <v>-40.75708003311878</v>
+        <v>-40.757080027498</v>
       </c>
       <c r="L60" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N60" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O60" t="n">
-        <v>2.38927799887086</v>
+        <v>2.389278075997204</v>
       </c>
       <c r="P60" t="n">
-        <v>2.38927799887086</v>
+        <v>2.389278075997204</v>
       </c>
       <c r="Q60" t="n">
         <v>4.400852880724551</v>
@@ -3676,25 +3676,25 @@
         <v>305.2506355755742</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.2370852130946304</v>
+        <v>-0.2370851236880469</v>
       </c>
       <c r="K61" t="n">
-        <v>-47.24289791957779</v>
+        <v>-47.24289800898437</v>
       </c>
       <c r="L61" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N61" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O61" t="n">
-        <v>-4.096539887588143</v>
+        <v>-4.096539905489166</v>
       </c>
       <c r="P61" t="n">
-        <v>4.096539887588143</v>
+        <v>4.096539905489166</v>
       </c>
       <c r="Q61" t="n">
         <v>4.224512618123508</v>
@@ -3729,25 +3729,25 @@
         <v>346.150425001174</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2416938910794144</v>
+        <v>0.2416939932160176</v>
       </c>
       <c r="K62" t="n">
-        <v>-39.83734239187891</v>
+        <v>-39.83734249401551</v>
       </c>
       <c r="L62" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N62" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O62" t="n">
-        <v>3.309015640110736</v>
+        <v>3.309015609479694</v>
       </c>
       <c r="P62" t="n">
-        <v>3.309015640110736</v>
+        <v>3.309015609479694</v>
       </c>
       <c r="Q62" t="n">
         <v>7.907743663122777</v>
@@ -3782,25 +3782,25 @@
         <v>382.4098694513755</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2889696491681946</v>
+        <v>0.2889697252769281</v>
       </c>
       <c r="K63" t="n">
-        <v>-41.05114352067461</v>
+        <v>-41.05114359678334</v>
       </c>
       <c r="L63" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N63" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O63" t="n">
-        <v>2.095214511315035</v>
+        <v>2.095214506711862</v>
       </c>
       <c r="P63" t="n">
-        <v>2.095214511315035</v>
+        <v>2.095214506711862</v>
       </c>
       <c r="Q63" t="n">
         <v>4.892286923638385</v>
@@ -3835,25 +3835,25 @@
         <v>367.3244978009781</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2505886371328074</v>
+        <v>0.2505887470225474</v>
       </c>
       <c r="K64" t="n">
-        <v>-39.91991297145675</v>
+        <v>-39.91991308134649</v>
       </c>
       <c r="L64" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N64" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O64" t="n">
-        <v>3.226445060532889</v>
+        <v>3.22644502214871</v>
       </c>
       <c r="P64" t="n">
-        <v>3.226445060532889</v>
+        <v>3.22644502214871</v>
       </c>
       <c r="Q64" t="n">
         <v>4.289752366515122</v>
@@ -3888,25 +3888,25 @@
         <v>277.7247759277215</v>
       </c>
       <c r="J65" t="n">
-        <v>0.05083553605740576</v>
+        <v>0.05083552410658854</v>
       </c>
       <c r="K65" t="n">
-        <v>-43.27145450616091</v>
+        <v>-43.27145449421009</v>
       </c>
       <c r="L65" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N65" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.125096474171265</v>
+        <v>-0.1250963907148872</v>
       </c>
       <c r="P65" t="n">
-        <v>0.125096474171265</v>
+        <v>0.1250963907148872</v>
       </c>
       <c r="Q65" t="n">
         <v>3.538339048040464</v>
@@ -3941,25 +3941,25 @@
         <v>280.171760383139</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2229900585108169</v>
+        <v>0.2229908950497403</v>
       </c>
       <c r="K66" t="n">
-        <v>-39.77624709083328</v>
+        <v>-39.7762479273722</v>
       </c>
       <c r="L66" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N66" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O66" t="n">
-        <v>-2.091058652320669</v>
+        <v>-2.091057832897228</v>
       </c>
       <c r="P66" t="n">
-        <v>2.091058652320669</v>
+        <v>2.091057832897228</v>
       </c>
       <c r="Q66" t="n">
         <v>3.271229502246126</v>
@@ -3994,25 +3994,25 @@
         <v>414.2106853994885</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.5163070581124103</v>
+        <v>-0.5163051504297087</v>
       </c>
       <c r="K67" t="n">
-        <v>-39.04263830482328</v>
+        <v>-39.04264021250598</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N67" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O67" t="n">
-        <v>-1.357449866310667</v>
+        <v>-1.357450118031004</v>
       </c>
       <c r="P67" t="n">
-        <v>1.357449866310667</v>
+        <v>1.357450118031004</v>
       </c>
       <c r="Q67" t="n">
         <v>5.542343074731209</v>
@@ -4047,25 +4047,25 @@
         <v>121.7601031005064</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.1483876867911036</v>
+        <v>-0.1483855271174974</v>
       </c>
       <c r="K68" t="n">
-        <v>-40.52727826624235</v>
+        <v>-40.52728042591595</v>
       </c>
       <c r="L68" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N68" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O68" t="n">
-        <v>-2.842089827729737</v>
+        <v>-2.842090331440978</v>
       </c>
       <c r="P68" t="n">
-        <v>2.842089827729737</v>
+        <v>2.842090331440978</v>
       </c>
       <c r="Q68" t="n">
         <v>5.268780248447357</v>
@@ -4100,25 +4100,25 @@
         <v>286.4716437831788</v>
       </c>
       <c r="J69" t="n">
-        <v>0.09556030693516249</v>
+        <v>0.09556000915048202</v>
       </c>
       <c r="K69" t="n">
-        <v>-38.37726909774614</v>
+        <v>-38.37726879996146</v>
       </c>
       <c r="L69" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N69" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.6920806592335325</v>
+        <v>-0.6920787054864874</v>
       </c>
       <c r="P69" t="n">
-        <v>0.6920806592335325</v>
+        <v>0.6920787054864874</v>
       </c>
       <c r="Q69" t="n">
         <v>3.880298422309533</v>
@@ -4153,25 +4153,25 @@
         <v>314.1820094970006</v>
       </c>
       <c r="J70" t="n">
-        <v>0.09785573888014909</v>
+        <v>0.09785523836275445</v>
       </c>
       <c r="K70" t="n">
-        <v>-36.69079296393972</v>
+        <v>-36.69079246342233</v>
       </c>
       <c r="L70" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N70" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O70" t="n">
-        <v>0.9943954745728902</v>
+        <v>0.9943976310526494</v>
       </c>
       <c r="P70" t="n">
-        <v>0.9943954745728902</v>
+        <v>0.9943976310526494</v>
       </c>
       <c r="Q70" t="n">
         <v>3.213611200674867</v>
@@ -4206,25 +4206,25 @@
         <v>515.5051289624287</v>
       </c>
       <c r="J71" t="n">
-        <v>0.08710940230776032</v>
+        <v>0.08710749447727295</v>
       </c>
       <c r="K71" t="n">
-        <v>-36.69650626578357</v>
+        <v>-36.69650435795308</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N71" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O71" t="n">
-        <v>0.9886821727290425</v>
+        <v>0.9886857365218944</v>
       </c>
       <c r="P71" t="n">
-        <v>0.9886821727290425</v>
+        <v>0.9886857365218944</v>
       </c>
       <c r="Q71" t="n">
         <v>3.573988185770165</v>
@@ -4259,25 +4259,25 @@
         <v>397.1557054197497</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08615110671212278</v>
+        <v>0.08614999726819406</v>
       </c>
       <c r="K72" t="n">
-        <v>-37.19814382725158</v>
+        <v>-37.19814271780765</v>
       </c>
       <c r="L72" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N72" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O72" t="n">
-        <v>0.4870446112610338</v>
+        <v>0.4870473766673271</v>
       </c>
       <c r="P72" t="n">
-        <v>0.4870446112610338</v>
+        <v>0.4870473766673271</v>
       </c>
       <c r="Q72" t="n">
         <v>3.291186919755943</v>
@@ -4312,25 +4312,25 @@
         <v>348.1118454880315</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2975348445488137</v>
+        <v>0.2975357034243018</v>
       </c>
       <c r="K73" t="n">
-        <v>-42.64735895451467</v>
+        <v>-42.64735981339015</v>
       </c>
       <c r="L73" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N73" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O73" t="n">
-        <v>-4.962170516002054</v>
+        <v>-4.962169718915177</v>
       </c>
       <c r="P73" t="n">
-        <v>4.962170516002054</v>
+        <v>4.962169718915177</v>
       </c>
       <c r="Q73" t="n">
         <v>10.01332266043683</v>
@@ -4365,25 +4365,25 @@
         <v>147.4501489036695</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.218661218762378</v>
+        <v>-0.2186599786422647</v>
       </c>
       <c r="K74" t="n">
-        <v>-33.13007007558775</v>
+        <v>-33.13007131570786</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N74" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O74" t="n">
-        <v>4.555118362924865</v>
+        <v>4.555118778767117</v>
       </c>
       <c r="P74" t="n">
-        <v>4.555118362924865</v>
+        <v>4.555118778767117</v>
       </c>
       <c r="Q74" t="n">
         <v>3.675315938229094</v>
@@ -4418,25 +4418,25 @@
         <v>345.4849853349006</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2228184594400631</v>
+        <v>0.222820832040334</v>
       </c>
       <c r="K75" t="n">
-        <v>-37.16198661918983</v>
+        <v>-37.1619889917901</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N75" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O75" t="n">
-        <v>0.5232018193227788</v>
+        <v>0.5232011026848724</v>
       </c>
       <c r="P75" t="n">
-        <v>0.5232018193227788</v>
+        <v>0.5232011026848724</v>
       </c>
       <c r="Q75" t="n">
         <v>6.486020478457124</v>
@@ -4471,25 +4471,25 @@
         <v>126.4707410253732</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.004289777223583258</v>
+        <v>-0.004289122295197956</v>
       </c>
       <c r="K76" t="n">
-        <v>-35.94835539691802</v>
+        <v>-35.94835605184641</v>
       </c>
       <c r="L76" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N76" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O76" t="n">
-        <v>1.736833041594586</v>
+        <v>1.736834042628566</v>
       </c>
       <c r="P76" t="n">
-        <v>1.736833041594586</v>
+        <v>1.736834042628566</v>
       </c>
       <c r="Q76" t="n">
         <v>4.669459319460847</v>
@@ -4524,25 +4524,25 @@
         <v>414.2155260466271</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.5163096635144413</v>
+        <v>-0.5163077563871212</v>
       </c>
       <c r="K77" t="n">
-        <v>-39.17311436483367</v>
+        <v>-39.17311627196099</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N77" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O77" t="n">
-        <v>-1.487925926321061</v>
+        <v>-1.487926177486017</v>
       </c>
       <c r="P77" t="n">
-        <v>1.487925926321061</v>
+        <v>1.487926177486017</v>
       </c>
       <c r="Q77" t="n">
         <v>5.629991246596862</v>
@@ -4577,25 +4577,25 @@
         <v>121.2582029764788</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.14804160219294</v>
+        <v>-0.1480394454065035</v>
       </c>
       <c r="K78" t="n">
-        <v>-40.52798239313439</v>
+        <v>-40.52798454992083</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N78" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O78" t="n">
-        <v>-2.842793954621783</v>
+        <v>-2.842794455445855</v>
       </c>
       <c r="P78" t="n">
-        <v>2.842793954621783</v>
+        <v>2.842794455445855</v>
       </c>
       <c r="Q78" t="n">
         <v>4.784813927733911</v>
@@ -4630,25 +4630,25 @@
         <v>286.3468599829534</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0953280566814243</v>
+        <v>0.09532775921874048</v>
       </c>
       <c r="K79" t="n">
-        <v>-38.29371950427347</v>
+        <v>-38.29371920681078</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N79" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.6085310657608574</v>
+        <v>-0.608529112335809</v>
       </c>
       <c r="P79" t="n">
-        <v>0.6085310657608574</v>
+        <v>0.608529112335809</v>
       </c>
       <c r="Q79" t="n">
         <v>4.073703779043694</v>
@@ -4683,25 +4683,25 @@
         <v>347.863295412684</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2972474217406997</v>
+        <v>0.2972482784741928</v>
       </c>
       <c r="K80" t="n">
-        <v>-41.19725224382419</v>
+        <v>-41.19725310055768</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N80" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O80" t="n">
-        <v>-3.512063805311577</v>
+        <v>-3.512063006082705</v>
       </c>
       <c r="P80" t="n">
-        <v>3.512063805311577</v>
+        <v>3.512063006082705</v>
       </c>
       <c r="Q80" t="n">
         <v>10.47650374139019</v>
@@ -4736,25 +4736,25 @@
         <v>147.2219234134975</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.2183917081223115</v>
+        <v>-0.2183904683925348</v>
       </c>
       <c r="K81" t="n">
-        <v>-33.79301129806246</v>
+        <v>-33.79301253779224</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N81" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O81" t="n">
-        <v>3.892177140450151</v>
+        <v>3.892177556682739</v>
       </c>
       <c r="P81" t="n">
-        <v>3.892177140450151</v>
+        <v>3.892177556682739</v>
       </c>
       <c r="Q81" t="n">
         <v>3.49235317094695</v>
@@ -4789,25 +4789,25 @@
         <v>344.9851752248552</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2233290655377473</v>
+        <v>0.223331428005018</v>
       </c>
       <c r="K82" t="n">
-        <v>-40.27416282704888</v>
+        <v>-40.27416518951615</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N82" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O82" t="n">
-        <v>-2.588974388536265</v>
+        <v>-2.588975095041171</v>
       </c>
       <c r="P82" t="n">
-        <v>2.588974388536265</v>
+        <v>2.588975095041171</v>
       </c>
       <c r="Q82" t="n">
         <v>8.010811150093437</v>
@@ -4842,25 +4842,25 @@
         <v>126.7702319140949</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.003941871535104724</v>
+        <v>-0.003941218015377501</v>
       </c>
       <c r="K83" t="n">
-        <v>-36.17557865655791</v>
+        <v>-36.17557931007764</v>
       </c>
       <c r="L83" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N83" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O83" t="n">
-        <v>1.509609781954701</v>
+        <v>1.509610784397339</v>
       </c>
       <c r="P83" t="n">
-        <v>1.509609781954701</v>
+        <v>1.509610784397339</v>
       </c>
       <c r="Q83" t="n">
         <v>4.444427112795997</v>
@@ -4895,25 +4895,25 @@
         <v>315.5201162714648</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.3855417968150334</v>
+        <v>-0.3855392126428043</v>
       </c>
       <c r="K84" t="n">
-        <v>-35.55248173228781</v>
+        <v>-35.55248431646004</v>
       </c>
       <c r="L84" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N84" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O84" t="n">
-        <v>2.132706706224802</v>
+        <v>2.132705778014937</v>
       </c>
       <c r="P84" t="n">
-        <v>2.132706706224802</v>
+        <v>2.132705778014937</v>
       </c>
       <c r="Q84" t="n">
         <v>3.750835783131848</v>
@@ -4948,25 +4948,25 @@
         <v>414.2276959232506</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.5163181457031172</v>
+        <v>-0.5163162395391936</v>
       </c>
       <c r="K85" t="n">
-        <v>-39.16962685437548</v>
+        <v>-39.1696287605394</v>
       </c>
       <c r="L85" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N85" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O85" t="n">
-        <v>-1.484438415862869</v>
+        <v>-1.484438666064428</v>
       </c>
       <c r="P85" t="n">
-        <v>1.484438415862869</v>
+        <v>1.484438666064428</v>
       </c>
       <c r="Q85" t="n">
         <v>5.783076678794738</v>
@@ -5001,25 +5001,25 @@
         <v>121.0448406991718</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.1477820082827961</v>
+        <v>-0.1477798523961056</v>
       </c>
       <c r="K86" t="n">
-        <v>-40.38355327248065</v>
+        <v>-40.38355542836734</v>
       </c>
       <c r="L86" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N86" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O86" t="n">
-        <v>-2.698364833968036</v>
+        <v>-2.698365333892362</v>
       </c>
       <c r="P86" t="n">
-        <v>2.698364833968036</v>
+        <v>2.698365333892362</v>
       </c>
       <c r="Q86" t="n">
         <v>4.53196892076782</v>
@@ -5054,25 +5054,25 @@
         <v>286.5507535531459</v>
       </c>
       <c r="J87" t="n">
-        <v>0.09535723528167495</v>
+        <v>0.09535693633961273</v>
       </c>
       <c r="K87" t="n">
-        <v>-37.10221872887566</v>
+        <v>-37.1022184299336</v>
       </c>
       <c r="L87" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N87" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O87" t="n">
-        <v>0.5829697096369486</v>
+        <v>0.5829716645413754</v>
       </c>
       <c r="P87" t="n">
-        <v>0.5829697096369486</v>
+        <v>0.5829716645413754</v>
       </c>
       <c r="Q87" t="n">
         <v>3.947977912986067</v>
@@ -5107,25 +5107,25 @@
         <v>441.0949372586492</v>
       </c>
       <c r="J88" t="n">
-        <v>0.3747398564226216</v>
+        <v>0.3747415919210795</v>
       </c>
       <c r="K88" t="n">
-        <v>-36.22550903620826</v>
+        <v>-36.22551077170672</v>
       </c>
       <c r="L88" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N88" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O88" t="n">
-        <v>1.459679402304353</v>
+        <v>1.45967932276826</v>
       </c>
       <c r="P88" t="n">
-        <v>1.459679402304353</v>
+        <v>1.45967932276826</v>
       </c>
       <c r="Q88" t="n">
         <v>3.927393738776853</v>
@@ -5160,25 +5160,25 @@
         <v>275.1894426074431</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.367401944527046</v>
+        <v>-0.3674000435518181</v>
       </c>
       <c r="K89" t="n">
-        <v>-36.96363376123641</v>
+        <v>-36.96363566221164</v>
       </c>
       <c r="L89" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N89" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O89" t="n">
-        <v>0.7215546772762025</v>
+        <v>0.7215544322633392</v>
       </c>
       <c r="P89" t="n">
-        <v>0.7215546772762025</v>
+        <v>0.7215544322633392</v>
       </c>
       <c r="Q89" t="n">
         <v>5.23592906836902</v>
@@ -5213,25 +5213,25 @@
         <v>147.5727752802733</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.2188410396403384</v>
+        <v>-0.2188397987799675</v>
       </c>
       <c r="K90" t="n">
-        <v>-32.94681198960505</v>
+        <v>-32.94681323046542</v>
       </c>
       <c r="L90" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N90" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O90" t="n">
-        <v>4.738376448907566</v>
+        <v>4.73837686400956</v>
       </c>
       <c r="P90" t="n">
-        <v>4.738376448907566</v>
+        <v>4.73837686400956</v>
       </c>
       <c r="Q90" t="n">
         <v>3.853089276515243</v>
@@ -5266,28 +5266,28 @@
         <v>345.1360723267757</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2234412482246597</v>
+        <v>0.2234436112661982</v>
       </c>
       <c r="K91" t="n">
-        <v>-40.08113118122544</v>
+        <v>-40.08113354426698</v>
       </c>
       <c r="L91" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N91" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O91" t="n">
-        <v>-2.395942742712826</v>
+        <v>-2.395943449792</v>
       </c>
       <c r="P91" t="n">
-        <v>2.395942742712826</v>
+        <v>2.395943449792</v>
       </c>
       <c r="Q91" t="n">
-        <v>7.966749821515286</v>
+        <v>7.966749821515285</v>
       </c>
     </row>
     <row r="92">
@@ -5319,25 +5319,25 @@
         <v>126.8088262426828</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.003851775929781809</v>
+        <v>-0.003851122484533676</v>
       </c>
       <c r="K92" t="n">
-        <v>-36.17810971890074</v>
+        <v>-36.17811037234599</v>
       </c>
       <c r="L92" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N92" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O92" t="n">
-        <v>1.507078719611869</v>
+        <v>1.507079722128985</v>
       </c>
       <c r="P92" t="n">
-        <v>1.507078719611869</v>
+        <v>1.507079722128985</v>
       </c>
       <c r="Q92" t="n">
         <v>4.433882803722996</v>
@@ -5372,25 +5372,25 @@
         <v>279.994599870436</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1868343710944913</v>
+        <v>0.1868343696542851</v>
       </c>
       <c r="K93" t="n">
-        <v>-35.46320599717319</v>
+        <v>-35.46320599573298</v>
       </c>
       <c r="L93" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N93" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O93" t="n">
-        <v>-2.479325661954029</v>
+        <v>-2.479325663362864</v>
       </c>
       <c r="P93" t="n">
-        <v>2.479325661954029</v>
+        <v>2.479325663362864</v>
       </c>
       <c r="Q93" t="n">
         <v>3.252789725319172</v>
@@ -5425,25 +5425,25 @@
         <v>286.1454773762528</v>
       </c>
       <c r="J94" t="n">
-        <v>0.08383059151957895</v>
+        <v>0.08383059202986232</v>
       </c>
       <c r="K94" t="n">
-        <v>-34.7835827098071</v>
+        <v>-34.78358271031738</v>
       </c>
       <c r="L94" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N94" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O94" t="n">
-        <v>-1.799702374587937</v>
+        <v>-1.799702377947263</v>
       </c>
       <c r="P94" t="n">
-        <v>1.799702374587937</v>
+        <v>1.799702377947263</v>
       </c>
       <c r="Q94" t="n">
         <v>4.052517091126894</v>
@@ -5478,25 +5478,25 @@
         <v>414.0028736232419</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.4540856440132046</v>
+        <v>-0.4540856473080694</v>
       </c>
       <c r="K95" t="n">
-        <v>-37.47312996060441</v>
+        <v>-37.47312995730955</v>
       </c>
       <c r="L95" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N95" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O95" t="n">
-        <v>-4.489249625385249</v>
+        <v>-4.489249624939426</v>
       </c>
       <c r="P95" t="n">
-        <v>4.489249625385249</v>
+        <v>4.489249624939426</v>
       </c>
       <c r="Q95" t="n">
         <v>5.721693767606797</v>
@@ -5531,28 +5531,28 @@
         <v>121.2272389167231</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.1384442910640047</v>
+        <v>-0.1384442947889681</v>
       </c>
       <c r="K96" t="n">
-        <v>-36.13083050354746</v>
+        <v>-36.1308304998225</v>
       </c>
       <c r="L96" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N96" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O96" t="n">
-        <v>-3.146950168328303</v>
+        <v>-3.146950167452381</v>
       </c>
       <c r="P96" t="n">
-        <v>3.146950168328303</v>
+        <v>3.146950167452381</v>
       </c>
       <c r="Q96" t="n">
-        <v>4.473258235095465</v>
+        <v>4.473258235095466</v>
       </c>
     </row>
     <row r="97">
@@ -5584,25 +5584,25 @@
         <v>515.7747995025849</v>
       </c>
       <c r="J97" t="n">
-        <v>0.08572702307493074</v>
+        <v>0.08572702636850238</v>
       </c>
       <c r="K97" t="n">
-        <v>-33.22459191407467</v>
+        <v>-33.22459191736824</v>
       </c>
       <c r="L97" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N97" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.2407115788555103</v>
+        <v>-0.2407115849981238</v>
       </c>
       <c r="P97" t="n">
-        <v>0.2407115788555103</v>
+        <v>0.2407115849981238</v>
       </c>
       <c r="Q97" t="n">
         <v>3.346492150671101</v>
@@ -5637,25 +5637,25 @@
         <v>270.9470868696371</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1756072112809832</v>
+        <v>0.1756072090200007</v>
       </c>
       <c r="K98" t="n">
-        <v>-35.59756096302628</v>
+        <v>-35.5975609607653</v>
       </c>
       <c r="L98" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M98" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N98" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O98" t="n">
-        <v>-2.613680627807121</v>
+        <v>-2.61368062839518</v>
       </c>
       <c r="P98" t="n">
-        <v>2.613680627807121</v>
+        <v>2.61368062839518</v>
       </c>
       <c r="Q98" t="n">
         <v>3.537416443630892</v>
@@ -5690,25 +5690,25 @@
         <v>129.1638799714878</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.1689641333952778</v>
+        <v>-0.1689641353358553</v>
       </c>
       <c r="K99" t="n">
-        <v>-37.25169963099545</v>
+        <v>-37.25169962905488</v>
       </c>
       <c r="L99" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M99" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N99" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O99" t="n">
-        <v>-4.267819295776292</v>
+        <v>-4.267819296684756</v>
       </c>
       <c r="P99" t="n">
-        <v>4.267819295776292</v>
+        <v>4.267819296684756</v>
       </c>
       <c r="Q99" t="n">
         <v>3.773964549737863</v>
@@ -5743,25 +5743,25 @@
         <v>137.3820909347915</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.1604268917058747</v>
+        <v>-0.1604268955054593</v>
       </c>
       <c r="K100" t="n">
-        <v>-28.356793462047</v>
+        <v>-28.35679345824741</v>
       </c>
       <c r="L100" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N100" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O100" t="n">
-        <v>4.627086873172164</v>
+        <v>4.627086874122707</v>
       </c>
       <c r="P100" t="n">
-        <v>4.627086873172164</v>
+        <v>4.627086874122707</v>
       </c>
       <c r="Q100" t="n">
         <v>4.270816632399117</v>
@@ -5796,25 +5796,25 @@
         <v>280.0877649330782</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1869198262817449</v>
+        <v>0.1869198248419437</v>
       </c>
       <c r="K101" t="n">
-        <v>-35.53283929366493</v>
+        <v>-35.53283929222513</v>
       </c>
       <c r="L101" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M101" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N101" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O101" t="n">
-        <v>-2.548958958445766</v>
+        <v>-2.548958959855007</v>
       </c>
       <c r="P101" t="n">
-        <v>2.548958958445766</v>
+        <v>2.548958959855007</v>
       </c>
       <c r="Q101" t="n">
         <v>3.292368630859872</v>
@@ -5849,25 +5849,25 @@
         <v>286.1764804630409</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08370608677921609</v>
+        <v>0.08370608729060791</v>
       </c>
       <c r="K102" t="n">
-        <v>-34.76011042420436</v>
+        <v>-34.76011042471575</v>
       </c>
       <c r="L102" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N102" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O102" t="n">
-        <v>-1.776230088985194</v>
+        <v>-1.776230092345628</v>
       </c>
       <c r="P102" t="n">
-        <v>1.776230088985194</v>
+        <v>1.776230092345628</v>
       </c>
       <c r="Q102" t="n">
         <v>4.095280806505442</v>
@@ -5902,25 +5902,25 @@
         <v>414.0586381899541</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.4541292380121789</v>
+        <v>-0.4541292413057221</v>
       </c>
       <c r="K103" t="n">
-        <v>-37.55640427923401</v>
+        <v>-37.55640427594047</v>
       </c>
       <c r="L103" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N103" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O103" t="n">
-        <v>-4.572523944014847</v>
+        <v>-4.572523943570346</v>
       </c>
       <c r="P103" t="n">
-        <v>4.572523944014847</v>
+        <v>4.572523943570346</v>
       </c>
       <c r="Q103" t="n">
         <v>5.854926509136813</v>
@@ -5955,28 +5955,28 @@
         <v>121.2699366393606</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.1384656217443236</v>
+        <v>-0.1384656254697489</v>
       </c>
       <c r="K104" t="n">
-        <v>-36.30156682191623</v>
+        <v>-36.3015668181908</v>
       </c>
       <c r="L104" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M104" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N104" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O104" t="n">
-        <v>-3.317686486697063</v>
+        <v>-3.31768648582068</v>
       </c>
       <c r="P104" t="n">
-        <v>3.317686486697063</v>
+        <v>3.31768648582068</v>
       </c>
       <c r="Q104" t="n">
-        <v>4.514615175573571</v>
+        <v>4.51461517557357</v>
       </c>
     </row>
     <row r="105">
@@ -6008,25 +6008,25 @@
         <v>515.7935695579403</v>
       </c>
       <c r="J105" t="n">
-        <v>0.08555481908155826</v>
+        <v>0.08555482237554202</v>
       </c>
       <c r="K105" t="n">
-        <v>-32.54876417314768</v>
+        <v>-32.54876417644167</v>
       </c>
       <c r="L105" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N105" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O105" t="n">
-        <v>0.4351161620714805</v>
+        <v>0.4351161559284549</v>
       </c>
       <c r="P105" t="n">
-        <v>0.4351161620714805</v>
+        <v>0.4351161559284549</v>
       </c>
       <c r="Q105" t="n">
         <v>3.291643531929171</v>
@@ -6061,25 +6061,25 @@
         <v>271.3639493084513</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1759437845688154</v>
+        <v>0.1759437823051542</v>
       </c>
       <c r="K106" t="n">
-        <v>-35.48514698528876</v>
+        <v>-35.4851469830251</v>
       </c>
       <c r="L106" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N106" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O106" t="n">
-        <v>-2.501266650069603</v>
+        <v>-2.501266650654983</v>
       </c>
       <c r="P106" t="n">
-        <v>2.501266650069603</v>
+        <v>2.501266650654983</v>
       </c>
       <c r="Q106" t="n">
         <v>4.03116312419592</v>
@@ -6114,25 +6114,25 @@
         <v>129.311948319541</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.1695836283525551</v>
+        <v>-0.1695836303024763</v>
       </c>
       <c r="K107" t="n">
-        <v>-37.38967141826765</v>
+        <v>-37.38967141631773</v>
       </c>
       <c r="L107" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M107" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N107" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O107" t="n">
-        <v>-4.405791083048484</v>
+        <v>-4.405791083947605</v>
       </c>
       <c r="P107" t="n">
-        <v>4.405791083048484</v>
+        <v>4.405791083947605</v>
       </c>
       <c r="Q107" t="n">
         <v>4.714891820105957</v>
@@ -6167,25 +6167,25 @@
         <v>279.9783683922233</v>
       </c>
       <c r="J108" t="n">
-        <v>0.186818021749545</v>
+        <v>0.1868180203094596</v>
       </c>
       <c r="K108" t="n">
-        <v>-35.34802568277225</v>
+        <v>-35.34802568133216</v>
       </c>
       <c r="L108" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N108" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O108" t="n">
-        <v>-2.364145347553084</v>
+        <v>-2.36414534896204</v>
       </c>
       <c r="P108" t="n">
-        <v>2.364145347553084</v>
+        <v>2.36414534896204</v>
       </c>
       <c r="Q108" t="n">
         <v>3.230454799627398</v>
@@ -6220,25 +6220,25 @@
         <v>286.3044681473186</v>
       </c>
       <c r="J109" t="n">
-        <v>0.08392970885678608</v>
+        <v>0.08392970936865396</v>
       </c>
       <c r="K109" t="n">
-        <v>-34.78773019390223</v>
+        <v>-34.7877301944141</v>
       </c>
       <c r="L109" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N109" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O109" t="n">
-        <v>-1.803849858683073</v>
+        <v>-1.803849862043982</v>
       </c>
       <c r="P109" t="n">
-        <v>1.803849858683073</v>
+        <v>1.803849862043982</v>
       </c>
       <c r="Q109" t="n">
         <v>3.898158078352757</v>
@@ -6273,28 +6273,28 @@
         <v>413.7958844226864</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.4539054172827903</v>
+        <v>-0.4539054205792468</v>
       </c>
       <c r="K110" t="n">
-        <v>-37.20878690955288</v>
+        <v>-37.20878690625642</v>
       </c>
       <c r="L110" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M110" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N110" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O110" t="n">
-        <v>-4.224906574333716</v>
+        <v>-4.224906573886301</v>
       </c>
       <c r="P110" t="n">
-        <v>4.224906574333716</v>
+        <v>4.224906573886301</v>
       </c>
       <c r="Q110" t="n">
-        <v>5.530701974609257</v>
+        <v>5.530701974609256</v>
       </c>
     </row>
     <row r="111">
@@ -6326,25 +6326,25 @@
         <v>121.243120948058</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.1385309494094216</v>
+        <v>-0.1385309531341008</v>
       </c>
       <c r="K111" t="n">
-        <v>-36.1704325864505</v>
+        <v>-36.17043258272582</v>
       </c>
       <c r="L111" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M111" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N111" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O111" t="n">
-        <v>-3.186552251231333</v>
+        <v>-3.186552250355696</v>
       </c>
       <c r="P111" t="n">
-        <v>3.186552251231333</v>
+        <v>3.186552250355696</v>
       </c>
       <c r="Q111" t="n">
         <v>4.509817880292377</v>
@@ -6379,25 +6379,25 @@
         <v>344.4420720017027</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1523499259113379</v>
+        <v>0.1523499267704054</v>
       </c>
       <c r="K112" t="n">
-        <v>-36.22098204458501</v>
+        <v>-36.22098204544408</v>
       </c>
       <c r="L112" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M112" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N112" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O112" t="n">
-        <v>-3.237101709365852</v>
+        <v>-3.237101713073962</v>
       </c>
       <c r="P112" t="n">
-        <v>3.237101709365852</v>
+        <v>3.237101713073962</v>
       </c>
       <c r="Q112" t="n">
         <v>3.69145495086061</v>
@@ -6432,25 +6432,25 @@
         <v>271.5133357223735</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1760818943740858</v>
+        <v>0.1760818921106662</v>
       </c>
       <c r="K113" t="n">
-        <v>-35.5074448933393</v>
+        <v>-35.50744489107588</v>
       </c>
       <c r="L113" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M113" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N113" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O113" t="n">
-        <v>-2.523564558120142</v>
+        <v>-2.523564558705765</v>
       </c>
       <c r="P113" t="n">
-        <v>2.523564558120142</v>
+        <v>2.523564558705765</v>
       </c>
       <c r="Q113" t="n">
         <v>4.144548849592106</v>
@@ -6485,25 +6485,25 @@
         <v>515.6273258864666</v>
       </c>
       <c r="J114" t="n">
-        <v>0.08530570371307533</v>
+        <v>0.08530570700543194</v>
       </c>
       <c r="K114" t="n">
-        <v>-32.84840353415127</v>
+        <v>-32.84840353744362</v>
       </c>
       <c r="L114" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M114" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N114" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O114" t="n">
-        <v>0.1354768010678953</v>
+        <v>0.1354767949264968</v>
       </c>
       <c r="P114" t="n">
-        <v>0.1354768010678953</v>
+        <v>0.1354767949264968</v>
       </c>
       <c r="Q114" t="n">
         <v>3.431257715330738</v>
@@ -6538,25 +6538,25 @@
         <v>137.4220255686298</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.1604804709023142</v>
+        <v>-0.160480474702041</v>
       </c>
       <c r="K115" t="n">
-        <v>-28.47705610079017</v>
+        <v>-28.47705609699044</v>
       </c>
       <c r="L115" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M115" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N115" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O115" t="n">
-        <v>4.506824234428993</v>
+        <v>4.506824235379678</v>
       </c>
       <c r="P115" t="n">
-        <v>4.506824234428993</v>
+        <v>4.506824235379678</v>
       </c>
       <c r="Q115" t="n">
         <v>4.323327585016938</v>
@@ -6591,28 +6591,28 @@
         <v>286.3565138562876</v>
       </c>
       <c r="J116" t="n">
-        <v>0.09258168215547968</v>
+        <v>0.09258168193317573</v>
       </c>
       <c r="K116" t="n">
-        <v>-31.13322960857026</v>
+        <v>-31.13322960834795</v>
       </c>
       <c r="L116" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M116" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N116" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O116" t="n">
-        <v>-2.723273845067187</v>
+        <v>-2.723273843599625</v>
       </c>
       <c r="P116" t="n">
-        <v>2.723273845067187</v>
+        <v>2.723273843599625</v>
       </c>
       <c r="Q116" t="n">
-        <v>3.665112856634907</v>
+        <v>3.665112856634908</v>
       </c>
     </row>
     <row r="117">
@@ -6644,25 +6644,25 @@
         <v>120.6503154898596</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.1881947678559648</v>
+        <v>-0.1881947662411996</v>
       </c>
       <c r="K117" t="n">
-        <v>-31.37521564727273</v>
+        <v>-31.3752156488875</v>
       </c>
       <c r="L117" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N117" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O117" t="n">
-        <v>-2.965259883769662</v>
+        <v>-2.965259884139169</v>
       </c>
       <c r="P117" t="n">
-        <v>2.965259883769662</v>
+        <v>2.965259884139169</v>
       </c>
       <c r="Q117" t="n">
         <v>3.811986896410758</v>
@@ -6697,25 +6697,25 @@
         <v>272.6603703656133</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1511086344049239</v>
+        <v>0.151108635381302</v>
       </c>
       <c r="K118" t="n">
-        <v>-30.9283626095936</v>
+        <v>-30.92836261056997</v>
       </c>
       <c r="L118" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M118" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N118" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O118" t="n">
-        <v>-2.518406846090524</v>
+        <v>-2.518406845821644</v>
       </c>
       <c r="P118" t="n">
-        <v>2.518406846090524</v>
+        <v>2.518406845821644</v>
       </c>
       <c r="Q118" t="n">
         <v>5.092140337267269</v>
@@ -6750,25 +6750,25 @@
         <v>341.3184118214605</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.4143830751044781</v>
+        <v>-0.4143830728433251</v>
       </c>
       <c r="K119" t="n">
-        <v>-32.59985134261063</v>
+        <v>-32.59985134487179</v>
       </c>
       <c r="L119" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M119" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N119" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O119" t="n">
-        <v>-4.189895579107564</v>
+        <v>-4.189895580123466</v>
       </c>
       <c r="P119" t="n">
-        <v>4.189895579107564</v>
+        <v>4.189895580123466</v>
       </c>
       <c r="Q119" t="n">
         <v>3.875253069625637</v>
@@ -6803,25 +6803,25 @@
         <v>366.2226917058968</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.4346416471416461</v>
+        <v>-0.4346416447740395</v>
       </c>
       <c r="K120" t="n">
-        <v>-27.34833129616702</v>
+        <v>-27.34833129853463</v>
       </c>
       <c r="L120" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M120" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N120" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O120" t="n">
-        <v>1.061624467336049</v>
+        <v>1.061624466213701</v>
       </c>
       <c r="P120" t="n">
-        <v>1.061624467336049</v>
+        <v>1.061624466213701</v>
       </c>
       <c r="Q120" t="n">
         <v>3.349271370289884</v>
@@ -6856,25 +6856,25 @@
         <v>255.8180014002468</v>
       </c>
       <c r="J121" t="n">
-        <v>0.09122722029786701</v>
+        <v>0.09122722027427344</v>
       </c>
       <c r="K121" t="n">
-        <v>-27.94895780017917</v>
+        <v>-27.94895780015558</v>
       </c>
       <c r="L121" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M121" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N121" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O121" t="n">
-        <v>0.4609979633238979</v>
+        <v>0.4609979645927496</v>
       </c>
       <c r="P121" t="n">
-        <v>0.4609979633238979</v>
+        <v>0.4609979645927496</v>
       </c>
       <c r="Q121" t="n">
         <v>3.625503170977929</v>
@@ -6909,25 +6909,25 @@
         <v>245.4446674974654</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1271158065188907</v>
+        <v>0.1271158074797647</v>
       </c>
       <c r="K122" t="n">
-        <v>-30.09103819288116</v>
+        <v>-30.09103819384204</v>
       </c>
       <c r="L122" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M122" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N122" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O122" t="n">
-        <v>-1.68108242937809</v>
+        <v>-1.681082429093706</v>
       </c>
       <c r="P122" t="n">
-        <v>1.68108242937809</v>
+        <v>1.681082429093706</v>
       </c>
       <c r="Q122" t="n">
         <v>3.478853008707547</v>
@@ -6962,25 +6962,25 @@
         <v>286.431569010052</v>
       </c>
       <c r="J123" t="n">
-        <v>0.09261845012654035</v>
+        <v>0.09261844990385981</v>
       </c>
       <c r="K123" t="n">
-        <v>-31.0570049188853</v>
+        <v>-31.05700491866262</v>
       </c>
       <c r="L123" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M123" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N123" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O123" t="n">
-        <v>-2.647049155382227</v>
+        <v>-2.647049153914288</v>
       </c>
       <c r="P123" t="n">
-        <v>2.647049155382227</v>
+        <v>2.647049153914288</v>
       </c>
       <c r="Q123" t="n">
         <v>3.596724507004387</v>
@@ -7015,25 +7015,25 @@
         <v>120.3419402634766</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.1879564472534945</v>
+        <v>-0.187956445640058</v>
       </c>
       <c r="K124" t="n">
-        <v>-31.39397258977005</v>
+        <v>-31.39397259138349</v>
       </c>
       <c r="L124" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M124" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N124" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O124" t="n">
-        <v>-2.984016826266981</v>
+        <v>-2.984016826635159</v>
       </c>
       <c r="P124" t="n">
-        <v>2.984016826266981</v>
+        <v>2.984016826635159</v>
       </c>
       <c r="Q124" t="n">
         <v>3.504148587707567</v>
@@ -7068,25 +7068,25 @@
         <v>301.2543969837054</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1920309842847452</v>
+        <v>0.1920309849106658</v>
       </c>
       <c r="K125" t="n">
-        <v>-25.58632218535281</v>
+        <v>-25.58632218597873</v>
       </c>
       <c r="L125" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M125" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N125" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O125" t="n">
-        <v>2.823633578150265</v>
+        <v>2.823633578769602</v>
       </c>
       <c r="P125" t="n">
-        <v>2.823633578150265</v>
+        <v>2.823633578769602</v>
       </c>
       <c r="Q125" t="n">
         <v>8.349369913894103</v>
@@ -7121,25 +7121,25 @@
         <v>272.8185795587925</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1513100862553571</v>
+        <v>0.1513100872308506</v>
       </c>
       <c r="K126" t="n">
-        <v>-31.00284315373986</v>
+        <v>-31.00284315471536</v>
       </c>
       <c r="L126" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M126" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N126" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O126" t="n">
-        <v>-2.592887390236793</v>
+        <v>-2.592887389967029</v>
       </c>
       <c r="P126" t="n">
-        <v>2.592887390236793</v>
+        <v>2.592887389967029</v>
       </c>
       <c r="Q126" t="n">
         <v>5.158230678418849</v>
@@ -7174,25 +7174,25 @@
         <v>254.4729853537614</v>
       </c>
       <c r="J127" t="n">
-        <v>0.09013428135824242</v>
+        <v>0.09013428134016976</v>
       </c>
       <c r="K127" t="n">
-        <v>-31.36578474451062</v>
+        <v>-31.36578474449255</v>
       </c>
       <c r="L127" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M127" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N127" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O127" t="n">
-        <v>-2.955828981007553</v>
+        <v>-2.955828979744222</v>
       </c>
       <c r="P127" t="n">
-        <v>2.955828981007553</v>
+        <v>2.955828979744222</v>
       </c>
       <c r="Q127" t="n">
         <v>4.945481775634343</v>
@@ -7227,25 +7227,25 @@
         <v>341.3263265908331</v>
       </c>
       <c r="J128" t="n">
-        <v>-0.41437728505338</v>
+        <v>-0.4143772827920849</v>
       </c>
       <c r="K128" t="n">
-        <v>-32.58519498862643</v>
+        <v>-32.58519499088771</v>
       </c>
       <c r="L128" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M128" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N128" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O128" t="n">
-        <v>-4.175239225123356</v>
+        <v>-4.175239226139386</v>
       </c>
       <c r="P128" t="n">
-        <v>4.175239225123356</v>
+        <v>4.175239226139386</v>
       </c>
       <c r="Q128" t="n">
         <v>3.902746821569906</v>
@@ -7280,25 +7280,25 @@
         <v>366.2078745641908</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.4346168244337036</v>
+        <v>-0.434616822066058</v>
       </c>
       <c r="K129" t="n">
-        <v>-27.23017382004085</v>
+        <v>-27.2301738224085</v>
       </c>
       <c r="L129" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M129" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N129" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O129" t="n">
-        <v>1.179781943462217</v>
+        <v>1.179781942339829</v>
       </c>
       <c r="P129" t="n">
-        <v>1.179781943462217</v>
+        <v>1.179781942339829</v>
       </c>
       <c r="Q129" t="n">
         <v>3.349918625206489</v>
@@ -7333,25 +7333,25 @@
         <v>245.4898482855718</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1271701600906958</v>
+        <v>0.1271701610513531</v>
       </c>
       <c r="K130" t="n">
-        <v>-29.99634403904256</v>
+        <v>-29.99634404000322</v>
       </c>
       <c r="L130" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M130" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N130" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O130" t="n">
-        <v>-1.586388275539488</v>
+        <v>-1.586388275254887</v>
       </c>
       <c r="P130" t="n">
-        <v>1.586388275539488</v>
+        <v>1.586388275254887</v>
       </c>
       <c r="Q130" t="n">
         <v>3.462392018699256</v>
@@ -7386,25 +7386,25 @@
         <v>431.0421733393662</v>
       </c>
       <c r="J131" t="n">
-        <v>0.006853374977765725</v>
+        <v>0.006853373968958465</v>
       </c>
       <c r="K131" t="n">
-        <v>-32.06670707244069</v>
+        <v>-32.06670707143189</v>
       </c>
       <c r="L131" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M131" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N131" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O131" t="n">
-        <v>-3.656751308937622</v>
+        <v>-3.656751306683557</v>
       </c>
       <c r="P131" t="n">
-        <v>3.656751308937622</v>
+        <v>3.656751306683557</v>
       </c>
       <c r="Q131" t="n">
         <v>9.353356055587414</v>
@@ -7439,25 +7439,25 @@
         <v>286.4161549167175</v>
       </c>
       <c r="J132" t="n">
-        <v>0.09259497708482911</v>
+        <v>0.0925949768621841</v>
       </c>
       <c r="K132" t="n">
-        <v>-31.11628229288206</v>
+        <v>-31.11628229265941</v>
       </c>
       <c r="L132" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M132" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N132" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O132" t="n">
-        <v>-2.706326529378988</v>
+        <v>-2.706326527911084</v>
       </c>
       <c r="P132" t="n">
-        <v>2.706326529378988</v>
+        <v>2.706326527911084</v>
       </c>
       <c r="Q132" t="n">
         <v>3.615922441071256</v>
@@ -7492,25 +7492,25 @@
         <v>120.5662379582696</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.1880749726387343</v>
+        <v>-0.1880749710241894</v>
       </c>
       <c r="K133" t="n">
-        <v>-31.30609737228198</v>
+        <v>-31.30609737389652</v>
       </c>
       <c r="L133" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M133" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N133" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O133" t="n">
-        <v>-2.896141608778908</v>
+        <v>-2.896141609148195</v>
       </c>
       <c r="P133" t="n">
-        <v>2.896141608778908</v>
+        <v>2.896141609148195</v>
       </c>
       <c r="Q133" t="n">
         <v>3.729707092746691</v>
@@ -7545,25 +7545,25 @@
         <v>301.3113363623501</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1921072095027583</v>
+        <v>0.1921072101274461</v>
       </c>
       <c r="K134" t="n">
-        <v>-25.42851538215285</v>
+        <v>-25.42851538277753</v>
       </c>
       <c r="L134" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M134" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N134" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O134" t="n">
-        <v>2.981440381350225</v>
+        <v>2.981440381970796</v>
       </c>
       <c r="P134" t="n">
-        <v>2.981440381350225</v>
+        <v>2.981440381970796</v>
       </c>
       <c r="Q134" t="n">
         <v>8.173636650999134</v>
@@ -7598,25 +7598,25 @@
         <v>272.5683554323348</v>
       </c>
       <c r="J135" t="n">
-        <v>0.150935151925065</v>
+        <v>0.1509351529028322</v>
       </c>
       <c r="K135" t="n">
-        <v>-30.81771769181101</v>
+        <v>-30.81771769278878</v>
       </c>
       <c r="L135" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M135" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N135" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O135" t="n">
-        <v>-2.407761928307941</v>
+        <v>-2.407761928040451</v>
       </c>
       <c r="P135" t="n">
-        <v>2.407761928307941</v>
+        <v>2.407761928040451</v>
       </c>
       <c r="Q135" t="n">
         <v>5.148239283395094</v>
@@ -7651,25 +7651,25 @@
         <v>254.5034954451486</v>
       </c>
       <c r="J136" t="n">
-        <v>0.09006290249479321</v>
+        <v>0.09006290247623738</v>
       </c>
       <c r="K136" t="n">
-        <v>-31.4024366178259</v>
+        <v>-31.40243661780735</v>
       </c>
       <c r="L136" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M136" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N136" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O136" t="n">
-        <v>-2.992480854322832</v>
+        <v>-2.992480853059018</v>
       </c>
       <c r="P136" t="n">
-        <v>2.992480854322832</v>
+        <v>2.992480853059018</v>
       </c>
       <c r="Q136" t="n">
         <v>4.901948496544902</v>
@@ -7704,25 +7704,25 @@
         <v>341.143968120082</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.4142655020012818</v>
+        <v>-0.414265499741088</v>
       </c>
       <c r="K137" t="n">
-        <v>-32.62068205555119</v>
+        <v>-32.62068205781138</v>
       </c>
       <c r="L137" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M137" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N137" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O137" t="n">
-        <v>-4.210726292048115</v>
+        <v>-4.21072629306305</v>
       </c>
       <c r="P137" t="n">
-        <v>4.210726292048115</v>
+        <v>4.21072629306305</v>
       </c>
       <c r="Q137" t="n">
         <v>3.675502867772587</v>
@@ -7757,25 +7757,25 @@
         <v>366.2310343736727</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.4346421127437949</v>
+        <v>-0.4346421103761031</v>
       </c>
       <c r="K138" t="n">
-        <v>-27.21519049037369</v>
+        <v>-27.21519049274138</v>
       </c>
       <c r="L138" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M138" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N138" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O138" t="n">
-        <v>1.194765273129381</v>
+        <v>1.194765272006947</v>
       </c>
       <c r="P138" t="n">
-        <v>1.194765273129381</v>
+        <v>1.194765272006947</v>
       </c>
       <c r="Q138" t="n">
         <v>3.364905122840729</v>
@@ -7810,25 +7810,25 @@
         <v>245.4705242953738</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1271499417096251</v>
+        <v>0.1271499426703251</v>
       </c>
       <c r="K139" t="n">
-        <v>-30.09634310613025</v>
+        <v>-30.09634310709095</v>
       </c>
       <c r="L139" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M139" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N139" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O139" t="n">
-        <v>-1.686387342627178</v>
+        <v>-1.68638734234262</v>
       </c>
       <c r="P139" t="n">
-        <v>1.686387342627178</v>
+        <v>1.68638734234262</v>
       </c>
       <c r="Q139" t="n">
         <v>3.459950770561167</v>
@@ -7863,25 +7863,25 @@
         <v>383.2893143288585</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2230269194908701</v>
+        <v>0.2230269208113604</v>
       </c>
       <c r="K140" t="n">
-        <v>-30.04388931181464</v>
+        <v>-30.04388931313513</v>
       </c>
       <c r="L140" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M140" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N140" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O140" t="n">
-        <v>-1.633933548311571</v>
+        <v>-1.633933548386803</v>
       </c>
       <c r="P140" t="n">
-        <v>1.633933548311571</v>
+        <v>1.633933548386803</v>
       </c>
       <c r="Q140" t="n">
         <v>6.106055446446691</v>
@@ -7916,25 +7916,25 @@
         <v>372.9828396248517</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2154031018229539</v>
+        <v>0.2154031031250874</v>
       </c>
       <c r="K141" t="n">
-        <v>-23.62696077831442</v>
+        <v>-23.62696077961655</v>
       </c>
       <c r="L141" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M141" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N141" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O141" t="n">
-        <v>4.782994985188651</v>
+        <v>4.782994985131776</v>
       </c>
       <c r="P141" t="n">
-        <v>4.782994985188651</v>
+        <v>4.782994985131776</v>
       </c>
       <c r="Q141" t="n">
         <v>4.564671599437111</v>
@@ -7969,25 +7969,25 @@
         <v>317.7700080571245</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1143866638446909</v>
+        <v>0.1143866279130563</v>
       </c>
       <c r="K142" t="n">
-        <v>-23.02204066376605</v>
+        <v>-23.02204062783442</v>
       </c>
       <c r="L142" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M142" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N142" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.1543433700497339</v>
+        <v>-0.1543432196991006</v>
       </c>
       <c r="P142" t="n">
-        <v>0.1543433700497339</v>
+        <v>0.1543432196991006</v>
       </c>
       <c r="Q142" t="n">
         <v>3.388349501766635</v>
@@ -8022,25 +8022,25 @@
         <v>272.9086110470466</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1460794606576279</v>
+        <v>0.1460795511370527</v>
       </c>
       <c r="K143" t="n">
-        <v>-26.02793990825926</v>
+        <v>-26.02793999873868</v>
       </c>
       <c r="L143" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M143" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N143" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O143" t="n">
-        <v>-3.160242614542938</v>
+        <v>-3.160242590603364</v>
       </c>
       <c r="P143" t="n">
-        <v>3.160242614542938</v>
+        <v>3.160242590603364</v>
       </c>
       <c r="Q143" t="n">
         <v>5.489915781948087</v>
@@ -8075,25 +8075,25 @@
         <v>376.6394405762845</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1184246216654898</v>
+        <v>0.1184247974468171</v>
       </c>
       <c r="K144" t="n">
-        <v>-25.8543903587849</v>
+        <v>-25.85439053456622</v>
       </c>
       <c r="L144" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M144" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N144" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O144" t="n">
-        <v>-2.986693065068579</v>
+        <v>-2.986693126430907</v>
       </c>
       <c r="P144" t="n">
-        <v>2.986693065068579</v>
+        <v>2.986693126430907</v>
       </c>
       <c r="Q144" t="n">
         <v>4.482194053809899</v>
@@ -8128,25 +8128,25 @@
         <v>312.1048195005884</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1076715615844677</v>
+        <v>0.1076715275943236</v>
       </c>
       <c r="K145" t="n">
-        <v>-23.35854047484048</v>
+        <v>-23.35854044085034</v>
       </c>
       <c r="L145" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M145" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N145" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.4908431811241627</v>
+        <v>-0.4908430327150199</v>
       </c>
       <c r="P145" t="n">
-        <v>0.4908431811241627</v>
+        <v>0.4908430327150199</v>
       </c>
       <c r="Q145" t="n">
         <v>4.581036765492932</v>
@@ -8181,25 +8181,25 @@
         <v>362.4609631489744</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2392848759057635</v>
+        <v>0.2392848579407776</v>
       </c>
       <c r="K146" t="n">
-        <v>-24.86069915880162</v>
+        <v>-24.86069914083663</v>
       </c>
       <c r="L146" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M146" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N146" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O146" t="n">
-        <v>-1.993001865085301</v>
+        <v>-1.993001732701316</v>
       </c>
       <c r="P146" t="n">
-        <v>1.993001865085301</v>
+        <v>1.993001732701316</v>
       </c>
       <c r="Q146" t="n">
         <v>4.661172552929856</v>
@@ -8234,25 +8234,25 @@
         <v>245.0364654285829</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1204532061873813</v>
+        <v>0.1204532950109574</v>
       </c>
       <c r="K147" t="n">
-        <v>-24.6745251865935</v>
+        <v>-24.67452527541708</v>
       </c>
       <c r="L147" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M147" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N147" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O147" t="n">
-        <v>-1.806827892877184</v>
+        <v>-1.806827867281761</v>
       </c>
       <c r="P147" t="n">
-        <v>1.806827892877184</v>
+        <v>1.806827867281761</v>
       </c>
       <c r="Q147" t="n">
         <v>3.21725604188169</v>
@@ -8287,25 +8287,25 @@
         <v>317.7814557758111</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1143792830104502</v>
+        <v>0.1143792470708753</v>
       </c>
       <c r="K148" t="n">
-        <v>-23.12025884890583</v>
+        <v>-23.12025881296626</v>
       </c>
       <c r="L148" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M148" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N148" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.2525615551895157</v>
+        <v>-0.2525614048309421</v>
       </c>
       <c r="P148" t="n">
-        <v>0.2525615551895157</v>
+        <v>0.2525614048309421</v>
       </c>
       <c r="Q148" t="n">
         <v>3.372208677627242</v>
@@ -8340,25 +8340,25 @@
         <v>272.8659970953505</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1460331561363759</v>
+        <v>0.1460332466213572</v>
       </c>
       <c r="K149" t="n">
-        <v>-26.16896715298309</v>
+        <v>-26.16896724346807</v>
       </c>
       <c r="L149" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M149" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N149" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O149" t="n">
-        <v>-3.301269859266771</v>
+        <v>-3.301269835332754</v>
       </c>
       <c r="P149" t="n">
-        <v>3.301269859266771</v>
+        <v>3.301269835332754</v>
       </c>
       <c r="Q149" t="n">
         <v>5.457751067180301</v>
@@ -8393,25 +8393,25 @@
         <v>376.7127827461963</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1185420412902332</v>
+        <v>0.1185422170540065</v>
       </c>
       <c r="K150" t="n">
-        <v>-25.83598986300057</v>
+        <v>-25.83599003876434</v>
       </c>
       <c r="L150" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M150" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N150" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O150" t="n">
-        <v>-2.968292569284252</v>
+        <v>-2.968292630629026</v>
       </c>
       <c r="P150" t="n">
-        <v>2.968292569284252</v>
+        <v>2.968292630629026</v>
       </c>
       <c r="Q150" t="n">
         <v>4.372613539890895</v>
@@ -8446,25 +8446,25 @@
         <v>312.1143294781434</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1076827661149693</v>
+        <v>0.1076827321215426</v>
       </c>
       <c r="K151" t="n">
-        <v>-23.29845976609161</v>
+        <v>-23.29845973209819</v>
       </c>
       <c r="L151" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M151" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N151" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.4307624723752959</v>
+        <v>-0.4307623239628704</v>
       </c>
       <c r="P151" t="n">
-        <v>0.4307624723752959</v>
+        <v>0.4307623239628704</v>
       </c>
       <c r="Q151" t="n">
         <v>4.571515580014437</v>
@@ -8499,25 +8499,25 @@
         <v>317.7602203456341</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1143653514009131</v>
+        <v>0.1143653154707458</v>
       </c>
       <c r="K152" t="n">
-        <v>-22.95652797175702</v>
+        <v>-22.95652793582685</v>
       </c>
       <c r="L152" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M152" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N152" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.08883067804070066</v>
+        <v>-0.08883052769153466</v>
       </c>
       <c r="P152" t="n">
-        <v>0.08883067804070066</v>
+        <v>0.08883052769153466</v>
       </c>
       <c r="Q152" t="n">
         <v>3.367916609733933</v>
@@ -8552,25 +8552,25 @@
         <v>377.2988554284395</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1184159382147065</v>
+        <v>0.1184161143344369</v>
       </c>
       <c r="K153" t="n">
-        <v>-25.68027672740969</v>
+        <v>-25.68027690352942</v>
       </c>
       <c r="L153" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M153" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N153" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O153" t="n">
-        <v>-2.812579433693369</v>
+        <v>-2.8125794953941</v>
       </c>
       <c r="P153" t="n">
-        <v>2.812579433693369</v>
+        <v>2.8125794953941</v>
       </c>
       <c r="Q153" t="n">
         <v>4.538165839631315</v>
@@ -8605,25 +8605,25 @@
         <v>272.8778802051392</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1460576249827383</v>
+        <v>0.1460577154532139</v>
       </c>
       <c r="K154" t="n">
-        <v>-26.05242436987092</v>
+        <v>-26.0524244603414</v>
       </c>
       <c r="L154" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M154" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N154" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O154" t="n">
-        <v>-3.184727076154601</v>
+        <v>-3.184727052206078</v>
       </c>
       <c r="P154" t="n">
-        <v>3.184727076154601</v>
+        <v>3.184727052206078</v>
       </c>
       <c r="Q154" t="n">
         <v>5.452284053967213</v>
@@ -8658,25 +8658,25 @@
         <v>245.0581998117229</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1204822016062757</v>
+        <v>0.1204822904205081</v>
       </c>
       <c r="K155" t="n">
-        <v>-24.55879855103512</v>
+        <v>-24.55879863984935</v>
       </c>
       <c r="L155" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M155" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N155" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O155" t="n">
-        <v>-1.691101257318799</v>
+        <v>-1.691101231714033</v>
       </c>
       <c r="P155" t="n">
-        <v>1.691101257318799</v>
+        <v>1.691101231714033</v>
       </c>
       <c r="Q155" t="n">
         <v>3.20677890624505</v>
@@ -8711,25 +8711,25 @@
         <v>377.2474380600243</v>
       </c>
       <c r="J156" t="n">
-        <v>-0.04492739507518451</v>
+        <v>-0.04492739736838658</v>
       </c>
       <c r="K156" t="n">
-        <v>-22.7654540449573</v>
+        <v>-22.7654540426641</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M156" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N156" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O156" t="n">
-        <v>-4.560250074948616</v>
+        <v>-4.560250074192954</v>
       </c>
       <c r="P156" t="n">
-        <v>4.560250074948616</v>
+        <v>4.560250074192954</v>
       </c>
       <c r="Q156" t="n">
         <v>4.319713564042535</v>
@@ -8764,25 +8764,25 @@
         <v>272.8275742016045</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.05486088265522682</v>
+        <v>-0.05486088382625454</v>
       </c>
       <c r="K157" t="n">
-        <v>-22.70650161461314</v>
+        <v>-22.70650161344211</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M157" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N157" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O157" t="n">
-        <v>-4.501297644604453</v>
+        <v>-4.501297644970965</v>
       </c>
       <c r="P157" t="n">
-        <v>4.501297644604453</v>
+        <v>4.501297644970965</v>
       </c>
       <c r="Q157" t="n">
         <v>5.561125073745194</v>
@@ -8817,25 +8817,25 @@
         <v>375.7099314681035</v>
       </c>
       <c r="J158" t="n">
-        <v>-0.04441852806119684</v>
+        <v>-0.04441853035262966</v>
       </c>
       <c r="K158" t="n">
-        <v>-22.67536400868843</v>
+        <v>-22.675364006397</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M158" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N158" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O158" t="n">
-        <v>-4.470160038679747</v>
+        <v>-4.470160037925854</v>
       </c>
       <c r="P158" t="n">
-        <v>4.470160038679747</v>
+        <v>4.470160037925854</v>
       </c>
       <c r="Q158" t="n">
         <v>5.100910963708278</v>
@@ -8870,28 +8870,28 @@
         <v>272.8219662056803</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.05485840207664694</v>
+        <v>-0.05485840324769242</v>
       </c>
       <c r="K159" t="n">
-        <v>-22.90461362887455</v>
+        <v>-22.9046136277035</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M159" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N159" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O159" t="n">
-        <v>-4.699409658865864</v>
+        <v>-4.699409659232359</v>
       </c>
       <c r="P159" t="n">
-        <v>4.699409658865864</v>
+        <v>4.699409659232359</v>
       </c>
       <c r="Q159" t="n">
-        <v>5.557816724965653</v>
+        <v>5.557816724965652</v>
       </c>
     </row>
     <row r="160">
@@ -8923,25 +8923,25 @@
         <v>410.643144540147</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2073619791009271</v>
+        <v>0.2073619772228454</v>
       </c>
       <c r="K160" t="n">
-        <v>-14.01159696958988</v>
+        <v>-14.0115969677118</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M160" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N160" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O160" t="n">
-        <v>4.193607000418801</v>
+        <v>4.193607000759343</v>
       </c>
       <c r="P160" t="n">
-        <v>4.193607000418801</v>
+        <v>4.193607000759343</v>
       </c>
       <c r="Q160" t="n">
         <v>10.68038522036291</v>
@@ -8976,25 +8976,25 @@
         <v>375.7598335298098</v>
       </c>
       <c r="J161" t="n">
-        <v>-0.04442988079716059</v>
+        <v>-0.04442988308873907</v>
       </c>
       <c r="K161" t="n">
-        <v>-22.71548753004181</v>
+        <v>-22.71548752775023</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M161" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N161" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O161" t="n">
-        <v>-4.510283560033123</v>
+        <v>-4.510283559279085</v>
       </c>
       <c r="P161" t="n">
-        <v>4.510283560033123</v>
+        <v>4.510283559279085</v>
       </c>
       <c r="Q161" t="n">
         <v>5.150866400600791</v>
@@ -9029,25 +9029,25 @@
         <v>272.874785666242</v>
       </c>
       <c r="J162" t="n">
-        <v>-0.05488419483373619</v>
+        <v>-0.05488419600451522</v>
       </c>
       <c r="K162" t="n">
-        <v>-22.8174229784628</v>
+        <v>-22.81742297729202</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M162" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N162" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O162" t="n">
-        <v>-4.612219008454112</v>
+        <v>-4.612219008820873</v>
       </c>
       <c r="P162" t="n">
-        <v>4.612219008454112</v>
+        <v>4.612219008820873</v>
       </c>
       <c r="Q162" t="n">
         <v>5.580474333542464</v>
@@ -9082,25 +9082,25 @@
         <v>410.6435487914616</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2073670962627219</v>
+        <v>0.2073670943843275</v>
       </c>
       <c r="K163" t="n">
-        <v>-14.16313803511541</v>
+        <v>-14.16313803323701</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M163" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N163" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O163" t="n">
-        <v>4.042065934893277</v>
+        <v>4.042065935234131</v>
       </c>
       <c r="P163" t="n">
-        <v>4.042065934893277</v>
+        <v>4.042065935234131</v>
       </c>
       <c r="Q163" t="n">
         <v>10.73319968121509</v>
@@ -9135,25 +9135,25 @@
         <v>299.8536289201786</v>
       </c>
       <c r="J164" t="n">
-        <v>0.3020824575896359</v>
+        <v>0.3020829623376233</v>
       </c>
       <c r="K164" t="n">
-        <v>-15.69176379484721</v>
+        <v>-15.69176429959519</v>
       </c>
       <c r="L164" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M164" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N164" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O164" t="n">
-        <v>-2.156381759327584</v>
+        <v>-2.156381990908525</v>
       </c>
       <c r="P164" t="n">
-        <v>2.156381759327584</v>
+        <v>2.156381990908525</v>
       </c>
       <c r="Q164" t="n">
         <v>3.286476075804369</v>
@@ -9188,25 +9188,25 @@
         <v>413.2063843905143</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3879813483885908</v>
+        <v>0.3879816805287515</v>
       </c>
       <c r="K165" t="n">
-        <v>-9.986818367758692</v>
+        <v>-9.986818699898853</v>
       </c>
       <c r="L165" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M165" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N165" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O165" t="n">
-        <v>3.548563667760931</v>
+        <v>3.548563608787816</v>
       </c>
       <c r="P165" t="n">
-        <v>3.548563667760931</v>
+        <v>3.548563608787816</v>
       </c>
       <c r="Q165" t="n">
         <v>9.240763695664477</v>
@@ -9241,25 +9241,25 @@
         <v>367.9955551163068</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3920719006075046</v>
+        <v>0.3920723990597885</v>
       </c>
       <c r="K166" t="n">
-        <v>-9.765467035785321</v>
+        <v>-9.765467534237604</v>
       </c>
       <c r="L166" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M166" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N166" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O166" t="n">
-        <v>3.769914999734302</v>
+        <v>3.769914774449065</v>
       </c>
       <c r="P166" t="n">
-        <v>3.769914999734302</v>
+        <v>3.769914774449065</v>
       </c>
       <c r="Q166" t="n">
         <v>9.216797525602489</v>
@@ -9294,25 +9294,25 @@
         <v>299.809639559111</v>
       </c>
       <c r="J167" t="n">
-        <v>0.3020536716569211</v>
+        <v>0.3020541763632778</v>
       </c>
       <c r="K167" t="n">
-        <v>-15.6127223587057</v>
+        <v>-15.61272286341205</v>
       </c>
       <c r="L167" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M167" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N167" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O167" t="n">
-        <v>-2.077340323186073</v>
+        <v>-2.077340554725383</v>
       </c>
       <c r="P167" t="n">
-        <v>2.077340323186073</v>
+        <v>2.077340554725383</v>
       </c>
       <c r="Q167" t="n">
         <v>3.246756316105492</v>
@@ -9347,25 +9347,25 @@
         <v>299.8928493112269</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3020883527435778</v>
+        <v>0.3020888575353045</v>
       </c>
       <c r="K168" t="n">
-        <v>-15.83952715957107</v>
+        <v>-15.8395276643628</v>
       </c>
       <c r="L168" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M168" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N168" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O168" t="n">
-        <v>-2.30414512405145</v>
+        <v>-2.30414535567613</v>
       </c>
       <c r="P168" t="n">
-        <v>2.30414512405145</v>
+        <v>2.30414535567613</v>
       </c>
       <c r="Q168" t="n">
         <v>3.337203467263631</v>
@@ -9400,25 +9400,25 @@
         <v>413.2455333650162</v>
       </c>
       <c r="J169" t="n">
-        <v>0.387993735921496</v>
+        <v>0.3879940680394949</v>
       </c>
       <c r="K169" t="n">
-        <v>-9.657837648682017</v>
+        <v>-9.657837980800016</v>
       </c>
       <c r="L169" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M169" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N169" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O169" t="n">
-        <v>3.877544386837606</v>
+        <v>3.877544327886653</v>
       </c>
       <c r="P169" t="n">
-        <v>3.877544386837606</v>
+        <v>3.877544327886653</v>
       </c>
       <c r="Q169" t="n">
         <v>9.203685532616433</v>
@@ -9453,25 +9453,25 @@
         <v>119.7552166600192</v>
       </c>
       <c r="J170" t="n">
-        <v>0.4747558803491101</v>
+        <v>0.4747568610878048</v>
       </c>
       <c r="K170" t="n">
-        <v>-9.699527804083726</v>
+        <v>-9.699528784822419</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N170" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O170" t="n">
-        <v>-1.287161701840379</v>
+        <v>-1.287161803760885</v>
       </c>
       <c r="P170" t="n">
-        <v>1.287161701840379</v>
+        <v>1.287161803760885</v>
       </c>
       <c r="Q170" t="n">
         <v>3.222489074358212</v>
@@ -9506,25 +9506,25 @@
         <v>368.6344031992585</v>
       </c>
       <c r="J171" t="n">
-        <v>0.9925255468083165</v>
+        <v>0.9925271013782426</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.172701319284378</v>
+        <v>-5.172702873854305</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N171" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O171" t="n">
-        <v>3.239664782958968</v>
+        <v>3.23966410720723</v>
       </c>
       <c r="P171" t="n">
-        <v>3.239664782958968</v>
+        <v>3.23966410720723</v>
       </c>
       <c r="Q171" t="n">
         <v>7.8803829524868</v>
@@ -9559,25 +9559,25 @@
         <v>200.5671025842726</v>
       </c>
       <c r="J172" t="n">
-        <v>-0.09795490083843639</v>
+        <v>-0.09795478314200956</v>
       </c>
       <c r="K172" t="n">
-        <v>-6.744089901102592</v>
+        <v>-6.744090018799019</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N172" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O172" t="n">
-        <v>1.668276201140754</v>
+        <v>1.668276962262516</v>
       </c>
       <c r="P172" t="n">
-        <v>1.668276201140754</v>
+        <v>1.668276962262516</v>
       </c>
       <c r="Q172" t="n">
         <v>61.74785746014945</v>
@@ -9612,25 +9612,25 @@
         <v>368.6525555648983</v>
       </c>
       <c r="J173" t="n">
-        <v>0.992611879398094</v>
+        <v>0.9926134338560084</v>
       </c>
       <c r="K173" t="n">
-        <v>-4.654546339695987</v>
+        <v>-4.654547894153901</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N173" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O173" t="n">
-        <v>3.75781976254736</v>
+        <v>3.757819086907634</v>
       </c>
       <c r="P173" t="n">
-        <v>3.75781976254736</v>
+        <v>3.757819086907634</v>
       </c>
       <c r="Q173" t="n">
         <v>7.816425144308134</v>
@@ -9665,25 +9665,25 @@
         <v>200.3209143377016</v>
       </c>
       <c r="J174" t="n">
-        <v>-0.09742164277922782</v>
+        <v>-0.09742152458071907</v>
       </c>
       <c r="K174" t="n">
-        <v>-8.347517758781922</v>
+        <v>-8.347517876980431</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N174" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O174" t="n">
-        <v>0.06484834346142421</v>
+        <v>0.06484910408110345</v>
       </c>
       <c r="P174" t="n">
-        <v>0.06484834346142421</v>
+        <v>0.06484910408110345</v>
       </c>
       <c r="Q174" t="n">
         <v>61.80216407210064</v>
@@ -9718,25 +9718,25 @@
         <v>119.7733602366818</v>
       </c>
       <c r="J175" t="n">
-        <v>0.4747635745977394</v>
+        <v>0.4747645553974369</v>
       </c>
       <c r="K175" t="n">
-        <v>-9.644256755810796</v>
+        <v>-9.644257736610493</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N175" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O175" t="n">
-        <v>-1.231890653567449</v>
+        <v>-1.231890755548958</v>
       </c>
       <c r="P175" t="n">
-        <v>1.231890653567449</v>
+        <v>1.231890755548958</v>
       </c>
       <c r="Q175" t="n">
         <v>3.246884251696411</v>
@@ -9771,25 +9771,25 @@
         <v>368.6603283264824</v>
       </c>
       <c r="J176" t="n">
-        <v>0.9925788116847682</v>
+        <v>0.9925803663093777</v>
       </c>
       <c r="K176" t="n">
-        <v>-5.241815589537064</v>
+        <v>-5.241817144161674</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N176" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O176" t="n">
-        <v>3.170550512706282</v>
+        <v>3.170549836899861</v>
       </c>
       <c r="P176" t="n">
-        <v>3.170550512706282</v>
+        <v>3.170549836899861</v>
       </c>
       <c r="Q176" t="n">
         <v>7.893402619693479</v>
@@ -9824,28 +9824,28 @@
         <v>199.7796105023224</v>
       </c>
       <c r="J177" t="n">
-        <v>-0.09616240900448858</v>
+        <v>-0.09616228987211173</v>
       </c>
       <c r="K177" t="n">
-        <v>-8.961018978775289</v>
+        <v>-8.961019097907666</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N177" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.5486528765319427</v>
+        <v>-0.5486521168461316</v>
       </c>
       <c r="P177" t="n">
-        <v>0.5486528765319427</v>
+        <v>0.5486521168461316</v>
       </c>
       <c r="Q177" t="n">
-        <v>61.81758655221769</v>
+        <v>61.8175865522177</v>
       </c>
     </row>
     <row r="178">
@@ -9877,25 +9877,25 @@
         <v>200.2398562138769</v>
       </c>
       <c r="J178" t="n">
-        <v>-0.182190423887695</v>
+        <v>-0.1821904242237737</v>
       </c>
       <c r="K178" t="n">
-        <v>-0.8461567765312115</v>
+        <v>-0.8461567761951327</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N178" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O178" t="n">
-        <v>3.315959099134021</v>
+        <v>3.315959096761802</v>
       </c>
       <c r="P178" t="n">
-        <v>3.315959099134021</v>
+        <v>3.315959096761802</v>
       </c>
       <c r="Q178" t="n">
         <v>61.92689874323039</v>
@@ -9930,25 +9930,25 @@
         <v>361.6726711052846</v>
       </c>
       <c r="J179" t="n">
-        <v>-0.6191553081906704</v>
+        <v>-0.6191553070531191</v>
       </c>
       <c r="K179" t="n">
-        <v>-0.6310697073825722</v>
+        <v>-0.6310697085201236</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N179" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O179" t="n">
-        <v>3.531046168282661</v>
+        <v>3.531046164436812</v>
       </c>
       <c r="P179" t="n">
-        <v>3.531046168282661</v>
+        <v>3.531046164436812</v>
       </c>
       <c r="Q179" t="n">
         <v>3.250612309430952</v>
@@ -9983,25 +9983,25 @@
         <v>349.1942322501384</v>
       </c>
       <c r="J180" t="n">
-        <v>1.260393275682213</v>
+        <v>1.260393271378649</v>
       </c>
       <c r="K180" t="n">
-        <v>-6.124942633702639</v>
+        <v>-6.124942629399075</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N180" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O180" t="n">
-        <v>-1.962826758037406</v>
+        <v>-1.96282675644214</v>
       </c>
       <c r="P180" t="n">
-        <v>1.962826758037406</v>
+        <v>1.96282675644214</v>
       </c>
       <c r="Q180" t="n">
         <v>6.123833754367437</v>
@@ -10036,25 +10036,25 @@
         <v>349.5927984251533</v>
       </c>
       <c r="J181" t="n">
-        <v>1.261781690274776</v>
+        <v>1.261781685962987</v>
       </c>
       <c r="K181" t="n">
-        <v>-8.074616299846399</v>
+        <v>-8.074616295534611</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N181" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O181" t="n">
-        <v>-3.912500424181166</v>
+        <v>-3.912500422577676</v>
       </c>
       <c r="P181" t="n">
-        <v>3.912500424181166</v>
+        <v>3.912500422577676</v>
       </c>
       <c r="Q181" t="n">
         <v>5.734238321921795</v>
@@ -10089,25 +10089,25 @@
         <v>200.1354206564006</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.1818457047831252</v>
+        <v>-0.1818457051199935</v>
       </c>
       <c r="K182" t="n">
-        <v>-0.8890612669018516</v>
+        <v>-0.8890612665649833</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N182" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O182" t="n">
-        <v>3.273054608763381</v>
+        <v>3.273054606391952</v>
       </c>
       <c r="P182" t="n">
-        <v>3.273054608763381</v>
+        <v>3.273054606391952</v>
       </c>
       <c r="Q182" t="n">
         <v>61.93166157797592</v>
@@ -10142,25 +10142,25 @@
         <v>349.3978466256303</v>
       </c>
       <c r="J183" t="n">
-        <v>1.261292987921747</v>
+        <v>1.261292983610157</v>
       </c>
       <c r="K183" t="n">
-        <v>-8.438007137407338</v>
+        <v>-8.438007133095747</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N183" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O183" t="n">
-        <v>-4.275891261742105</v>
+        <v>-4.275891260138811</v>
       </c>
       <c r="P183" t="n">
-        <v>4.275891261742105</v>
+        <v>4.275891260138811</v>
       </c>
       <c r="Q183" t="n">
         <v>5.93601621700068</v>
@@ -10195,25 +10195,25 @@
         <v>200.2267732601068</v>
       </c>
       <c r="J184" t="n">
-        <v>-0.1821167625837417</v>
+        <v>-0.1821167629198293</v>
       </c>
       <c r="K184" t="n">
-        <v>-1.153345508328305</v>
+        <v>-1.153345507992217</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N184" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O184" t="n">
-        <v>3.008770367336928</v>
+        <v>3.008770364964718</v>
       </c>
       <c r="P184" t="n">
-        <v>3.008770367336928</v>
+        <v>3.008770364964718</v>
       </c>
       <c r="Q184" t="n">
         <v>61.90857668905941</v>
@@ -10248,25 +10248,25 @@
         <v>200.1240529943674</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03584154486539326</v>
+        <v>0.0358415135136867</v>
       </c>
       <c r="K185" t="n">
-        <v>-1.106124285430861</v>
+        <v>-1.106124254079154</v>
       </c>
       <c r="L185" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M185" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N185" t="n">
         <v>1.5</v>
       </c>
       <c r="O185" t="n">
-        <v>-2.606124285430861</v>
+        <v>-2.606124254079154</v>
       </c>
       <c r="P185" t="n">
-        <v>2.606124285430861</v>
+        <v>2.606124254079154</v>
       </c>
       <c r="Q185" t="n">
         <v>61.96666991355228</v>
@@ -10301,25 +10301,25 @@
         <v>200.1231163407757</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03584727651311947</v>
+        <v>0.03584724515192672</v>
       </c>
       <c r="K186" t="n">
-        <v>-1.119414522492387</v>
+        <v>-1.119414491131194</v>
       </c>
       <c r="L186" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M186" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N186" t="n">
         <v>1.5</v>
       </c>
       <c r="O186" t="n">
-        <v>-2.619414522492387</v>
+        <v>-2.619414491131194</v>
       </c>
       <c r="P186" t="n">
-        <v>2.619414522492387</v>
+        <v>2.619414491131194</v>
       </c>
       <c r="Q186" t="n">
         <v>61.99071429268441</v>
@@ -10354,25 +10354,25 @@
         <v>361.5313822267732</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1742783038110902</v>
+        <v>0.1742783325158572</v>
       </c>
       <c r="K187" t="n">
-        <v>-0.02295313457963477</v>
+        <v>-0.02295316328440178</v>
       </c>
       <c r="L187" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M187" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N187" t="n">
         <v>1.5</v>
       </c>
       <c r="O187" t="n">
-        <v>-1.522953134579635</v>
+        <v>-1.522953163284402</v>
       </c>
       <c r="P187" t="n">
-        <v>1.522953134579635</v>
+        <v>1.522953163284402</v>
       </c>
       <c r="Q187" t="n">
         <v>3.221587741528591</v>
@@ -10407,25 +10407,25 @@
         <v>200.0745115553039</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03578559774263024</v>
+        <v>0.03578556639037167</v>
       </c>
       <c r="K188" t="n">
-        <v>-1.238425607439502</v>
+        <v>-1.238425576087243</v>
       </c>
       <c r="L188" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M188" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N188" t="n">
         <v>1.5</v>
       </c>
       <c r="O188" t="n">
-        <v>-2.738425607439502</v>
+        <v>-2.738425576087243</v>
       </c>
       <c r="P188" t="n">
-        <v>2.738425607439502</v>
+        <v>2.738425576087243</v>
       </c>
       <c r="Q188" t="n">
         <v>61.93946670533448</v>
@@ -10460,25 +10460,25 @@
         <v>200.0822935994189</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02469511175383943</v>
+        <v>0.02469529021334171</v>
       </c>
       <c r="K189" t="n">
-        <v>3.268379716358805</v>
+        <v>3.268379537899302</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M189" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N189" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O189" t="n">
-        <v>-3.615210855427023</v>
+        <v>-3.615210338568998</v>
       </c>
       <c r="P189" t="n">
-        <v>3.615210855427023</v>
+        <v>3.615210338568998</v>
       </c>
       <c r="Q189" t="n">
         <v>61.86932586733971</v>
@@ -10513,25 +10513,25 @@
         <v>341.1776431056728</v>
       </c>
       <c r="J190" t="n">
-        <v>-0.2985073098690307</v>
+        <v>-0.2985073069712953</v>
       </c>
       <c r="K190" t="n">
-        <v>30.73823146743342</v>
+        <v>30.73823146453569</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.01700462157504085</v>
+        <v>-0.01700462130075263</v>
       </c>
       <c r="M190" t="n">
-        <v>-0.02774809075181531</v>
+        <v>-0.02774809052601302</v>
       </c>
       <c r="N190" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="O190" t="n">
-        <v>-1.894540255711348</v>
+        <v>-1.894540257009922</v>
       </c>
       <c r="P190" t="n">
-        <v>1.894540255711348</v>
+        <v>1.894540257009922</v>
       </c>
       <c r="Q190" t="n">
         <v>3.344126360974697</v>
@@ -10566,25 +10566,25 @@
         <v>515.199725076134</v>
       </c>
       <c r="J191" t="n">
-        <v>0.160757597727482</v>
+        <v>0.1607575959089189</v>
       </c>
       <c r="K191" t="n">
-        <v>28.60243967710783</v>
+        <v>28.60243967892639</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.01700462157504085</v>
+        <v>-0.01700462130075263</v>
       </c>
       <c r="M191" t="n">
-        <v>-0.02774809075181531</v>
+        <v>-0.02774809052601302</v>
       </c>
       <c r="N191" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="O191" t="n">
-        <v>-4.030332046036939</v>
+        <v>-4.030332042619214</v>
       </c>
       <c r="P191" t="n">
-        <v>4.030332046036939</v>
+        <v>4.030332042619214</v>
       </c>
       <c r="Q191" t="n">
         <v>3.900664793596304</v>
@@ -10619,25 +10619,25 @@
         <v>430.5919580414605</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1031429430912496</v>
+        <v>0.1031416476201557</v>
       </c>
       <c r="K192" t="n">
-        <v>34.21939670864194</v>
+        <v>34.21939800411303</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M192" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N192" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O192" t="n">
-        <v>-3.473518117538305</v>
+        <v>-3.473515225653749</v>
       </c>
       <c r="P192" t="n">
-        <v>3.473518117538305</v>
+        <v>3.473515225653749</v>
       </c>
       <c r="Q192" t="n">
         <v>11.48143893982399</v>
@@ -10672,25 +10672,25 @@
         <v>257.4822851958538</v>
       </c>
       <c r="J193" t="n">
-        <v>-0.2212732926830441</v>
+        <v>-0.2212706092870249</v>
       </c>
       <c r="K193" t="n">
-        <v>34.57931255411252</v>
+        <v>34.5793098707165</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M193" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N193" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O193" t="n">
-        <v>-3.113602272067723</v>
+        <v>-3.113603359050281</v>
       </c>
       <c r="P193" t="n">
-        <v>3.113602272067723</v>
+        <v>3.113603359050281</v>
       </c>
       <c r="Q193" t="n">
         <v>4.05858491422911</v>
@@ -10725,25 +10725,25 @@
         <v>290.2139715258167</v>
       </c>
       <c r="J194" t="n">
-        <v>-0.2295165136407888</v>
+        <v>-0.2295146592682187</v>
       </c>
       <c r="K194" t="n">
-        <v>33.16996645362533</v>
+        <v>33.16996459925276</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M194" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N194" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O194" t="n">
-        <v>-4.522948372554914</v>
+        <v>-4.522948630514023</v>
       </c>
       <c r="P194" t="n">
-        <v>4.522948372554914</v>
+        <v>4.522948630514023</v>
       </c>
       <c r="Q194" t="n">
         <v>10.46182581052737</v>
@@ -10778,25 +10778,25 @@
         <v>129.5669657157243</v>
       </c>
       <c r="J195" t="n">
-        <v>-0.1284684485931962</v>
+        <v>-0.1284673563529282</v>
       </c>
       <c r="K195" t="n">
-        <v>36.82741164458428</v>
+        <v>36.82741055234401</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M195" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N195" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.8655031815959617</v>
+        <v>-0.8655026774227679</v>
       </c>
       <c r="P195" t="n">
-        <v>0.8655031815959617</v>
+        <v>0.8655026774227679</v>
       </c>
       <c r="Q195" t="n">
         <v>4.158922354972754</v>
@@ -10831,25 +10831,25 @@
         <v>429.9941846263285</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1027914643744836</v>
+        <v>0.1027901727010416</v>
       </c>
       <c r="K196" t="n">
-        <v>34.30857148038365</v>
+        <v>34.30857277205709</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M196" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N196" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O196" t="n">
-        <v>-3.384343345796594</v>
+        <v>-3.38434045770969</v>
       </c>
       <c r="P196" t="n">
-        <v>3.384343345796594</v>
+        <v>3.38434045770969</v>
       </c>
       <c r="Q196" t="n">
         <v>11.98504416914266</v>
@@ -10884,25 +10884,25 @@
         <v>257.6470745390086</v>
       </c>
       <c r="J197" t="n">
-        <v>-0.2213305647689978</v>
+        <v>-0.22132788054153</v>
       </c>
       <c r="K197" t="n">
-        <v>34.32290089708533</v>
+        <v>34.32289821285787</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M197" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N197" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O197" t="n">
-        <v>-3.37001392909491</v>
+        <v>-3.370015016908916</v>
       </c>
       <c r="P197" t="n">
-        <v>3.37001392909491</v>
+        <v>3.370015016908916</v>
       </c>
       <c r="Q197" t="n">
         <v>4.104467823554792</v>
@@ -10937,25 +10937,25 @@
         <v>129.639396793956</v>
       </c>
       <c r="J198" t="n">
-        <v>-0.1282637971170644</v>
+        <v>-0.1282627069949243</v>
       </c>
       <c r="K198" t="n">
-        <v>38.20631948310545</v>
+        <v>38.20631839298331</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M198" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N198" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O198" t="n">
-        <v>0.5134046569252035</v>
+        <v>0.5134051632165253</v>
       </c>
       <c r="P198" t="n">
-        <v>0.5134046569252035</v>
+        <v>0.5134051632165253</v>
       </c>
       <c r="Q198" t="n">
         <v>3.827882942868994</v>
@@ -10990,25 +10990,25 @@
         <v>313.381137440437</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05920227055641902</v>
+        <v>0.05920178806071874</v>
       </c>
       <c r="K199" t="n">
-        <v>39.61802956962755</v>
+        <v>39.61803005212325</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M199" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N199" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O199" t="n">
-        <v>1.92511474344731</v>
+        <v>1.925116822356472</v>
       </c>
       <c r="P199" t="n">
-        <v>1.92511474344731</v>
+        <v>1.925116822356472</v>
       </c>
       <c r="Q199" t="n">
         <v>3.67290956658744</v>
@@ -11043,25 +11043,25 @@
         <v>430.5335299452596</v>
       </c>
       <c r="J200" t="n">
-        <v>0.103101386562372</v>
+        <v>0.1031000914849685</v>
       </c>
       <c r="K200" t="n">
-        <v>34.295887272188</v>
+        <v>34.29588856726541</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M200" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N200" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O200" t="n">
-        <v>-3.397027553992238</v>
+        <v>-3.397024662501373</v>
       </c>
       <c r="P200" t="n">
-        <v>3.397027553992238</v>
+        <v>3.397024662501373</v>
       </c>
       <c r="Q200" t="n">
         <v>11.54851056106582</v>
@@ -11096,25 +11096,25 @@
         <v>257.7711274797834</v>
       </c>
       <c r="J201" t="n">
-        <v>-0.2213809895106067</v>
+        <v>-0.2213783046026947</v>
       </c>
       <c r="K201" t="n">
-        <v>33.95770223656273</v>
+        <v>33.95769955165482</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M201" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N201" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O201" t="n">
-        <v>-3.735212589617511</v>
+        <v>-3.735213678111961</v>
       </c>
       <c r="P201" t="n">
-        <v>3.735212589617511</v>
+        <v>3.735213678111961</v>
       </c>
       <c r="Q201" t="n">
         <v>4.156857547187879</v>
@@ -11149,25 +11149,25 @@
         <v>313.4648114172345</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05925346590656488</v>
+        <v>0.05925298332977746</v>
       </c>
       <c r="K202" t="n">
-        <v>39.66046378197907</v>
+        <v>39.66046426455586</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M202" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N202" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O202" t="n">
-        <v>1.967548955798826</v>
+        <v>1.967551034789075</v>
       </c>
       <c r="P202" t="n">
-        <v>1.967548955798826</v>
+        <v>1.967551034789075</v>
       </c>
       <c r="Q202" t="n">
         <v>3.696128532799414</v>
@@ -11202,25 +11202,25 @@
         <v>348.5622763713852</v>
       </c>
       <c r="J203" t="n">
-        <v>-0.1385434730624908</v>
+        <v>-0.1385434482437304</v>
       </c>
       <c r="K203" t="n">
-        <v>41.14174312743084</v>
+        <v>41.14174310261208</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M203" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N203" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O203" t="n">
-        <v>-1.297223230435151</v>
+        <v>-1.297223243800005</v>
       </c>
       <c r="P203" t="n">
-        <v>1.297223230435151</v>
+        <v>1.297223243800005</v>
       </c>
       <c r="Q203" t="n">
         <v>6.776587582242398</v>
@@ -11255,25 +11255,25 @@
         <v>130.5449011617825</v>
       </c>
       <c r="J204" t="n">
-        <v>-0.01134286281051544</v>
+        <v>-0.01134285498132215</v>
       </c>
       <c r="K204" t="n">
-        <v>42.10316872524574</v>
+        <v>42.10316871741654</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M204" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N204" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.3357976326202561</v>
+        <v>-0.3357976289955431</v>
       </c>
       <c r="P204" t="n">
-        <v>0.3357976326202561</v>
+        <v>0.3357976289955431</v>
       </c>
       <c r="Q204" t="n">
         <v>5.67037234172343</v>
@@ -11308,25 +11308,25 @@
         <v>146.6658376064175</v>
       </c>
       <c r="J205" t="n">
-        <v>-0.01102752228385384</v>
+        <v>-0.01102751370278554</v>
       </c>
       <c r="K205" t="n">
-        <v>37.92762717709304</v>
+        <v>37.92762716851197</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M205" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N205" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O205" t="n">
-        <v>-4.511339180772957</v>
+        <v>-4.511339177900119</v>
       </c>
       <c r="P205" t="n">
-        <v>4.511339180772957</v>
+        <v>4.511339177900119</v>
       </c>
       <c r="Q205" t="n">
         <v>3.264825481734119</v>
@@ -11361,25 +11361,25 @@
         <v>381.6036131534149</v>
       </c>
       <c r="J206" t="n">
-        <v>-0.1275684766987411</v>
+        <v>-0.1275684645233142</v>
       </c>
       <c r="K206" t="n">
-        <v>44.07024873676477</v>
+        <v>44.07024872458935</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M206" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N206" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O206" t="n">
-        <v>1.631282378898781</v>
+        <v>1.631282378177261</v>
       </c>
       <c r="P206" t="n">
-        <v>1.631282378898781</v>
+        <v>1.631282378177261</v>
       </c>
       <c r="Q206" t="n">
         <v>4.430676917217134</v>
@@ -11414,25 +11414,25 @@
         <v>312.804082924476</v>
       </c>
       <c r="J207" t="n">
-        <v>0.002735316449715697</v>
+        <v>0.002735313026761332</v>
       </c>
       <c r="K207" t="n">
-        <v>40.32318567402229</v>
+        <v>40.32318567744525</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M207" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N207" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O207" t="n">
-        <v>-2.115780683843703</v>
+        <v>-2.115780668966842</v>
       </c>
       <c r="P207" t="n">
-        <v>2.115780683843703</v>
+        <v>2.115780668966842</v>
       </c>
       <c r="Q207" t="n">
         <v>3.98382418988797</v>
@@ -11467,25 +11467,25 @@
         <v>346.6923180192944</v>
       </c>
       <c r="J208" t="n">
-        <v>-0.1381466905123361</v>
+        <v>-0.1381466657861878</v>
       </c>
       <c r="K208" t="n">
-        <v>38.78532935565885</v>
+        <v>38.7853293309327</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M208" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N208" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O208" t="n">
-        <v>-3.653637002207148</v>
+        <v>-3.65363701547939</v>
       </c>
       <c r="P208" t="n">
-        <v>3.653637002207148</v>
+        <v>3.65363701547939</v>
       </c>
       <c r="Q208" t="n">
         <v>4.765702133964106</v>
@@ -11520,25 +11520,25 @@
         <v>131.1216165969452</v>
       </c>
       <c r="J209" t="n">
-        <v>-0.01130416584810945</v>
+        <v>-0.01130415799627826</v>
       </c>
       <c r="K209" t="n">
-        <v>43.01437431668931</v>
+        <v>43.01437430883748</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M209" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N209" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O209" t="n">
-        <v>0.5754079588233196</v>
+        <v>0.5754079624253947</v>
       </c>
       <c r="P209" t="n">
-        <v>0.5754079588233196</v>
+        <v>0.5754079624253947</v>
       </c>
       <c r="Q209" t="n">
         <v>6.536204654715486</v>
@@ -11573,25 +11573,25 @@
         <v>381.4882385100386</v>
       </c>
       <c r="J210" t="n">
-        <v>-0.1275699039730753</v>
+        <v>-0.1275698917923336</v>
       </c>
       <c r="K210" t="n">
-        <v>43.19622253957813</v>
+        <v>43.19622252739739</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M210" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N210" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O210" t="n">
-        <v>0.7572561817121368</v>
+        <v>0.7572561809853013</v>
       </c>
       <c r="P210" t="n">
-        <v>0.7572561817121368</v>
+        <v>0.7572561809853013</v>
       </c>
       <c r="Q210" t="n">
         <v>4.380264313048619</v>
@@ -11626,25 +11626,25 @@
         <v>312.7076296648987</v>
       </c>
       <c r="J211" t="n">
-        <v>0.002644579241760425</v>
+        <v>0.002644575827261519</v>
       </c>
       <c r="K211" t="n">
-        <v>40.52500249052519</v>
+        <v>40.52500249393969</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M211" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N211" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O211" t="n">
-        <v>-1.913963867340804</v>
+        <v>-1.913963852472399</v>
       </c>
       <c r="P211" t="n">
-        <v>1.913963867340804</v>
+        <v>1.913963852472399</v>
       </c>
       <c r="Q211" t="n">
         <v>4.155740576181119</v>
@@ -11679,25 +11679,25 @@
         <v>347.226405368641</v>
       </c>
       <c r="J212" t="n">
-        <v>-0.138281639930014</v>
+        <v>-0.1382816151799204</v>
       </c>
       <c r="K212" t="n">
-        <v>40.53158734847114</v>
+        <v>40.53158732372105</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M212" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N212" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O212" t="n">
-        <v>-1.907379009394852</v>
+        <v>-1.907379022691039</v>
       </c>
       <c r="P212" t="n">
-        <v>1.907379009394852</v>
+        <v>1.907379022691039</v>
       </c>
       <c r="Q212" t="n">
         <v>5.20474011920396</v>
@@ -11732,25 +11732,25 @@
         <v>131.0038178294227</v>
       </c>
       <c r="J213" t="n">
-        <v>-0.01135436250437039</v>
+        <v>-0.01135435464483692</v>
       </c>
       <c r="K213" t="n">
-        <v>42.82718110176005</v>
+        <v>42.82718109390051</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M213" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N213" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O213" t="n">
-        <v>0.3882147438940535</v>
+        <v>0.3882147474884263</v>
       </c>
       <c r="P213" t="n">
-        <v>0.3882147438940535</v>
+        <v>0.3882147474884263</v>
       </c>
       <c r="Q213" t="n">
         <v>6.641002193630225</v>
@@ -11785,25 +11785,25 @@
         <v>312.7419369440324</v>
       </c>
       <c r="J214" t="n">
-        <v>0.002597718890228862</v>
+        <v>0.002597715477257623</v>
       </c>
       <c r="K214" t="n">
-        <v>40.47317462653003</v>
+        <v>40.473174629943</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M214" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N214" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O214" t="n">
-        <v>-1.965791731335962</v>
+        <v>-1.965791716469084</v>
       </c>
       <c r="P214" t="n">
-        <v>1.965791731335962</v>
+        <v>1.965791716469084</v>
       </c>
       <c r="Q214" t="n">
         <v>4.188618607426707</v>
@@ -11838,25 +11838,25 @@
         <v>120.4195251979276</v>
       </c>
       <c r="J215" t="n">
-        <v>-0.05428764595294666</v>
+        <v>-0.05430198414661191</v>
       </c>
       <c r="K215" t="n">
-        <v>44.42700283952652</v>
+        <v>44.42701717772019</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M215" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N215" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O215" t="n">
-        <v>-3.312051793594229</v>
+        <v>-3.312048499710464</v>
       </c>
       <c r="P215" t="n">
-        <v>3.312051793594229</v>
+        <v>3.312048499710464</v>
       </c>
       <c r="Q215" t="n">
         <v>3.953503890785184</v>
@@ -11891,25 +11891,25 @@
         <v>375.7914781515838</v>
       </c>
       <c r="J216" t="n">
-        <v>-0.01894043003583334</v>
+        <v>-0.0189572396439317</v>
       </c>
       <c r="K216" t="n">
-        <v>44.05658981368185</v>
+        <v>44.05660662328995</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M216" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N216" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O216" t="n">
-        <v>-3.682464819438898</v>
+        <v>-3.682459054140701</v>
       </c>
       <c r="P216" t="n">
-        <v>3.682464819438898</v>
+        <v>3.682459054140701</v>
       </c>
       <c r="Q216" t="n">
         <v>3.703052072521506</v>
@@ -11944,25 +11944,25 @@
         <v>318.4937701094711</v>
       </c>
       <c r="J217" t="n">
-        <v>-0.02151749253988555</v>
+        <v>-0.02153327169152419</v>
       </c>
       <c r="K217" t="n">
-        <v>43.67432377555595</v>
+        <v>43.67433955470759</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M217" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N217" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O217" t="n">
-        <v>-4.064730857564797</v>
+        <v>-4.064726122723059</v>
       </c>
       <c r="P217" t="n">
-        <v>4.064730857564797</v>
+        <v>4.064726122723059</v>
       </c>
       <c r="Q217" t="n">
         <v>7.690118617845288</v>
@@ -11997,25 +11997,25 @@
         <v>381.6015261421294</v>
       </c>
       <c r="J218" t="n">
-        <v>0.002131467632089823</v>
+        <v>0.002119714110776272</v>
       </c>
       <c r="K218" t="n">
-        <v>47.88015626480556</v>
+        <v>47.88016801832688</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M218" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N218" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1411016316848119</v>
+        <v>0.1411023408962251</v>
       </c>
       <c r="P218" t="n">
-        <v>0.1411016316848119</v>
+        <v>0.1411023408962251</v>
       </c>
       <c r="Q218" t="n">
         <v>4.470344227314583</v>
@@ -12050,25 +12050,25 @@
         <v>310.4835420295876</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01892592380435332</v>
+        <v>0.01892911414301324</v>
       </c>
       <c r="K219" t="n">
-        <v>48.15937870263112</v>
+        <v>48.15937551229246</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M219" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N219" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O219" t="n">
-        <v>0.4203240695103645</v>
+        <v>0.4203098348618042</v>
       </c>
       <c r="P219" t="n">
-        <v>0.4203240695103645</v>
+        <v>0.4203098348618042</v>
       </c>
       <c r="Q219" t="n">
         <v>6.5912848147228</v>
@@ -12103,25 +12103,25 @@
         <v>313.253500919853</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01930681231164755</v>
+        <v>0.01931013550662897</v>
       </c>
       <c r="K220" t="n">
-        <v>48.26539849372915</v>
+        <v>48.26539517053417</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M220" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N220" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O220" t="n">
-        <v>0.5263438606083994</v>
+        <v>0.5263294931035176</v>
       </c>
       <c r="P220" t="n">
-        <v>0.5263438606083994</v>
+        <v>0.5263294931035176</v>
       </c>
       <c r="Q220" t="n">
         <v>3.533939755589741</v>
@@ -12156,25 +12156,25 @@
         <v>277.2047862847348</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01332168618359475</v>
+        <v>0.01332350967540918</v>
       </c>
       <c r="K221" t="n">
-        <v>43.36683017672587</v>
+        <v>43.36682835323406</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M221" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N221" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O221" t="n">
-        <v>-4.372224456394882</v>
+        <v>-4.372237324196597</v>
       </c>
       <c r="P221" t="n">
-        <v>4.372224456394882</v>
+        <v>4.372237324196597</v>
       </c>
       <c r="Q221" t="n">
         <v>4.019574456391894</v>
@@ -12209,28 +12209,28 @@
         <v>120.4957561481768</v>
       </c>
       <c r="J222" t="n">
-        <v>-0.05430373872037819</v>
+        <v>-0.05431807897009833</v>
       </c>
       <c r="K222" t="n">
-        <v>44.47816963793357</v>
+        <v>44.47818397818329</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M222" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N222" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O222" t="n">
-        <v>-3.260884995187183</v>
+        <v>-3.260881699247363</v>
       </c>
       <c r="P222" t="n">
-        <v>3.260884995187183</v>
+        <v>3.260881699247363</v>
       </c>
       <c r="Q222" t="n">
-        <v>4.047270348776172</v>
+        <v>4.047270348776171</v>
       </c>
     </row>
     <row r="223">
@@ -12262,28 +12262,28 @@
         <v>348.5945238394681</v>
       </c>
       <c r="J223" t="n">
-        <v>-0.06846039545322924</v>
+        <v>-0.06848435661589036</v>
       </c>
       <c r="K223" t="n">
-        <v>43.76498990077408</v>
+        <v>43.76501386193674</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M223" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N223" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O223" t="n">
-        <v>-3.974064732346676</v>
+        <v>-3.974051815493915</v>
       </c>
       <c r="P223" t="n">
-        <v>3.974064732346676</v>
+        <v>3.974051815493915</v>
       </c>
       <c r="Q223" t="n">
-        <v>7.157954138091522</v>
+        <v>7.157954138091521</v>
       </c>
     </row>
     <row r="224">
@@ -12315,25 +12315,25 @@
         <v>142.297538970433</v>
       </c>
       <c r="J224" t="n">
-        <v>-0.04436426173571562</v>
+        <v>-0.04437232105748734</v>
       </c>
       <c r="K224" t="n">
-        <v>46.17988115639199</v>
+        <v>46.17988921571376</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M224" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N224" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O224" t="n">
-        <v>-1.559173476728766</v>
+        <v>-1.559176461716895</v>
       </c>
       <c r="P224" t="n">
-        <v>1.559173476728766</v>
+        <v>1.559176461716895</v>
       </c>
       <c r="Q224" t="n">
         <v>4.880814931611589</v>
@@ -12368,25 +12368,25 @@
         <v>316.5500623245358</v>
       </c>
       <c r="J225" t="n">
-        <v>-0.02174238586542288</v>
+        <v>-0.02175816020275789</v>
       </c>
       <c r="K225" t="n">
-        <v>46.43968852414806</v>
+        <v>46.4397042984854</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M225" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N225" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O225" t="n">
-        <v>-1.299366108972691</v>
+        <v>-1.299361378945257</v>
       </c>
       <c r="P225" t="n">
-        <v>1.299366108972691</v>
+        <v>1.299361378945257</v>
       </c>
       <c r="Q225" t="n">
         <v>5.657853012478749</v>
@@ -12421,25 +12421,25 @@
         <v>441.1671429522848</v>
       </c>
       <c r="J226" t="n">
-        <v>0.009983675796846114</v>
+        <v>0.009972223879273656</v>
       </c>
       <c r="K226" t="n">
-        <v>46.13839762980367</v>
+        <v>46.13840908172124</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M226" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N226" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O226" t="n">
-        <v>-1.600657003317082</v>
+        <v>-1.60065659570941</v>
       </c>
       <c r="P226" t="n">
-        <v>1.600657003317082</v>
+        <v>1.60065659570941</v>
       </c>
       <c r="Q226" t="n">
         <v>3.354124777395296</v>
@@ -12474,25 +12474,25 @@
         <v>382.1998602609266</v>
       </c>
       <c r="J227" t="n">
-        <v>0.002199339303764702</v>
+        <v>0.002187585657772217</v>
       </c>
       <c r="K227" t="n">
-        <v>47.75880958600388</v>
+        <v>47.75882133964987</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M227" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N227" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O227" t="n">
-        <v>0.01975495288312601</v>
+        <v>0.0197556622192181</v>
       </c>
       <c r="P227" t="n">
-        <v>0.01975495288312601</v>
+        <v>0.0197556622192181</v>
       </c>
       <c r="Q227" t="n">
         <v>4.994377041633417</v>
@@ -12527,25 +12527,25 @@
         <v>311.3245076961567</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01903663632790398</v>
+        <v>0.01903986815685244</v>
       </c>
       <c r="K228" t="n">
-        <v>48.22159514666032</v>
+        <v>48.22159191483137</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M228" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N228" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O228" t="n">
-        <v>0.4825405135395684</v>
+        <v>0.4825262374007195</v>
       </c>
       <c r="P228" t="n">
-        <v>0.4825405135395684</v>
+        <v>0.4825262374007195</v>
       </c>
       <c r="Q228" t="n">
         <v>5.632301679190954</v>
@@ -12580,25 +12580,25 @@
         <v>120.3410949179482</v>
       </c>
       <c r="J229" t="n">
-        <v>-0.05427572223599242</v>
+        <v>-0.0542900567534943</v>
       </c>
       <c r="K229" t="n">
-        <v>44.36797738622177</v>
+        <v>44.36799172073927</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M229" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N229" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O229" t="n">
-        <v>-3.371077246898984</v>
+        <v>-3.371073956691383</v>
       </c>
       <c r="P229" t="n">
-        <v>3.371077246898984</v>
+        <v>3.371073956691383</v>
       </c>
       <c r="Q229" t="n">
         <v>3.896286019568657</v>
@@ -12633,25 +12633,25 @@
         <v>317.0832472450415</v>
       </c>
       <c r="J230" t="n">
-        <v>-0.021687216918437</v>
+        <v>-0.02170299401281994</v>
       </c>
       <c r="K230" t="n">
-        <v>44.48530877207437</v>
+        <v>44.48532454916875</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M230" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N230" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O230" t="n">
-        <v>-3.253745861046383</v>
+        <v>-3.2537411282619</v>
       </c>
       <c r="P230" t="n">
-        <v>3.253745861046383</v>
+        <v>3.2537411282619</v>
       </c>
       <c r="Q230" t="n">
         <v>6.205602193500466</v>
@@ -12686,25 +12686,25 @@
         <v>310.7841020510803</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01894514839188588</v>
+        <v>0.0189483581333576</v>
       </c>
       <c r="K231" t="n">
-        <v>48.22527308329038</v>
+        <v>48.2252698735489</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M231" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N231" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O231" t="n">
-        <v>0.4862184501696234</v>
+        <v>0.4862041961182513</v>
       </c>
       <c r="P231" t="n">
-        <v>0.4862184501696234</v>
+        <v>0.4862041961182513</v>
       </c>
       <c r="Q231" t="n">
         <v>6.147089353774875</v>
@@ -12739,25 +12739,25 @@
         <v>143.1417699987811</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04181418318159302</v>
+        <v>0.04181376092531508</v>
       </c>
       <c r="K232" t="n">
-        <v>48.76071353312759</v>
+        <v>48.76071395538386</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M232" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N232" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O232" t="n">
-        <v>-4.511435353002582</v>
+        <v>-4.511435505591074</v>
       </c>
       <c r="P232" t="n">
-        <v>4.511435353002582</v>
+        <v>4.511435505591074</v>
       </c>
       <c r="Q232" t="n">
         <v>3.359898981342293</v>
@@ -12792,25 +12792,25 @@
         <v>439.7048434670493</v>
       </c>
       <c r="J233" t="n">
-        <v>-0.1535851813130549</v>
+        <v>-0.1535857772368558</v>
       </c>
       <c r="K233" t="n">
-        <v>48.79545236806327</v>
+        <v>48.79545296398707</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M233" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N233" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O233" t="n">
-        <v>-4.476696518066902</v>
+        <v>-4.47669649698787</v>
       </c>
       <c r="P233" t="n">
-        <v>4.476696518066902</v>
+        <v>4.47669649698787</v>
       </c>
       <c r="Q233" t="n">
         <v>4.677973194963582</v>
@@ -12845,25 +12845,25 @@
         <v>234.3929708499112</v>
       </c>
       <c r="J234" t="n">
-        <v>-0.05678196430804405</v>
+        <v>-0.05678292336244084</v>
       </c>
       <c r="K234" t="n">
-        <v>50.94456389782591</v>
+        <v>50.94456485688031</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M234" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N234" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O234" t="n">
-        <v>-2.32758498830426</v>
+        <v>-2.327584604094632</v>
       </c>
       <c r="P234" t="n">
-        <v>2.32758498830426</v>
+        <v>2.327584604094632</v>
       </c>
       <c r="Q234" t="n">
         <v>4.389900998989835</v>
@@ -12898,28 +12898,28 @@
         <v>440.1662565787525</v>
       </c>
       <c r="J235" t="n">
-        <v>-0.1537388047532104</v>
+        <v>-0.1537394007142225</v>
       </c>
       <c r="K235" t="n">
-        <v>50.53023723542313</v>
+        <v>50.53023783138414</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M235" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N235" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O235" t="n">
-        <v>-2.741911650707038</v>
+        <v>-2.741911629590795</v>
       </c>
       <c r="P235" t="n">
-        <v>2.741911650707038</v>
+        <v>2.741911629590795</v>
       </c>
       <c r="Q235" t="n">
-        <v>4.306996173664315</v>
+        <v>4.306996173664314</v>
       </c>
     </row>
     <row r="236">
@@ -12951,25 +12951,25 @@
         <v>281.0237565937236</v>
       </c>
       <c r="J236" t="n">
-        <v>-0.08774280515022781</v>
+        <v>-0.08774309030874861</v>
       </c>
       <c r="K236" t="n">
-        <v>48.77878734867486</v>
+        <v>48.77878763383338</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M236" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N236" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O236" t="n">
-        <v>-4.493361537455307</v>
+        <v>-4.493361827141555</v>
       </c>
       <c r="P236" t="n">
-        <v>4.493361537455307</v>
+        <v>4.493361827141555</v>
       </c>
       <c r="Q236" t="n">
         <v>3.297959244919675</v>
@@ -13004,25 +13004,25 @@
         <v>440.08645803975</v>
       </c>
       <c r="J237" t="n">
-        <v>-0.1537184065660639</v>
+        <v>-0.1537190029691118</v>
       </c>
       <c r="K237" t="n">
-        <v>50.1364957001426</v>
+        <v>50.13649629654565</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M237" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N237" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O237" t="n">
-        <v>-3.135653185987564</v>
+        <v>-3.135653164429286</v>
       </c>
       <c r="P237" t="n">
-        <v>3.135653185987564</v>
+        <v>3.135653164429286</v>
       </c>
       <c r="Q237" t="n">
         <v>4.505082450457595</v>
@@ -13057,25 +13057,25 @@
         <v>275.7458053883034</v>
       </c>
       <c r="J238" t="n">
-        <v>-0.09592583978665914</v>
+        <v>-0.09592629385693385</v>
       </c>
       <c r="K238" t="n">
-        <v>52.51520947567685</v>
+        <v>52.51520992974712</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M238" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N238" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.7569394104533202</v>
+        <v>-0.7569395312278147</v>
       </c>
       <c r="P238" t="n">
-        <v>0.7569394104533202</v>
+        <v>0.7569395312278147</v>
       </c>
       <c r="Q238" t="n">
         <v>3.404357391235997</v>
@@ -13110,25 +13110,25 @@
         <v>233.2757083034396</v>
       </c>
       <c r="J239" t="n">
-        <v>-0.05667415625219263</v>
+        <v>-0.05667511254095103</v>
       </c>
       <c r="K239" t="n">
-        <v>49.99723773462044</v>
+        <v>49.9972386909092</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M239" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N239" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O239" t="n">
-        <v>-3.274911151509727</v>
+        <v>-3.274910770065738</v>
       </c>
       <c r="P239" t="n">
-        <v>3.274911151509727</v>
+        <v>3.274910770065738</v>
       </c>
       <c r="Q239" t="n">
         <v>3.778187671517512</v>

--- a/publication/analyses/outputs/outliers/gdptlab_nneigh_errxy_relative_focus_invalid-only.xlsx
+++ b/publication/analyses/outputs/outliers/gdptlab_nneigh_errxy_relative_focus_invalid-only.xlsx
@@ -549,25 +549,25 @@
         <v>122.0647129704042</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1700214934636151</v>
+        <v>-0.170021496845365</v>
       </c>
       <c r="K2" t="n">
-        <v>-44.27965255279685</v>
+        <v>-44.2796525494151</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N2" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O2" t="n">
-        <v>3.528630731600352</v>
+        <v>3.52863073239677</v>
       </c>
       <c r="P2" t="n">
-        <v>3.528630731600352</v>
+        <v>3.52863073239677</v>
       </c>
       <c r="Q2" t="n">
         <v>5.994750497642011</v>
@@ -602,25 +602,25 @@
         <v>414.2892363431762</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3583830307826972</v>
+        <v>-0.3583830337662874</v>
       </c>
       <c r="K3" t="n">
-        <v>-42.8572700251649</v>
+        <v>-42.85727002218131</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N3" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O3" t="n">
-        <v>4.951013259232298</v>
+        <v>4.951013259630557</v>
       </c>
       <c r="P3" t="n">
-        <v>4.951013259232298</v>
+        <v>4.951013259630557</v>
       </c>
       <c r="Q3" t="n">
         <v>5.578973622381724</v>
@@ -655,25 +655,25 @@
         <v>348.7298209259084</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3334216159005621</v>
+        <v>-0.3334216206855984</v>
       </c>
       <c r="K4" t="n">
-        <v>-43.07279128347344</v>
+        <v>-43.0727912786884</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N4" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O4" t="n">
-        <v>4.735492000923763</v>
+        <v>4.735492003123468</v>
       </c>
       <c r="P4" t="n">
-        <v>4.735492000923763</v>
+        <v>4.735492003123468</v>
       </c>
       <c r="Q4" t="n">
         <v>10.96250019704885</v>
@@ -708,25 +708,25 @@
         <v>376.2132089378615</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02675409793192074</v>
+        <v>0.02675409397164685</v>
       </c>
       <c r="K5" t="n">
-        <v>-44.49122933429543</v>
+        <v>-44.49122933033515</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N5" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O5" t="n">
-        <v>3.317053950101773</v>
+        <v>3.317053951476716</v>
       </c>
       <c r="P5" t="n">
-        <v>3.317053950101773</v>
+        <v>3.317053951476716</v>
       </c>
       <c r="Q5" t="n">
         <v>3.598746969731331</v>
@@ -761,25 +761,25 @@
         <v>134.216449526963</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1551087195562104</v>
+        <v>-0.1551087213695581</v>
       </c>
       <c r="K6" t="n">
-        <v>-44.80620267674873</v>
+        <v>-44.80620267493538</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N6" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O6" t="n">
-        <v>3.002080607648466</v>
+        <v>3.002080606876483</v>
       </c>
       <c r="P6" t="n">
-        <v>3.002080607648466</v>
+        <v>3.002080606876483</v>
       </c>
       <c r="Q6" t="n">
         <v>12.26259512777552</v>
@@ -814,25 +814,25 @@
         <v>514.3431979812384</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1252348357111757</v>
+        <v>0.1252348386889111</v>
       </c>
       <c r="K7" t="n">
-        <v>-47.49461368485593</v>
+        <v>-47.49461368783366</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N7" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3136695995412708</v>
+        <v>0.3136695939782044</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3136695995412708</v>
+        <v>0.3136695939782044</v>
       </c>
       <c r="Q7" t="n">
         <v>4.710428273741919</v>
@@ -867,25 +867,25 @@
         <v>386.237666842158</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09825757772223653</v>
+        <v>0.09825757495676868</v>
       </c>
       <c r="K8" t="n">
-        <v>-44.97180432506988</v>
+        <v>-44.97180432230441</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N8" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O8" t="n">
-        <v>2.836478959327316</v>
+        <v>2.836478959507453</v>
       </c>
       <c r="P8" t="n">
-        <v>2.836478959327316</v>
+        <v>2.836478959507453</v>
       </c>
       <c r="Q8" t="n">
         <v>8.74766224013349</v>
@@ -920,25 +920,25 @@
         <v>126.3731022963805</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1445572878707466</v>
+        <v>-0.1445572895866931</v>
       </c>
       <c r="K9" t="n">
-        <v>-45.99388585152928</v>
+        <v>-45.99388584981334</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N9" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O9" t="n">
-        <v>1.814397432867914</v>
+        <v>1.814397431998529</v>
       </c>
       <c r="P9" t="n">
-        <v>1.814397432867914</v>
+        <v>1.814397431998529</v>
       </c>
       <c r="Q9" t="n">
         <v>3.768805584474418</v>
@@ -973,25 +973,25 @@
         <v>276.5127918887113</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05515694271629457</v>
+        <v>0.05515694311793595</v>
       </c>
       <c r="K10" t="n">
-        <v>-46.65352826703592</v>
+        <v>-46.65352826743757</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N10" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O10" t="n">
-        <v>1.154755017361275</v>
+        <v>1.154755014374302</v>
       </c>
       <c r="P10" t="n">
-        <v>1.154755017361275</v>
+        <v>1.154755014374302</v>
       </c>
       <c r="Q10" t="n">
         <v>7.240585774517459</v>
@@ -1026,25 +1026,25 @@
         <v>177.1997809222104</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00573619875542164</v>
+        <v>0.005736196632973645</v>
       </c>
       <c r="K11" t="n">
-        <v>-46.55773305149257</v>
+        <v>-46.55773304937012</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N11" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O11" t="n">
-        <v>1.250550232904629</v>
+        <v>1.250550232441746</v>
       </c>
       <c r="P11" t="n">
-        <v>1.250550232904629</v>
+        <v>1.250550232441746</v>
       </c>
       <c r="Q11" t="n">
         <v>3.44939156008025</v>
@@ -1079,25 +1079,25 @@
         <v>111.1735109732117</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.160943832702884</v>
+        <v>-0.1609438360103468</v>
       </c>
       <c r="K12" t="n">
-        <v>-43.51654677475064</v>
+        <v>-43.51654677144317</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N12" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O12" t="n">
-        <v>4.291736509646562</v>
+        <v>4.291736510368693</v>
       </c>
       <c r="P12" t="n">
-        <v>4.291736509646562</v>
+        <v>4.291736510368693</v>
       </c>
       <c r="Q12" t="n">
         <v>7.275866347765307</v>
@@ -1132,25 +1132,25 @@
         <v>414.3325754257523</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.3583327147155515</v>
+        <v>-0.3583327176964417</v>
       </c>
       <c r="K13" t="n">
-        <v>-43.37939841347752</v>
+        <v>-43.37939841049663</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N13" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O13" t="n">
-        <v>4.428884870919681</v>
+        <v>4.42888487131524</v>
       </c>
       <c r="P13" t="n">
-        <v>4.428884870919681</v>
+        <v>4.42888487131524</v>
       </c>
       <c r="Q13" t="n">
         <v>5.858560802044815</v>
@@ -1185,25 +1185,25 @@
         <v>122.0134874270163</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1699627531513315</v>
+        <v>-0.1699627565329251</v>
       </c>
       <c r="K14" t="n">
-        <v>-44.56100599176602</v>
+        <v>-44.56100598838442</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N14" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O14" t="n">
-        <v>3.247277292631182</v>
+        <v>3.247277293427445</v>
       </c>
       <c r="P14" t="n">
-        <v>3.247277292631182</v>
+        <v>3.247277293427445</v>
       </c>
       <c r="Q14" t="n">
         <v>5.911799567522497</v>
@@ -1238,25 +1238,25 @@
         <v>348.5688030775049</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3333093597267194</v>
+        <v>-0.3333093645107965</v>
       </c>
       <c r="K15" t="n">
-        <v>-43.19014240358697</v>
+        <v>-43.19014239880289</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N15" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O15" t="n">
-        <v>4.61814088081023</v>
+        <v>4.618140883008977</v>
       </c>
       <c r="P15" t="n">
-        <v>4.61814088081023</v>
+        <v>4.618140883008977</v>
       </c>
       <c r="Q15" t="n">
         <v>10.82017182908619</v>
@@ -1291,25 +1291,25 @@
         <v>376.0335287453329</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02705342538238398</v>
+        <v>0.0270534214284055</v>
       </c>
       <c r="K16" t="n">
-        <v>-44.56468527234099</v>
+        <v>-44.56468526838701</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N16" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O16" t="n">
-        <v>3.243598012056211</v>
+        <v>3.243598013424858</v>
       </c>
       <c r="P16" t="n">
-        <v>3.243598012056211</v>
+        <v>3.243598013424858</v>
       </c>
       <c r="Q16" t="n">
         <v>4.040385086421639</v>
@@ -1344,25 +1344,25 @@
         <v>385.768211078051</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09783721413763402</v>
+        <v>0.0978372113688124</v>
       </c>
       <c r="K17" t="n">
-        <v>-45.15506448777185</v>
+        <v>-45.15506448500302</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N17" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O17" t="n">
-        <v>2.653218796625353</v>
+        <v>2.653218796808844</v>
       </c>
       <c r="P17" t="n">
-        <v>2.653218796625353</v>
+        <v>2.653218796808844</v>
       </c>
       <c r="Q17" t="n">
         <v>8.251788880766277</v>
@@ -1397,25 +1397,25 @@
         <v>177.2397653345141</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005764773023479108</v>
+        <v>0.005764770901194538</v>
       </c>
       <c r="K18" t="n">
-        <v>-46.55694182071907</v>
+        <v>-46.55694181859678</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N18" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O18" t="n">
-        <v>1.251341463678131</v>
+        <v>1.251341463215084</v>
       </c>
       <c r="P18" t="n">
-        <v>1.251341463678131</v>
+        <v>1.251341463215084</v>
       </c>
       <c r="Q18" t="n">
         <v>3.407138372213773</v>
@@ -1450,25 +1450,25 @@
         <v>265.0134636066604</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05636243572755717</v>
+        <v>0.05636243594063473</v>
       </c>
       <c r="K19" t="n">
-        <v>-45.85633527112441</v>
+        <v>-45.85633527133749</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N19" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O19" t="n">
-        <v>1.951948013272784</v>
+        <v>1.951948010474375</v>
       </c>
       <c r="P19" t="n">
-        <v>1.951948013272784</v>
+        <v>1.951948010474375</v>
       </c>
       <c r="Q19" t="n">
         <v>19.14615442767022</v>
@@ -1503,25 +1503,25 @@
         <v>414.0713069719004</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.3581754419082088</v>
+        <v>-0.3581754448888574</v>
       </c>
       <c r="K20" t="n">
-        <v>-43.94941740614528</v>
+        <v>-43.94941740316463</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N20" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O20" t="n">
-        <v>3.858865878251919</v>
+        <v>3.858865878647237</v>
       </c>
       <c r="P20" t="n">
-        <v>3.858865878251919</v>
+        <v>3.858865878647237</v>
       </c>
       <c r="Q20" t="n">
         <v>5.811736238847398</v>
@@ -1556,28 +1556,28 @@
         <v>121.9570737809272</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1699633972338717</v>
+        <v>-0.1699634006145629</v>
       </c>
       <c r="K21" t="n">
-        <v>-44.43430604265712</v>
+        <v>-44.43430603927643</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N21" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O21" t="n">
-        <v>3.373977241740079</v>
+        <v>3.373977242535439</v>
       </c>
       <c r="P21" t="n">
-        <v>3.373977241740079</v>
+        <v>3.373977242535439</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.906479810046205</v>
+        <v>5.906479810046204</v>
       </c>
     </row>
     <row r="22">
@@ -1609,25 +1609,25 @@
         <v>348.8365627619614</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.3334769739878496</v>
+        <v>-0.3334769787745202</v>
       </c>
       <c r="K22" t="n">
-        <v>-43.03559652402793</v>
+        <v>-43.03559651924126</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N22" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O22" t="n">
-        <v>4.772686760369268</v>
+        <v>4.772686762570608</v>
       </c>
       <c r="P22" t="n">
-        <v>4.772686760369268</v>
+        <v>4.772686762570608</v>
       </c>
       <c r="Q22" t="n">
         <v>11.10272009694788</v>
@@ -1662,25 +1662,25 @@
         <v>375.6555994674122</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02647266882955535</v>
+        <v>0.0264726648703828</v>
       </c>
       <c r="K23" t="n">
-        <v>-46.21872310761598</v>
+        <v>-46.21872310365681</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N23" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O23" t="n">
-        <v>1.58956017678122</v>
+        <v>1.589560178155061</v>
       </c>
       <c r="P23" t="n">
-        <v>1.58956017678122</v>
+        <v>1.589560178155061</v>
       </c>
       <c r="Q23" t="n">
         <v>4.057135776516168</v>
@@ -1715,25 +1715,25 @@
         <v>134.1820788020021</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.1550814205125235</v>
+        <v>-0.1550814223257433</v>
       </c>
       <c r="K24" t="n">
-        <v>-44.17381697524276</v>
+        <v>-44.17381697342954</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N24" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O24" t="n">
-        <v>3.63446630915444</v>
+        <v>3.634466308382329</v>
       </c>
       <c r="P24" t="n">
-        <v>3.63446630915444</v>
+        <v>3.634466308382329</v>
       </c>
       <c r="Q24" t="n">
         <v>12.22654183681737</v>
@@ -1768,25 +1768,25 @@
         <v>147.4222218841704</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1696186079966893</v>
+        <v>-0.1696186099387234</v>
       </c>
       <c r="K25" t="n">
-        <v>-43.33650721596275</v>
+        <v>-43.33650721402072</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N25" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O25" t="n">
-        <v>4.471776068434444</v>
+        <v>4.471776067791147</v>
       </c>
       <c r="P25" t="n">
-        <v>4.471776068434444</v>
+        <v>4.471776067791147</v>
       </c>
       <c r="Q25" t="n">
         <v>3.748693661167655</v>
@@ -1821,28 +1821,28 @@
         <v>387.3383704401513</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09884183448816941</v>
+        <v>0.09884183172169259</v>
       </c>
       <c r="K26" t="n">
-        <v>-44.76697856776259</v>
+        <v>-44.76697856499611</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N26" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O26" t="n">
-        <v>3.041304716634613</v>
+        <v>3.041304716815759</v>
       </c>
       <c r="P26" t="n">
-        <v>3.041304716634613</v>
+        <v>3.041304716815759</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.848328401707954</v>
+        <v>9.848328401707953</v>
       </c>
     </row>
     <row r="27">
@@ -1874,28 +1874,28 @@
         <v>126.0379913757218</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.144524226310395</v>
+        <v>-0.1445242280291268</v>
       </c>
       <c r="K27" t="n">
-        <v>-45.65116582577689</v>
+        <v>-45.65116582405816</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N27" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O27" t="n">
-        <v>2.157117458620306</v>
+        <v>2.157117457753706</v>
       </c>
       <c r="P27" t="n">
-        <v>2.157117458620306</v>
+        <v>2.157117457753706</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.977303955532538</v>
+        <v>3.977303955532537</v>
       </c>
     </row>
     <row r="28">
@@ -1927,25 +1927,25 @@
         <v>341.2438495931971</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.2331112683827072</v>
+        <v>-0.2331108492064757</v>
       </c>
       <c r="K28" t="n">
-        <v>-46.25746370395784</v>
+        <v>-46.25746412313407</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N28" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O28" t="n">
-        <v>-3.111105600462636</v>
+        <v>-3.111105754630785</v>
       </c>
       <c r="P28" t="n">
-        <v>3.111105600462636</v>
+        <v>3.111105754630785</v>
       </c>
       <c r="Q28" t="n">
         <v>3.442021609750124</v>
@@ -1980,25 +1980,25 @@
         <v>413.7255735824933</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.3308084656089676</v>
+        <v>-0.3308081600817587</v>
       </c>
       <c r="K29" t="n">
-        <v>-41.19425717113614</v>
+        <v>-41.19425747666335</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N29" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O29" t="n">
-        <v>1.952100932359066</v>
+        <v>1.95210089183994</v>
       </c>
       <c r="P29" t="n">
-        <v>1.952100932359066</v>
+        <v>1.95210089183994</v>
       </c>
       <c r="Q29" t="n">
         <v>5.64562180843448</v>
@@ -2033,25 +2033,25 @@
         <v>121.5001609296479</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.04571605112489863</v>
+        <v>-0.04571570602006148</v>
       </c>
       <c r="K30" t="n">
-        <v>-43.46518979392803</v>
+        <v>-43.46519013903287</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N30" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.3188316904328303</v>
+        <v>-0.3188317705295844</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3188316904328303</v>
+        <v>0.3188317705295844</v>
       </c>
       <c r="Q30" t="n">
         <v>5.005147278094614</v>
@@ -2086,25 +2086,25 @@
         <v>286.9360259831046</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06211538651467663</v>
+        <v>0.06211533780178513</v>
       </c>
       <c r="K31" t="n">
-        <v>-40.08311258317233</v>
+        <v>-40.08311253445944</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N31" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O31" t="n">
-        <v>3.063245520322873</v>
+        <v>3.063245834043848</v>
       </c>
       <c r="P31" t="n">
-        <v>3.063245520322873</v>
+        <v>3.063245834043848</v>
       </c>
       <c r="Q31" t="n">
         <v>4.305547307996208</v>
@@ -2139,25 +2139,25 @@
         <v>347.5977304019414</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1949768989863472</v>
+        <v>-0.1949764111985317</v>
       </c>
       <c r="K32" t="n">
-        <v>-44.62097152593861</v>
+        <v>-44.62097201372642</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N32" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O32" t="n">
-        <v>-1.474613422443404</v>
+        <v>-1.474613645223137</v>
       </c>
       <c r="P32" t="n">
-        <v>1.474613422443404</v>
+        <v>1.474613645223137</v>
       </c>
       <c r="Q32" t="n">
         <v>9.750440398813609</v>
@@ -2192,25 +2192,25 @@
         <v>348.3184577128857</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2511883152186343</v>
+        <v>0.2511884528229942</v>
       </c>
       <c r="K33" t="n">
-        <v>-41.06168835931983</v>
+        <v>-41.06168849692419</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N33" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O33" t="n">
-        <v>2.084669744175372</v>
+        <v>2.084669871579095</v>
       </c>
       <c r="P33" t="n">
-        <v>2.084669744175372</v>
+        <v>2.084669871579095</v>
       </c>
       <c r="Q33" t="n">
         <v>9.017630347096624</v>
@@ -2245,25 +2245,25 @@
         <v>514.5625771972244</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00740192302439624</v>
+        <v>0.007401619037104012</v>
       </c>
       <c r="K34" t="n">
-        <v>-42.3858755649702</v>
+        <v>-42.38587526098291</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N34" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O34" t="n">
-        <v>0.7604825385250038</v>
+        <v>0.7604831075203791</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7604825385250038</v>
+        <v>0.7604831075203791</v>
       </c>
       <c r="Q34" t="n">
         <v>4.530404080115845</v>
@@ -2298,25 +2298,25 @@
         <v>305.0835241297558</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.2370209416145173</v>
+        <v>-0.2370206119783731</v>
       </c>
       <c r="K35" t="n">
-        <v>-47.39395588480875</v>
+        <v>-47.39395621444489</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N35" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O35" t="n">
-        <v>-4.247597781313544</v>
+        <v>-4.247597845941605</v>
       </c>
       <c r="P35" t="n">
-        <v>4.247597781313544</v>
+        <v>4.247597845941605</v>
       </c>
       <c r="Q35" t="n">
         <v>4.396986166137475</v>
@@ -2351,25 +2351,25 @@
         <v>345.9726685944753</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2413523664854154</v>
+        <v>0.2413527446766039</v>
       </c>
       <c r="K36" t="n">
-        <v>-40.08539515753697</v>
+        <v>-40.08539553572816</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N36" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O36" t="n">
-        <v>3.060962945958231</v>
+        <v>3.060962832775125</v>
       </c>
       <c r="P36" t="n">
-        <v>3.060962945958231</v>
+        <v>3.060962832775125</v>
       </c>
       <c r="Q36" t="n">
         <v>7.190956571890365</v>
@@ -2404,25 +2404,25 @@
         <v>382.3296417076004</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2888901988779295</v>
+        <v>0.2888904806261934</v>
       </c>
       <c r="K37" t="n">
-        <v>-43.29759633092976</v>
+        <v>-43.29759661267802</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N37" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.1512382274345541</v>
+        <v>-0.1512382441747349</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1512382274345541</v>
+        <v>0.1512382441747349</v>
       </c>
       <c r="Q37" t="n">
         <v>4.831545570185395</v>
@@ -2457,25 +2457,25 @@
         <v>332.7216966462492</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.1893025087569455</v>
+        <v>-0.1893020347378922</v>
       </c>
       <c r="K38" t="n">
-        <v>-41.17712287375477</v>
+        <v>-41.17712334777382</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N38" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O38" t="n">
-        <v>1.969235229740434</v>
+        <v>1.969235020729464</v>
       </c>
       <c r="P38" t="n">
-        <v>1.969235229740434</v>
+        <v>1.969235020729464</v>
       </c>
       <c r="Q38" t="n">
         <v>5.690550176148412</v>
@@ -2510,25 +2510,25 @@
         <v>276.1908613528952</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05014831366339223</v>
+        <v>0.05014827094866092</v>
       </c>
       <c r="K39" t="n">
-        <v>-40.0623524415544</v>
+        <v>-40.06235239883966</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N39" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O39" t="n">
-        <v>3.084005661940807</v>
+        <v>3.084005969663622</v>
       </c>
       <c r="P39" t="n">
-        <v>3.084005661940807</v>
+        <v>3.084005969663622</v>
       </c>
       <c r="Q39" t="n">
         <v>5.01656511471574</v>
@@ -2563,25 +2563,25 @@
         <v>367.805227275076</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2511080276083959</v>
+        <v>0.2511084336012814</v>
       </c>
       <c r="K40" t="n">
-        <v>-40.16512527343182</v>
+        <v>-40.1651256794247</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N40" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O40" t="n">
-        <v>2.981232830063384</v>
+        <v>2.981232689078581</v>
       </c>
       <c r="P40" t="n">
-        <v>2.981232830063384</v>
+        <v>2.981232689078581</v>
       </c>
       <c r="Q40" t="n">
         <v>3.586766560945117</v>
@@ -2616,25 +2616,25 @@
         <v>341.2121988217804</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.233106210995274</v>
+        <v>-0.2331057918667128</v>
       </c>
       <c r="K41" t="n">
-        <v>-46.55014546097282</v>
+        <v>-46.55014588010138</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N41" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O41" t="n">
-        <v>-3.403787357477619</v>
+        <v>-3.403787511598097</v>
       </c>
       <c r="P41" t="n">
-        <v>3.403787357477619</v>
+        <v>3.403787511598097</v>
       </c>
       <c r="Q41" t="n">
         <v>3.437316569991166</v>
@@ -2669,25 +2669,25 @@
         <v>414.4943294743498</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.3313513526404321</v>
+        <v>-0.3313510466791882</v>
       </c>
       <c r="K42" t="n">
-        <v>-39.69103581013982</v>
+        <v>-39.69103611610106</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N42" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O42" t="n">
-        <v>3.455322293355387</v>
+        <v>3.455322252402226</v>
       </c>
       <c r="P42" t="n">
-        <v>3.455322293355387</v>
+        <v>3.455322252402226</v>
       </c>
       <c r="Q42" t="n">
         <v>5.426113261625757</v>
@@ -2722,25 +2722,25 @@
         <v>286.9977580585739</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06240334274486514</v>
+        <v>0.0624032941113839</v>
       </c>
       <c r="K43" t="n">
-        <v>-39.92368508792737</v>
+        <v>-39.92368503929389</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N43" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O43" t="n">
-        <v>3.222673015567828</v>
+        <v>3.222673329209393</v>
       </c>
       <c r="P43" t="n">
-        <v>3.222673015567828</v>
+        <v>3.222673329209393</v>
       </c>
       <c r="Q43" t="n">
         <v>4.00542025510313</v>
@@ -2775,25 +2775,25 @@
         <v>121.5421340712577</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.04585810770339549</v>
+        <v>-0.04585776263029118</v>
       </c>
       <c r="K44" t="n">
-        <v>-43.50329160810389</v>
+        <v>-43.503291953177</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N44" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.3569335046086906</v>
+        <v>-0.3569335846737118</v>
       </c>
       <c r="P44" t="n">
-        <v>0.3569335046086906</v>
+        <v>0.3569335846737118</v>
       </c>
       <c r="Q44" t="n">
         <v>5.109388681257216</v>
@@ -2828,25 +2828,25 @@
         <v>346.2346616027965</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.1939672418402765</v>
+        <v>-0.1939667547088746</v>
       </c>
       <c r="K45" t="n">
-        <v>-47.19235983609888</v>
+        <v>-47.19236032323028</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N45" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O45" t="n">
-        <v>-4.046001732603678</v>
+        <v>-4.046001954726997</v>
       </c>
       <c r="P45" t="n">
-        <v>4.046001732603678</v>
+        <v>4.046001954726997</v>
       </c>
       <c r="Q45" t="n">
         <v>8.666410506938188</v>
@@ -2881,25 +2881,25 @@
         <v>348.418516258937</v>
       </c>
       <c r="J46" t="n">
-        <v>0.251290010691136</v>
+        <v>0.2512901483828429</v>
       </c>
       <c r="K46" t="n">
-        <v>-40.96086371301635</v>
+        <v>-40.96086385070806</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N46" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O46" t="n">
-        <v>2.185494390478851</v>
+        <v>2.185494517795227</v>
       </c>
       <c r="P46" t="n">
-        <v>2.185494390478851</v>
+        <v>2.185494517795227</v>
       </c>
       <c r="Q46" t="n">
         <v>8.878580572666952</v>
@@ -2934,25 +2934,25 @@
         <v>515.1332708282962</v>
       </c>
       <c r="J47" t="n">
-        <v>0.007318849914021541</v>
+        <v>0.007318545323379055</v>
       </c>
       <c r="K47" t="n">
-        <v>-42.45234530976709</v>
+        <v>-42.45234500517645</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N47" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O47" t="n">
-        <v>0.6940127937281133</v>
+        <v>0.6940133633268388</v>
       </c>
       <c r="P47" t="n">
-        <v>0.6940127937281133</v>
+        <v>0.6940133633268388</v>
       </c>
       <c r="Q47" t="n">
         <v>3.947120296495714</v>
@@ -2987,25 +2987,25 @@
         <v>345.8702979955314</v>
       </c>
       <c r="J48" t="n">
-        <v>0.07713695270354748</v>
+        <v>0.07713752622314729</v>
       </c>
       <c r="K48" t="n">
-        <v>-41.20719983712534</v>
+        <v>-41.20720041064494</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N48" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O48" t="n">
-        <v>1.939158266369866</v>
+        <v>1.939157957858349</v>
       </c>
       <c r="P48" t="n">
-        <v>1.939158266369866</v>
+        <v>1.939157957858349</v>
       </c>
       <c r="Q48" t="n">
         <v>7.649841019083891</v>
@@ -3040,25 +3040,25 @@
         <v>305.2931198064575</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.2372408035152702</v>
+        <v>-0.2372404740376126</v>
       </c>
       <c r="K49" t="n">
-        <v>-47.0252097581537</v>
+        <v>-47.02521008763136</v>
       </c>
       <c r="L49" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N49" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O49" t="n">
-        <v>-3.878851654658497</v>
+        <v>-3.878851719128072</v>
       </c>
       <c r="P49" t="n">
-        <v>3.878851654658497</v>
+        <v>3.878851719128072</v>
       </c>
       <c r="Q49" t="n">
         <v>4.206142238311988</v>
@@ -3093,25 +3093,25 @@
         <v>366.1617964408501</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2501309927903677</v>
+        <v>0.2501313974463883</v>
       </c>
       <c r="K50" t="n">
-        <v>-40.01849808295479</v>
+        <v>-40.01849848761081</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N50" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O50" t="n">
-        <v>3.12786002054041</v>
+        <v>3.127859880892473</v>
       </c>
       <c r="P50" t="n">
-        <v>3.12786002054041</v>
+        <v>3.127859880892473</v>
       </c>
       <c r="Q50" t="n">
         <v>4.740401307833067</v>
@@ -3146,25 +3146,25 @@
         <v>277.7877264577766</v>
       </c>
       <c r="J51" t="n">
-        <v>0.05078056457386282</v>
+        <v>0.05078052041120173</v>
       </c>
       <c r="K51" t="n">
-        <v>-40.41417758330552</v>
+        <v>-40.41417753914286</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N51" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O51" t="n">
-        <v>2.732180520189679</v>
+        <v>2.732180829360424</v>
       </c>
       <c r="P51" t="n">
-        <v>2.732180520189679</v>
+        <v>2.732180829360424</v>
       </c>
       <c r="Q51" t="n">
         <v>3.460597017295508</v>
@@ -3199,25 +3199,25 @@
         <v>341.2970311748338</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.2332086759713548</v>
+        <v>-0.2332082568877496</v>
       </c>
       <c r="K52" t="n">
-        <v>-45.79717149018731</v>
+        <v>-45.79717190927092</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N52" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O52" t="n">
-        <v>-2.650813386692107</v>
+        <v>-2.650813540767629</v>
       </c>
       <c r="P52" t="n">
-        <v>2.650813386692107</v>
+        <v>2.650813540767629</v>
       </c>
       <c r="Q52" t="n">
         <v>3.302431705833907</v>
@@ -3252,25 +3252,25 @@
         <v>414.3060095519243</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.3311855626503402</v>
+        <v>-0.3311852566029359</v>
       </c>
       <c r="K53" t="n">
-        <v>-40.80238612498841</v>
+        <v>-40.80238643103581</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N53" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O53" t="n">
-        <v>2.343971978506794</v>
+        <v>2.343971937467472</v>
       </c>
       <c r="P53" t="n">
-        <v>2.343971978506794</v>
+        <v>2.343971937467472</v>
       </c>
       <c r="Q53" t="n">
         <v>5.28257643535455</v>
@@ -3305,25 +3305,25 @@
         <v>121.7123132155565</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.045866903810861</v>
+        <v>-0.04586655855366217</v>
       </c>
       <c r="K54" t="n">
-        <v>-43.38313632042211</v>
+        <v>-43.38313666567931</v>
       </c>
       <c r="L54" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N54" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.2367782169269077</v>
+        <v>-0.2367782971760235</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2367782169269077</v>
+        <v>0.2367782971760235</v>
       </c>
       <c r="Q54" t="n">
         <v>5.24777279628081</v>
@@ -3358,25 +3358,25 @@
         <v>286.9724165092431</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06220516926842379</v>
+        <v>0.06220512056139427</v>
       </c>
       <c r="K55" t="n">
-        <v>-40.1589839622135</v>
+        <v>-40.15898391350648</v>
       </c>
       <c r="L55" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N55" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O55" t="n">
-        <v>2.987374141281698</v>
+        <v>2.987374454996811</v>
       </c>
       <c r="P55" t="n">
-        <v>2.987374141281698</v>
+        <v>2.987374454996811</v>
       </c>
       <c r="Q55" t="n">
         <v>4.202950699394897</v>
@@ -3411,25 +3411,25 @@
         <v>346.5611587763995</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.1943422501679493</v>
+        <v>-0.1943417630429778</v>
       </c>
       <c r="K56" t="n">
-        <v>-44.72556171412408</v>
+        <v>-44.72556220124905</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N56" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O56" t="n">
-        <v>-1.579203610628873</v>
+        <v>-1.579203832745762</v>
       </c>
       <c r="P56" t="n">
-        <v>1.579203610628873</v>
+        <v>1.579203832745762</v>
       </c>
       <c r="Q56" t="n">
         <v>8.830260036051573</v>
@@ -3464,25 +3464,25 @@
         <v>348.833298865956</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2517929768167662</v>
+        <v>0.25179311522853</v>
       </c>
       <c r="K57" t="n">
-        <v>-40.36329657878775</v>
+        <v>-40.36329671719952</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N57" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O57" t="n">
-        <v>2.783061524707449</v>
+        <v>2.783061651303768</v>
       </c>
       <c r="P57" t="n">
-        <v>2.783061524707449</v>
+        <v>2.783061651303768</v>
       </c>
       <c r="Q57" t="n">
         <v>7.967473777893195</v>
@@ -3517,25 +3517,25 @@
         <v>514.469272329301</v>
       </c>
       <c r="J58" t="n">
-        <v>0.007510419097243926</v>
+        <v>0.007510115219893976</v>
       </c>
       <c r="K58" t="n">
-        <v>-43.46325444657071</v>
+        <v>-43.46325414269336</v>
       </c>
       <c r="L58" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N58" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.3168963430755056</v>
+        <v>-0.3168957741900726</v>
       </c>
       <c r="P58" t="n">
-        <v>0.3168963430755056</v>
+        <v>0.3168957741900726</v>
       </c>
       <c r="Q58" t="n">
         <v>4.644466344406049</v>
@@ -3570,25 +3570,25 @@
         <v>345.7189942026448</v>
       </c>
       <c r="J59" t="n">
-        <v>0.07704973655884828</v>
+        <v>0.07705030994683426</v>
       </c>
       <c r="K59" t="n">
-        <v>-38.87927674853655</v>
+        <v>-38.87927732192453</v>
       </c>
       <c r="L59" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N59" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O59" t="n">
-        <v>4.267081354958655</v>
+        <v>4.267081046578753</v>
       </c>
       <c r="P59" t="n">
-        <v>4.267081354958655</v>
+        <v>4.267081046578753</v>
       </c>
       <c r="Q59" t="n">
         <v>7.662042018404425</v>
@@ -3623,25 +3623,25 @@
         <v>347.2263521208451</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1781919621771451</v>
+        <v>0.1781919416677127</v>
       </c>
       <c r="K60" t="n">
-        <v>-40.757080027498</v>
+        <v>-40.75708000698857</v>
       </c>
       <c r="L60" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N60" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O60" t="n">
-        <v>2.389278075997204</v>
+        <v>2.38927836151472</v>
       </c>
       <c r="P60" t="n">
-        <v>2.389278075997204</v>
+        <v>2.38927836151472</v>
       </c>
       <c r="Q60" t="n">
         <v>4.400852880724551</v>
@@ -3676,25 +3676,25 @@
         <v>305.2506355755742</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.2370851236880469</v>
+        <v>-0.2370847937907854</v>
       </c>
       <c r="K61" t="n">
-        <v>-47.24289800898437</v>
+        <v>-47.24289833888163</v>
       </c>
       <c r="L61" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N61" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O61" t="n">
-        <v>-4.096539905489166</v>
+        <v>-4.096539970378345</v>
       </c>
       <c r="P61" t="n">
-        <v>4.096539905489166</v>
+        <v>4.096539970378345</v>
       </c>
       <c r="Q61" t="n">
         <v>4.224512618123508</v>
@@ -3729,25 +3729,25 @@
         <v>346.150425001174</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2416939932160176</v>
+        <v>0.2416943708084744</v>
       </c>
       <c r="K62" t="n">
-        <v>-39.83734249401551</v>
+        <v>-39.83734287160797</v>
       </c>
       <c r="L62" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N62" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O62" t="n">
-        <v>3.309015609479694</v>
+        <v>3.30901549689532</v>
       </c>
       <c r="P62" t="n">
-        <v>3.309015609479694</v>
+        <v>3.30901549689532</v>
       </c>
       <c r="Q62" t="n">
         <v>7.907743663122777</v>
@@ -3782,25 +3782,25 @@
         <v>382.4098694513755</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2889697252769281</v>
+        <v>0.2889700067996586</v>
       </c>
       <c r="K63" t="n">
-        <v>-41.05114359678334</v>
+        <v>-41.05114387830607</v>
       </c>
       <c r="L63" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N63" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O63" t="n">
-        <v>2.095214506711862</v>
+        <v>2.095214490197215</v>
       </c>
       <c r="P63" t="n">
-        <v>2.095214506711862</v>
+        <v>2.095214490197215</v>
       </c>
       <c r="Q63" t="n">
         <v>4.892286923638385</v>
@@ -3835,25 +3835,25 @@
         <v>367.3244978009781</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2505887470225474</v>
+        <v>0.2505891532645421</v>
       </c>
       <c r="K64" t="n">
-        <v>-39.91991308134649</v>
+        <v>-39.91991348758849</v>
       </c>
       <c r="L64" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N64" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O64" t="n">
-        <v>3.22644502214871</v>
+        <v>3.226444880914798</v>
       </c>
       <c r="P64" t="n">
-        <v>3.22644502214871</v>
+        <v>3.226444880914798</v>
       </c>
       <c r="Q64" t="n">
         <v>4.289752366515122</v>
@@ -3888,25 +3888,25 @@
         <v>277.7247759277215</v>
       </c>
       <c r="J65" t="n">
-        <v>0.05083552410658854</v>
+        <v>0.0508354800368096</v>
       </c>
       <c r="K65" t="n">
-        <v>-43.27145449421009</v>
+        <v>-43.27145445014031</v>
       </c>
       <c r="L65" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N65" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.1250963907148872</v>
+        <v>-0.1250960816370252</v>
       </c>
       <c r="P65" t="n">
-        <v>0.1250963907148872</v>
+        <v>0.1250960816370252</v>
       </c>
       <c r="Q65" t="n">
         <v>3.538339048040464</v>
@@ -3941,25 +3941,25 @@
         <v>280.171760383139</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2229908950497403</v>
+        <v>0.2229910537628399</v>
       </c>
       <c r="K66" t="n">
-        <v>-39.7762479273722</v>
+        <v>-39.7762480860853</v>
       </c>
       <c r="L66" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N66" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O66" t="n">
-        <v>-2.091057832897228</v>
+        <v>-2.091057672315934</v>
       </c>
       <c r="P66" t="n">
-        <v>2.091057832897228</v>
+        <v>2.091057672315934</v>
       </c>
       <c r="Q66" t="n">
         <v>3.271229502246126</v>
@@ -3994,25 +3994,25 @@
         <v>414.2106853994885</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.5163051504297087</v>
+        <v>-0.5163047847754214</v>
       </c>
       <c r="K67" t="n">
-        <v>-39.04264021250598</v>
+        <v>-39.04264057816027</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N67" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O67" t="n">
-        <v>-1.357450118031004</v>
+        <v>-1.357450164390897</v>
       </c>
       <c r="P67" t="n">
-        <v>1.357450118031004</v>
+        <v>1.357450164390897</v>
       </c>
       <c r="Q67" t="n">
         <v>5.542343074731209</v>
@@ -4047,25 +4047,25 @@
         <v>121.7601031005064</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.1483855271174974</v>
+        <v>-0.1483851147449471</v>
       </c>
       <c r="K68" t="n">
-        <v>-40.52728042591595</v>
+        <v>-40.5272808382885</v>
       </c>
       <c r="L68" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N68" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O68" t="n">
-        <v>-2.842090331440978</v>
+        <v>-2.842090424519135</v>
       </c>
       <c r="P68" t="n">
-        <v>2.842090331440978</v>
+        <v>2.842090424519135</v>
       </c>
       <c r="Q68" t="n">
         <v>5.268780248447357</v>
@@ -4100,25 +4100,25 @@
         <v>286.4716437831788</v>
       </c>
       <c r="J69" t="n">
-        <v>0.09556000915048202</v>
+        <v>0.0955599520184407</v>
       </c>
       <c r="K69" t="n">
-        <v>-38.37726879996146</v>
+        <v>-38.37726874282942</v>
       </c>
       <c r="L69" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N69" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.6920787054864874</v>
+        <v>-0.6920783290600525</v>
       </c>
       <c r="P69" t="n">
-        <v>0.6920787054864874</v>
+        <v>0.6920783290600525</v>
       </c>
       <c r="Q69" t="n">
         <v>3.880298422309533</v>
@@ -4153,25 +4153,25 @@
         <v>314.1820094970006</v>
       </c>
       <c r="J70" t="n">
-        <v>0.09785523836275445</v>
+        <v>0.09785514256270744</v>
       </c>
       <c r="K70" t="n">
-        <v>-36.69079246342233</v>
+        <v>-36.69079236762228</v>
       </c>
       <c r="L70" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N70" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O70" t="n">
-        <v>0.9943976310526494</v>
+        <v>0.99439804614709</v>
       </c>
       <c r="P70" t="n">
-        <v>0.9943976310526494</v>
+        <v>0.99439804614709</v>
       </c>
       <c r="Q70" t="n">
         <v>3.213611200674867</v>
@@ -4206,25 +4206,25 @@
         <v>515.5051289624287</v>
       </c>
       <c r="J71" t="n">
-        <v>0.08710749447727295</v>
+        <v>0.08710713035168283</v>
       </c>
       <c r="K71" t="n">
-        <v>-36.69650435795308</v>
+        <v>-36.69650399382749</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N71" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O71" t="n">
-        <v>0.9886857365218944</v>
+        <v>0.9886864199418781</v>
       </c>
       <c r="P71" t="n">
-        <v>0.9886857365218944</v>
+        <v>0.9886864199418781</v>
       </c>
       <c r="Q71" t="n">
         <v>3.573988185770165</v>
@@ -4259,25 +4259,25 @@
         <v>397.1557054197497</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08614999726819406</v>
+        <v>0.08614978539267781</v>
       </c>
       <c r="K72" t="n">
-        <v>-37.19814271780765</v>
+        <v>-37.19814250593213</v>
       </c>
       <c r="L72" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N72" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O72" t="n">
-        <v>0.4870473766673271</v>
+        <v>0.4870479078372369</v>
       </c>
       <c r="P72" t="n">
-        <v>0.4870473766673271</v>
+        <v>0.4870479078372369</v>
       </c>
       <c r="Q72" t="n">
         <v>3.291186919755943</v>
@@ -4312,25 +4312,25 @@
         <v>348.1118454880315</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2975357034243018</v>
+        <v>0.2975358661264238</v>
       </c>
       <c r="K73" t="n">
-        <v>-42.64735981339015</v>
+        <v>-42.64735997609228</v>
       </c>
       <c r="L73" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N73" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O73" t="n">
-        <v>-4.962169718915177</v>
+        <v>-4.962169562322906</v>
       </c>
       <c r="P73" t="n">
-        <v>4.962169718915177</v>
+        <v>4.962169562322906</v>
       </c>
       <c r="Q73" t="n">
         <v>10.01332266043683</v>
@@ -4365,25 +4365,25 @@
         <v>147.4501489036695</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.2186599786422647</v>
+        <v>-0.2186597413670697</v>
       </c>
       <c r="K74" t="n">
-        <v>-33.13007131570786</v>
+        <v>-33.13007155298305</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N74" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O74" t="n">
-        <v>4.555118778767117</v>
+        <v>4.555118860786315</v>
       </c>
       <c r="P74" t="n">
-        <v>4.555118778767117</v>
+        <v>4.555118860786315</v>
       </c>
       <c r="Q74" t="n">
         <v>3.675315938229094</v>
@@ -4418,25 +4418,25 @@
         <v>345.4849853349006</v>
       </c>
       <c r="J75" t="n">
-        <v>0.222820832040334</v>
+        <v>0.2228212836699512</v>
       </c>
       <c r="K75" t="n">
-        <v>-37.1619889917901</v>
+        <v>-37.16198944341972</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N75" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O75" t="n">
-        <v>0.5232011026848724</v>
+        <v>0.5232009703496487</v>
       </c>
       <c r="P75" t="n">
-        <v>0.5232011026848724</v>
+        <v>0.5232009703496487</v>
       </c>
       <c r="Q75" t="n">
         <v>6.486020478457124</v>
@@ -4471,25 +4471,25 @@
         <v>126.4707410253732</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.004289122295197956</v>
+        <v>-0.004288997389487292</v>
       </c>
       <c r="K76" t="n">
-        <v>-35.94835605184641</v>
+        <v>-35.94835617675212</v>
       </c>
       <c r="L76" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N76" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O76" t="n">
-        <v>1.736834042628566</v>
+        <v>1.736834237017248</v>
       </c>
       <c r="P76" t="n">
-        <v>1.736834042628566</v>
+        <v>1.736834237017248</v>
       </c>
       <c r="Q76" t="n">
         <v>4.669459319460847</v>
@@ -4524,25 +4524,25 @@
         <v>414.2155260466271</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.5163077563871212</v>
+        <v>-0.5163073908387261</v>
       </c>
       <c r="K77" t="n">
-        <v>-39.17311627196099</v>
+        <v>-39.17311663750939</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N77" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O77" t="n">
-        <v>-1.487926177486017</v>
+        <v>-1.487926223740018</v>
       </c>
       <c r="P77" t="n">
-        <v>1.487926177486017</v>
+        <v>1.487926223740018</v>
       </c>
       <c r="Q77" t="n">
         <v>5.629991246596862</v>
@@ -4577,25 +4577,25 @@
         <v>121.2582029764788</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.1480394454065035</v>
+        <v>-0.1480390335857749</v>
       </c>
       <c r="K78" t="n">
-        <v>-40.52798454992083</v>
+        <v>-40.52798496174156</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N78" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O78" t="n">
-        <v>-2.842794455445855</v>
+        <v>-2.84279454797219</v>
       </c>
       <c r="P78" t="n">
-        <v>2.842794455445855</v>
+        <v>2.84279454797219</v>
       </c>
       <c r="Q78" t="n">
         <v>4.784813927733911</v>
@@ -4630,25 +4630,25 @@
         <v>286.3468599829534</v>
       </c>
       <c r="J79" t="n">
-        <v>0.09532775921874048</v>
+        <v>0.0953277021489356</v>
       </c>
       <c r="K79" t="n">
-        <v>-38.29371920681078</v>
+        <v>-38.29371914974098</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N79" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.608529112335809</v>
+        <v>-0.6085287359716105</v>
       </c>
       <c r="P79" t="n">
-        <v>0.608529112335809</v>
+        <v>0.6085287359716105</v>
       </c>
       <c r="Q79" t="n">
         <v>4.073703779043694</v>
@@ -4683,25 +4683,25 @@
         <v>347.863295412684</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2972482784741928</v>
+        <v>0.2972484407688896</v>
       </c>
       <c r="K80" t="n">
-        <v>-41.19725310055768</v>
+        <v>-41.19725326285238</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N80" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O80" t="n">
-        <v>-3.512063006082705</v>
+        <v>-3.512062849083009</v>
       </c>
       <c r="P80" t="n">
-        <v>3.512063006082705</v>
+        <v>3.512062849083009</v>
       </c>
       <c r="Q80" t="n">
         <v>10.47650374139019</v>
@@ -4736,25 +4736,25 @@
         <v>147.2219234134975</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.2183904683925348</v>
+        <v>-0.2183902311927426</v>
       </c>
       <c r="K81" t="n">
-        <v>-33.79301253779224</v>
+        <v>-33.79301277499203</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N81" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O81" t="n">
-        <v>3.892177556682739</v>
+        <v>3.892177638777341</v>
       </c>
       <c r="P81" t="n">
-        <v>3.892177556682739</v>
+        <v>3.892177638777341</v>
       </c>
       <c r="Q81" t="n">
         <v>3.49235317094695</v>
@@ -4789,25 +4789,25 @@
         <v>344.9851752248552</v>
       </c>
       <c r="J82" t="n">
-        <v>0.223331428005018</v>
+        <v>0.2233318777004953</v>
       </c>
       <c r="K82" t="n">
-        <v>-40.27416518951615</v>
+        <v>-40.27416563921162</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N82" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O82" t="n">
-        <v>-2.588975095041171</v>
+        <v>-2.588975225442255</v>
       </c>
       <c r="P82" t="n">
-        <v>2.588975095041171</v>
+        <v>2.588975225442255</v>
       </c>
       <c r="Q82" t="n">
         <v>8.010811150093437</v>
@@ -4842,25 +4842,25 @@
         <v>126.7702319140949</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.003941218015377501</v>
+        <v>-0.003941093379552285</v>
       </c>
       <c r="K83" t="n">
-        <v>-36.17557931007764</v>
+        <v>-36.17557943471346</v>
       </c>
       <c r="L83" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N83" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O83" t="n">
-        <v>1.509610784397339</v>
+        <v>1.509610979055907</v>
       </c>
       <c r="P83" t="n">
-        <v>1.509610784397339</v>
+        <v>1.509610979055907</v>
       </c>
       <c r="Q83" t="n">
         <v>4.444427112795997</v>
@@ -4895,25 +4895,25 @@
         <v>315.5201162714648</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.3855392126428043</v>
+        <v>-0.3855387184611487</v>
       </c>
       <c r="K84" t="n">
-        <v>-35.55248431646004</v>
+        <v>-35.55248481064169</v>
       </c>
       <c r="L84" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N84" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O84" t="n">
-        <v>2.132705778014937</v>
+        <v>2.132705603127675</v>
       </c>
       <c r="P84" t="n">
-        <v>2.132705778014937</v>
+        <v>2.132705603127675</v>
       </c>
       <c r="Q84" t="n">
         <v>3.750835783131848</v>
@@ -4948,25 +4948,25 @@
         <v>414.2276959232506</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.5163162395391936</v>
+        <v>-0.5163158741744809</v>
       </c>
       <c r="K85" t="n">
-        <v>-39.1696287605394</v>
+        <v>-39.16962912590412</v>
       </c>
       <c r="L85" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N85" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O85" t="n">
-        <v>-1.484438666064428</v>
+        <v>-1.484438712134747</v>
       </c>
       <c r="P85" t="n">
-        <v>1.484438666064428</v>
+        <v>1.484438712134747</v>
       </c>
       <c r="Q85" t="n">
         <v>5.783076678794738</v>
@@ -5001,25 +5001,25 @@
         <v>121.0448406991718</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.1477798523961056</v>
+        <v>-0.1477794407478896</v>
       </c>
       <c r="K86" t="n">
-        <v>-40.38355542836734</v>
+        <v>-40.38355584001555</v>
       </c>
       <c r="L86" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N86" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O86" t="n">
-        <v>-2.698365333892362</v>
+        <v>-2.698365426246184</v>
       </c>
       <c r="P86" t="n">
-        <v>2.698365333892362</v>
+        <v>2.698365426246184</v>
       </c>
       <c r="Q86" t="n">
         <v>4.53196892076782</v>
@@ -5054,25 +5054,25 @@
         <v>286.5507535531459</v>
       </c>
       <c r="J87" t="n">
-        <v>0.09535693633961273</v>
+        <v>0.09535687898760159</v>
       </c>
       <c r="K87" t="n">
-        <v>-37.1022184299336</v>
+        <v>-37.10221837258159</v>
       </c>
       <c r="L87" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N87" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O87" t="n">
-        <v>0.5829716645413754</v>
+        <v>0.5829720411877801</v>
       </c>
       <c r="P87" t="n">
-        <v>0.5829716645413754</v>
+        <v>0.5829720411877801</v>
       </c>
       <c r="Q87" t="n">
         <v>3.947977912986067</v>
@@ -5107,25 +5107,25 @@
         <v>441.0949372586492</v>
       </c>
       <c r="J88" t="n">
-        <v>0.3747415919210795</v>
+        <v>0.3747419215088641</v>
       </c>
       <c r="K88" t="n">
-        <v>-36.22551077170672</v>
+        <v>-36.2255111012945</v>
       </c>
       <c r="L88" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N88" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O88" t="n">
-        <v>1.45967932276826</v>
+        <v>1.459679312474869</v>
       </c>
       <c r="P88" t="n">
-        <v>1.45967932276826</v>
+        <v>1.459679312474869</v>
       </c>
       <c r="Q88" t="n">
         <v>3.927393738776853</v>
@@ -5160,25 +5160,25 @@
         <v>275.1894426074431</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.3674000435518181</v>
+        <v>-0.3673996797167405</v>
       </c>
       <c r="K89" t="n">
-        <v>-36.96363566221164</v>
+        <v>-36.96363602604671</v>
       </c>
       <c r="L89" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N89" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O89" t="n">
-        <v>0.7215544322633392</v>
+        <v>0.7215543877226551</v>
       </c>
       <c r="P89" t="n">
-        <v>0.7215544322633392</v>
+        <v>0.7215543877226551</v>
       </c>
       <c r="Q89" t="n">
         <v>5.23592906836902</v>
@@ -5213,25 +5213,25 @@
         <v>147.5727752802733</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.2188397987799675</v>
+        <v>-0.2188395613629552</v>
       </c>
       <c r="K90" t="n">
-        <v>-32.94681323046542</v>
+        <v>-32.94681346788243</v>
       </c>
       <c r="L90" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N90" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O90" t="n">
-        <v>4.73837686400956</v>
+        <v>4.738376945886941</v>
       </c>
       <c r="P90" t="n">
-        <v>4.73837686400956</v>
+        <v>4.738376945886941</v>
       </c>
       <c r="Q90" t="n">
         <v>3.853089276515243</v>
@@ -5266,28 +5266,28 @@
         <v>345.1360723267757</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2234436112661982</v>
+        <v>0.2234440610707722</v>
       </c>
       <c r="K91" t="n">
-        <v>-40.08113354426698</v>
+        <v>-40.08113399407155</v>
       </c>
       <c r="L91" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N91" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O91" t="n">
-        <v>-2.395943449792</v>
+        <v>-2.39594358030218</v>
       </c>
       <c r="P91" t="n">
-        <v>2.395943449792</v>
+        <v>2.39594358030218</v>
       </c>
       <c r="Q91" t="n">
-        <v>7.966749821515285</v>
+        <v>7.966749821515286</v>
       </c>
     </row>
     <row r="92">
@@ -5319,25 +5319,25 @@
         <v>126.8088262426828</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.003851122484533676</v>
+        <v>-0.003850997863239058</v>
       </c>
       <c r="K92" t="n">
-        <v>-36.17811037234599</v>
+        <v>-36.17811049696729</v>
       </c>
       <c r="L92" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N92" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O92" t="n">
-        <v>1.507079722128985</v>
+        <v>1.507079916802084</v>
       </c>
       <c r="P92" t="n">
-        <v>1.507079722128985</v>
+        <v>1.507079916802084</v>
       </c>
       <c r="Q92" t="n">
         <v>4.433882803722996</v>
@@ -5372,25 +5372,25 @@
         <v>279.994599870436</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1868343696542851</v>
+        <v>0.1868354759660136</v>
       </c>
       <c r="K93" t="n">
-        <v>-35.46320599573298</v>
+        <v>-35.46320710204471</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N93" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O93" t="n">
-        <v>-2.479325663362864</v>
+        <v>-2.479324582392458</v>
       </c>
       <c r="P93" t="n">
-        <v>2.479325663362864</v>
+        <v>2.479324582392458</v>
       </c>
       <c r="Q93" t="n">
         <v>3.252789725319172</v>
@@ -5425,25 +5425,25 @@
         <v>286.1454773762528</v>
       </c>
       <c r="J94" t="n">
-        <v>0.08383059202986232</v>
+        <v>0.08383020368489724</v>
       </c>
       <c r="K94" t="n">
-        <v>-34.78358271031738</v>
+        <v>-34.78358232197242</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N94" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O94" t="n">
-        <v>-1.799702377947263</v>
+        <v>-1.799699802320163</v>
       </c>
       <c r="P94" t="n">
-        <v>1.799702377947263</v>
+        <v>1.799699802320163</v>
       </c>
       <c r="Q94" t="n">
         <v>4.052517091126894</v>
@@ -5478,25 +5478,25 @@
         <v>414.0028736232419</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.4540856473080694</v>
+        <v>-0.4540831376530292</v>
       </c>
       <c r="K95" t="n">
-        <v>-37.47312995730955</v>
+        <v>-37.47313246696459</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N95" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O95" t="n">
-        <v>-4.489249624939426</v>
+        <v>-4.489249947312331</v>
       </c>
       <c r="P95" t="n">
-        <v>4.489249624939426</v>
+        <v>4.489249947312331</v>
       </c>
       <c r="Q95" t="n">
         <v>5.721693767606797</v>
@@ -5531,28 +5531,28 @@
         <v>121.2272389167231</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.1384442947889681</v>
+        <v>-0.1384414484573213</v>
       </c>
       <c r="K96" t="n">
-        <v>-36.1308304998225</v>
+        <v>-36.13083334615415</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N96" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O96" t="n">
-        <v>-3.146950167452381</v>
+        <v>-3.146950826501893</v>
       </c>
       <c r="P96" t="n">
-        <v>3.146950167452381</v>
+        <v>3.146950826501893</v>
       </c>
       <c r="Q96" t="n">
-        <v>4.473258235095466</v>
+        <v>4.473258235095465</v>
       </c>
     </row>
     <row r="97">
@@ -5584,25 +5584,25 @@
         <v>515.7747995025849</v>
       </c>
       <c r="J97" t="n">
-        <v>0.08572702636850238</v>
+        <v>0.08572450879762528</v>
       </c>
       <c r="K97" t="n">
-        <v>-33.22459191736824</v>
+        <v>-33.22458939979737</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N97" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.2407115849981238</v>
+        <v>-0.2407068801451118</v>
       </c>
       <c r="P97" t="n">
-        <v>0.2407115849981238</v>
+        <v>0.2407068801451118</v>
       </c>
       <c r="Q97" t="n">
         <v>3.346492150671101</v>
@@ -5637,25 +5637,25 @@
         <v>270.9470868696371</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1756072090200007</v>
+        <v>0.1756089429749181</v>
       </c>
       <c r="K98" t="n">
-        <v>-35.5975609607653</v>
+        <v>-35.59756269472022</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M98" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N98" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O98" t="n">
-        <v>-2.61368062839518</v>
+        <v>-2.613680175067962</v>
       </c>
       <c r="P98" t="n">
-        <v>2.61368062839518</v>
+        <v>2.613680175067962</v>
       </c>
       <c r="Q98" t="n">
         <v>3.537416443630892</v>
@@ -5690,25 +5690,25 @@
         <v>129.1638799714878</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.1689641353358553</v>
+        <v>-0.16896265483512</v>
       </c>
       <c r="K99" t="n">
-        <v>-37.25169962905488</v>
+        <v>-37.25170110955561</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M99" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N99" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O99" t="n">
-        <v>-4.267819296684756</v>
+        <v>-4.267818589903356</v>
       </c>
       <c r="P99" t="n">
-        <v>4.267819296684756</v>
+        <v>4.267818589903356</v>
       </c>
       <c r="Q99" t="n">
         <v>3.773964549737863</v>
@@ -5743,25 +5743,25 @@
         <v>137.3820909347915</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.1604268955054593</v>
+        <v>-0.1604239926220998</v>
       </c>
       <c r="K100" t="n">
-        <v>-28.35679345824741</v>
+        <v>-28.35679636113077</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N100" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O100" t="n">
-        <v>4.627086874122707</v>
+        <v>4.627086158521482</v>
       </c>
       <c r="P100" t="n">
-        <v>4.627086874122707</v>
+        <v>4.627086158521482</v>
       </c>
       <c r="Q100" t="n">
         <v>4.270816632399117</v>
@@ -5796,25 +5796,25 @@
         <v>280.0877649330782</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1869198248419437</v>
+        <v>0.1869209308454032</v>
       </c>
       <c r="K101" t="n">
-        <v>-35.53283929222513</v>
+        <v>-35.53284039822859</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M101" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N101" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O101" t="n">
-        <v>-2.548958959855007</v>
+        <v>-2.548957878576331</v>
       </c>
       <c r="P101" t="n">
-        <v>2.548958959855007</v>
+        <v>2.548957878576331</v>
       </c>
       <c r="Q101" t="n">
         <v>3.292368630859872</v>
@@ -5849,25 +5849,25 @@
         <v>286.1764804630409</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08370608729060791</v>
+        <v>0.08370569809459738</v>
       </c>
       <c r="K102" t="n">
-        <v>-34.76011042471575</v>
+        <v>-34.76011003551974</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N102" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O102" t="n">
-        <v>-1.776230092345628</v>
+        <v>-1.776227515867483</v>
       </c>
       <c r="P102" t="n">
-        <v>1.776230092345628</v>
+        <v>1.776227515867483</v>
       </c>
       <c r="Q102" t="n">
         <v>4.095280806505442</v>
@@ -5902,25 +5902,25 @@
         <v>414.0586381899541</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.4541292413057221</v>
+        <v>-0.4541267326634326</v>
       </c>
       <c r="K103" t="n">
-        <v>-37.55640427594047</v>
+        <v>-37.55640678458276</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N103" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O103" t="n">
-        <v>-4.572523943570346</v>
+        <v>-4.5725242649305</v>
       </c>
       <c r="P103" t="n">
-        <v>4.572523943570346</v>
+        <v>4.5725242649305</v>
       </c>
       <c r="Q103" t="n">
         <v>5.854926509136813</v>
@@ -5955,28 +5955,28 @@
         <v>121.2699366393606</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.1384656254697489</v>
+        <v>-0.138462778790263</v>
       </c>
       <c r="K104" t="n">
-        <v>-36.3015668181908</v>
+        <v>-36.30156966487029</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M104" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N104" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O104" t="n">
-        <v>-3.31768648582068</v>
+        <v>-3.317687145218031</v>
       </c>
       <c r="P104" t="n">
-        <v>3.31768648582068</v>
+        <v>3.317687145218031</v>
       </c>
       <c r="Q104" t="n">
-        <v>4.51461517557357</v>
+        <v>4.514615175573571</v>
       </c>
     </row>
     <row r="105">
@@ -6008,25 +6008,25 @@
         <v>515.7935695579403</v>
       </c>
       <c r="J105" t="n">
-        <v>0.08555482237554202</v>
+        <v>0.08555230448227746</v>
       </c>
       <c r="K105" t="n">
-        <v>-32.54876417644167</v>
+        <v>-32.5487616585484</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N105" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O105" t="n">
-        <v>0.4351161559284549</v>
+        <v>0.4351208611038544</v>
       </c>
       <c r="P105" t="n">
-        <v>0.4351161559284549</v>
+        <v>0.4351208611038544</v>
       </c>
       <c r="Q105" t="n">
         <v>3.291643531929171</v>
@@ -6061,25 +6061,25 @@
         <v>271.3639493084513</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1759437823051542</v>
+        <v>0.1759455183165741</v>
       </c>
       <c r="K106" t="n">
-        <v>-35.4851469830251</v>
+        <v>-35.48514871903652</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N106" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O106" t="n">
-        <v>-2.501266650654983</v>
+        <v>-2.501266199384268</v>
       </c>
       <c r="P106" t="n">
-        <v>2.501266650654983</v>
+        <v>2.501266199384268</v>
       </c>
       <c r="Q106" t="n">
         <v>4.03116312419592</v>
@@ -6114,25 +6114,25 @@
         <v>129.311948319541</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.1695836303024763</v>
+        <v>-0.1695821426708406</v>
       </c>
       <c r="K107" t="n">
-        <v>-37.38967141631773</v>
+        <v>-37.38967290394936</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M107" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N107" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O107" t="n">
-        <v>-4.405791083947605</v>
+        <v>-4.405790384297106</v>
       </c>
       <c r="P107" t="n">
-        <v>4.405791083947605</v>
+        <v>4.405790384297106</v>
       </c>
       <c r="Q107" t="n">
         <v>4.714891820105957</v>
@@ -6167,25 +6167,25 @@
         <v>279.9783683922233</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1868180203094596</v>
+        <v>0.1868191265312404</v>
       </c>
       <c r="K108" t="n">
-        <v>-35.34802568133216</v>
+        <v>-35.34802678755394</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N108" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O108" t="n">
-        <v>-2.36414534896204</v>
+        <v>-2.364144267901686</v>
       </c>
       <c r="P108" t="n">
-        <v>2.36414534896204</v>
+        <v>2.364144267901686</v>
       </c>
       <c r="Q108" t="n">
         <v>3.230454799627398</v>
@@ -6220,25 +6220,25 @@
         <v>286.3044681473186</v>
       </c>
       <c r="J109" t="n">
-        <v>0.08392970936865396</v>
+        <v>0.08392931981416751</v>
       </c>
       <c r="K109" t="n">
-        <v>-34.7877301944141</v>
+        <v>-34.78772980485962</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N109" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O109" t="n">
-        <v>-1.803849862043982</v>
+        <v>-1.803847285207361</v>
       </c>
       <c r="P109" t="n">
-        <v>1.803849862043982</v>
+        <v>1.803847285207361</v>
       </c>
       <c r="Q109" t="n">
         <v>3.898158078352757</v>
@@ -6273,28 +6273,28 @@
         <v>413.7958844226864</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.4539054205792468</v>
+        <v>-0.4539029096983143</v>
       </c>
       <c r="K110" t="n">
-        <v>-37.20878690625642</v>
+        <v>-37.20878941713735</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M110" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N110" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O110" t="n">
-        <v>-4.224906573886301</v>
+        <v>-4.224906897485099</v>
       </c>
       <c r="P110" t="n">
-        <v>4.224906573886301</v>
+        <v>4.224906897485099</v>
       </c>
       <c r="Q110" t="n">
-        <v>5.530701974609256</v>
+        <v>5.530701974609257</v>
       </c>
     </row>
     <row r="111">
@@ -6326,25 +6326,25 @@
         <v>121.243120948058</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.1385309531341008</v>
+        <v>-0.1385281070248183</v>
       </c>
       <c r="K111" t="n">
-        <v>-36.17043258272582</v>
+        <v>-36.1704354288351</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M111" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N111" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O111" t="n">
-        <v>-3.186552250355696</v>
+        <v>-3.186552909182844</v>
       </c>
       <c r="P111" t="n">
-        <v>3.186552250355696</v>
+        <v>3.186552909182844</v>
       </c>
       <c r="Q111" t="n">
         <v>4.509817880292377</v>
@@ -6379,25 +6379,25 @@
         <v>344.4420720017027</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1523499267704054</v>
+        <v>0.1523492732535274</v>
       </c>
       <c r="K112" t="n">
-        <v>-36.22098204544408</v>
+        <v>-36.2209813919272</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M112" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N112" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O112" t="n">
-        <v>-3.237101713073962</v>
+        <v>-3.237098872274949</v>
       </c>
       <c r="P112" t="n">
-        <v>3.237101713073962</v>
+        <v>3.237098872274949</v>
       </c>
       <c r="Q112" t="n">
         <v>3.69145495086061</v>
@@ -6432,25 +6432,25 @@
         <v>271.5133357223735</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1760818921106662</v>
+        <v>0.1760836279385387</v>
       </c>
       <c r="K113" t="n">
-        <v>-35.50744489107588</v>
+        <v>-35.50744662690376</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M113" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N113" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O113" t="n">
-        <v>-2.523564558705765</v>
+        <v>-2.523564107251502</v>
       </c>
       <c r="P113" t="n">
-        <v>2.523564558705765</v>
+        <v>2.523564107251502</v>
       </c>
       <c r="Q113" t="n">
         <v>4.144548849592106</v>
@@ -6485,25 +6485,25 @@
         <v>515.6273258864666</v>
       </c>
       <c r="J114" t="n">
-        <v>0.08530570700543194</v>
+        <v>0.08530319035200762</v>
       </c>
       <c r="K114" t="n">
-        <v>-32.84840353744362</v>
+        <v>-32.8484010207902</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M114" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N114" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O114" t="n">
-        <v>0.1354767949264968</v>
+        <v>0.1354814988620561</v>
       </c>
       <c r="P114" t="n">
-        <v>0.1354767949264968</v>
+        <v>0.1354814988620561</v>
       </c>
       <c r="Q114" t="n">
         <v>3.431257715330738</v>
@@ -6538,25 +6538,25 @@
         <v>137.4220255686298</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.160480474702041</v>
+        <v>-0.1604775717057336</v>
       </c>
       <c r="K115" t="n">
-        <v>-28.47705609699044</v>
+        <v>-28.47705899998675</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M115" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N115" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O115" t="n">
-        <v>4.506824235379678</v>
+        <v>4.506823519665506</v>
       </c>
       <c r="P115" t="n">
-        <v>4.506824235379678</v>
+        <v>4.506823519665506</v>
       </c>
       <c r="Q115" t="n">
         <v>4.323327585016938</v>
@@ -6591,28 +6591,28 @@
         <v>286.3565138562876</v>
       </c>
       <c r="J116" t="n">
-        <v>0.09258168193317573</v>
+        <v>0.0925804925063467</v>
       </c>
       <c r="K116" t="n">
-        <v>-31.13322960834795</v>
+        <v>-31.13322841892112</v>
       </c>
       <c r="L116" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M116" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N116" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O116" t="n">
-        <v>-2.723273843599625</v>
+        <v>-2.723265978512664</v>
       </c>
       <c r="P116" t="n">
-        <v>2.723273843599625</v>
+        <v>2.723265978512664</v>
       </c>
       <c r="Q116" t="n">
-        <v>3.665112856634908</v>
+        <v>3.665112856634907</v>
       </c>
     </row>
     <row r="117">
@@ -6644,25 +6644,25 @@
         <v>120.6503154898596</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.1881947662411996</v>
+        <v>-0.1881860792824455</v>
       </c>
       <c r="K117" t="n">
-        <v>-31.3752156488875</v>
+        <v>-31.37522433584625</v>
       </c>
       <c r="L117" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N117" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O117" t="n">
-        <v>-2.965259884139169</v>
+        <v>-2.965261895437791</v>
       </c>
       <c r="P117" t="n">
-        <v>2.965259884139169</v>
+        <v>2.965261895437791</v>
       </c>
       <c r="Q117" t="n">
         <v>3.811986896410758</v>
@@ -6697,25 +6697,25 @@
         <v>272.6603703656133</v>
       </c>
       <c r="J118" t="n">
-        <v>0.151108635381302</v>
+        <v>0.1511139138243642</v>
       </c>
       <c r="K118" t="n">
-        <v>-30.92836261056997</v>
+        <v>-30.92836788901304</v>
       </c>
       <c r="L118" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M118" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N118" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O118" t="n">
-        <v>-2.518406845821644</v>
+        <v>-2.518405448604575</v>
       </c>
       <c r="P118" t="n">
-        <v>2.518406845821644</v>
+        <v>2.518405448604575</v>
       </c>
       <c r="Q118" t="n">
         <v>5.092140337267269</v>
@@ -6750,25 +6750,25 @@
         <v>341.3184118214605</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.4143830728433251</v>
+        <v>-0.4143709231917434</v>
       </c>
       <c r="K119" t="n">
-        <v>-32.59985134487179</v>
+        <v>-32.59986349452338</v>
       </c>
       <c r="L119" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M119" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N119" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O119" t="n">
-        <v>-4.189895580123466</v>
+        <v>-4.189901054114916</v>
       </c>
       <c r="P119" t="n">
-        <v>4.189895580123466</v>
+        <v>4.189901054114916</v>
       </c>
       <c r="Q119" t="n">
         <v>3.875253069625637</v>
@@ -6803,25 +6803,25 @@
         <v>366.2226917058968</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.4346416447740395</v>
+        <v>-0.4346289232051888</v>
       </c>
       <c r="K120" t="n">
-        <v>-27.34833129853463</v>
+        <v>-27.34834402010348</v>
       </c>
       <c r="L120" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M120" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N120" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O120" t="n">
-        <v>1.061624466213701</v>
+        <v>1.061618420304981</v>
       </c>
       <c r="P120" t="n">
-        <v>1.061624466213701</v>
+        <v>1.061618420304981</v>
       </c>
       <c r="Q120" t="n">
         <v>3.349271370289884</v>
@@ -6856,25 +6856,25 @@
         <v>255.8180014002468</v>
       </c>
       <c r="J121" t="n">
-        <v>0.09122722027427344</v>
+        <v>0.0912271019673021</v>
       </c>
       <c r="K121" t="n">
-        <v>-27.94895780015558</v>
+        <v>-27.94895768184861</v>
       </c>
       <c r="L121" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M121" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N121" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O121" t="n">
-        <v>0.4609979645927496</v>
+        <v>0.4610047585598522</v>
       </c>
       <c r="P121" t="n">
-        <v>0.4609979645927496</v>
+        <v>0.4610047585598522</v>
       </c>
       <c r="Q121" t="n">
         <v>3.625503170977929</v>
@@ -6909,25 +6909,25 @@
         <v>245.4446674974654</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1271158074797647</v>
+        <v>0.1271210000000949</v>
       </c>
       <c r="K122" t="n">
-        <v>-30.09103819384204</v>
+        <v>-30.09104338636237</v>
       </c>
       <c r="L122" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M122" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N122" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O122" t="n">
-        <v>-1.681082429093706</v>
+        <v>-1.681080945953905</v>
       </c>
       <c r="P122" t="n">
-        <v>1.681082429093706</v>
+        <v>1.681080945953905</v>
       </c>
       <c r="Q122" t="n">
         <v>3.478853008707547</v>
@@ -6962,25 +6962,25 @@
         <v>286.431569010052</v>
       </c>
       <c r="J123" t="n">
-        <v>0.09261844990385981</v>
+        <v>0.09261725844819324</v>
       </c>
       <c r="K123" t="n">
-        <v>-31.05700491866262</v>
+        <v>-31.05700372720695</v>
       </c>
       <c r="L123" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M123" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N123" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O123" t="n">
-        <v>-2.647049153914288</v>
+        <v>-2.64704128679849</v>
       </c>
       <c r="P123" t="n">
-        <v>2.647049153914288</v>
+        <v>2.64704128679849</v>
       </c>
       <c r="Q123" t="n">
         <v>3.596724507004387</v>
@@ -7015,25 +7015,25 @@
         <v>120.3419402634766</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.187956445640058</v>
+        <v>-0.1879477658066513</v>
       </c>
       <c r="K124" t="n">
-        <v>-31.39397259138349</v>
+        <v>-31.39398127121689</v>
       </c>
       <c r="L124" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M124" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N124" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O124" t="n">
-        <v>-2.984016826635159</v>
+        <v>-2.984018830808434</v>
       </c>
       <c r="P124" t="n">
-        <v>2.984016826635159</v>
+        <v>2.984018830808434</v>
       </c>
       <c r="Q124" t="n">
         <v>3.504148587707567</v>
@@ -7068,25 +7068,25 @@
         <v>301.2543969837054</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1920309849106658</v>
+        <v>0.1920343780131795</v>
       </c>
       <c r="K125" t="n">
-        <v>-25.58632218597873</v>
+        <v>-25.58632557908124</v>
       </c>
       <c r="L125" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M125" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N125" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O125" t="n">
-        <v>2.823633578769602</v>
+        <v>2.82363686132722</v>
       </c>
       <c r="P125" t="n">
-        <v>2.823633578769602</v>
+        <v>2.82363686132722</v>
       </c>
       <c r="Q125" t="n">
         <v>8.349369913894103</v>
@@ -7121,25 +7121,25 @@
         <v>272.8185795587925</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1513100872308506</v>
+        <v>0.1513153609368452</v>
       </c>
       <c r="K126" t="n">
-        <v>-31.00284315471536</v>
+        <v>-31.00284842842135</v>
       </c>
       <c r="L126" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M126" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N126" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O126" t="n">
-        <v>-2.592887389967029</v>
+        <v>-2.592885988012892</v>
       </c>
       <c r="P126" t="n">
-        <v>2.592887389967029</v>
+        <v>2.592885988012892</v>
       </c>
       <c r="Q126" t="n">
         <v>5.158230678418849</v>
@@ -7174,25 +7174,25 @@
         <v>254.4729853537614</v>
       </c>
       <c r="J127" t="n">
-        <v>0.09013428134016976</v>
+        <v>0.09013419269814449</v>
       </c>
       <c r="K127" t="n">
-        <v>-31.36578474449255</v>
+        <v>-31.36578465585053</v>
       </c>
       <c r="L127" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M127" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N127" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O127" t="n">
-        <v>-2.955828979744222</v>
+        <v>-2.955822215442065</v>
       </c>
       <c r="P127" t="n">
-        <v>2.955828979744222</v>
+        <v>2.955822215442065</v>
       </c>
       <c r="Q127" t="n">
         <v>4.945481775634343</v>
@@ -7227,25 +7227,25 @@
         <v>341.3263265908331</v>
       </c>
       <c r="J128" t="n">
-        <v>-0.4143772827920849</v>
+        <v>-0.4143651323882409</v>
       </c>
       <c r="K128" t="n">
-        <v>-32.58519499088771</v>
+        <v>-32.58520714129156</v>
       </c>
       <c r="L128" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M128" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N128" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O128" t="n">
-        <v>-4.175239226139386</v>
+        <v>-4.175244700883102</v>
       </c>
       <c r="P128" t="n">
-        <v>4.175239226139386</v>
+        <v>4.175244700883102</v>
       </c>
       <c r="Q128" t="n">
         <v>3.902746821569906</v>
@@ -7280,25 +7280,25 @@
         <v>366.2078745641908</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.434616822066058</v>
+        <v>-0.4346041002715353</v>
       </c>
       <c r="K129" t="n">
-        <v>-27.2301738224085</v>
+        <v>-27.23018654420302</v>
       </c>
       <c r="L129" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M129" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N129" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O129" t="n">
-        <v>1.179781942339829</v>
+        <v>1.179775896205438</v>
       </c>
       <c r="P129" t="n">
-        <v>1.179781942339829</v>
+        <v>1.179775896205438</v>
       </c>
       <c r="Q129" t="n">
         <v>3.349918625206489</v>
@@ -7333,25 +7333,25 @@
         <v>245.4898482855718</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1271701610513531</v>
+        <v>0.1271753524212222</v>
       </c>
       <c r="K130" t="n">
-        <v>-29.99634404000322</v>
+        <v>-29.99634923137308</v>
       </c>
       <c r="L130" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M130" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N130" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O130" t="n">
-        <v>-1.586388275254887</v>
+        <v>-1.586386790964625</v>
       </c>
       <c r="P130" t="n">
-        <v>1.586388275254887</v>
+        <v>1.586386790964625</v>
       </c>
       <c r="Q130" t="n">
         <v>3.462392018699256</v>
@@ -7386,25 +7386,25 @@
         <v>431.0421733393662</v>
       </c>
       <c r="J131" t="n">
-        <v>0.006853373968958465</v>
+        <v>0.006847936107458708</v>
       </c>
       <c r="K131" t="n">
-        <v>-32.06670707143189</v>
+        <v>-32.06670163357039</v>
       </c>
       <c r="L131" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M131" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N131" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O131" t="n">
-        <v>-3.656751306683557</v>
+        <v>-3.656739193161929</v>
       </c>
       <c r="P131" t="n">
-        <v>3.656751306683557</v>
+        <v>3.656739193161929</v>
       </c>
       <c r="Q131" t="n">
         <v>9.353356055587414</v>
@@ -7439,25 +7439,25 @@
         <v>286.4161549167175</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0925949768621841</v>
+        <v>0.09259378560304654</v>
       </c>
       <c r="K132" t="n">
-        <v>-31.11628229265941</v>
+        <v>-31.11628110140028</v>
       </c>
       <c r="L132" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M132" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N132" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O132" t="n">
-        <v>-2.706326527911084</v>
+        <v>-2.706318660991816</v>
       </c>
       <c r="P132" t="n">
-        <v>2.706326527911084</v>
+        <v>2.706318660991816</v>
       </c>
       <c r="Q132" t="n">
         <v>3.615922441071256</v>
@@ -7492,25 +7492,25 @@
         <v>120.5662379582696</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.1880749710241894</v>
+        <v>-0.1880662852424209</v>
       </c>
       <c r="K133" t="n">
-        <v>-31.30609737389652</v>
+        <v>-31.30610605967829</v>
       </c>
       <c r="L133" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M133" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N133" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O133" t="n">
-        <v>-2.896141609148195</v>
+        <v>-2.896143619269832</v>
       </c>
       <c r="P133" t="n">
-        <v>2.896141609148195</v>
+        <v>2.896143619269832</v>
       </c>
       <c r="Q133" t="n">
         <v>3.729707092746691</v>
@@ -7545,25 +7545,25 @@
         <v>301.3113363623501</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1921072101274461</v>
+        <v>0.1921105965865699</v>
       </c>
       <c r="K134" t="n">
-        <v>-25.42851538277753</v>
+        <v>-25.42851876923666</v>
       </c>
       <c r="L134" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M134" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N134" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O134" t="n">
-        <v>2.981440381970796</v>
+        <v>2.981443671171803</v>
       </c>
       <c r="P134" t="n">
-        <v>2.981440381970796</v>
+        <v>2.981443671171803</v>
       </c>
       <c r="Q134" t="n">
         <v>8.173636650999134</v>
@@ -7598,25 +7598,25 @@
         <v>272.5683554323348</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1509351529028322</v>
+        <v>0.1509404388201574</v>
       </c>
       <c r="K135" t="n">
-        <v>-30.81771769278878</v>
+        <v>-30.8177229787061</v>
       </c>
       <c r="L135" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M135" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N135" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O135" t="n">
-        <v>-2.407761928040451</v>
+        <v>-2.407760538297644</v>
       </c>
       <c r="P135" t="n">
-        <v>2.407761928040451</v>
+        <v>2.407760538297644</v>
       </c>
       <c r="Q135" t="n">
         <v>5.148239283395094</v>
@@ -7651,25 +7651,25 @@
         <v>254.5034954451486</v>
       </c>
       <c r="J136" t="n">
-        <v>0.09006290247623738</v>
+        <v>0.09006281123645365</v>
       </c>
       <c r="K136" t="n">
-        <v>-31.40243661780735</v>
+        <v>-31.40243652656756</v>
       </c>
       <c r="L136" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M136" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N136" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O136" t="n">
-        <v>-2.992480853059018</v>
+        <v>-2.992474086159103</v>
       </c>
       <c r="P136" t="n">
-        <v>2.992480853059018</v>
+        <v>2.992474086159103</v>
       </c>
       <c r="Q136" t="n">
         <v>4.901948496544902</v>
@@ -7704,25 +7704,25 @@
         <v>341.143968120082</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.414265499741088</v>
+        <v>-0.4142533552497838</v>
       </c>
       <c r="K137" t="n">
-        <v>-32.62068205781138</v>
+        <v>-32.62069420230269</v>
       </c>
       <c r="L137" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M137" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N137" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O137" t="n">
-        <v>-4.21072629306305</v>
+        <v>-4.210731761894227</v>
       </c>
       <c r="P137" t="n">
-        <v>4.21072629306305</v>
+        <v>4.210731761894227</v>
       </c>
       <c r="Q137" t="n">
         <v>3.675502867772587</v>
@@ -7757,25 +7757,25 @@
         <v>366.2310343736727</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.4346421103761031</v>
+        <v>-0.4346293883371253</v>
       </c>
       <c r="K138" t="n">
-        <v>-27.21519049274138</v>
+        <v>-27.21520321478036</v>
       </c>
       <c r="L138" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M138" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N138" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O138" t="n">
-        <v>1.194765272006947</v>
+        <v>1.194759225628101</v>
       </c>
       <c r="P138" t="n">
-        <v>1.194765272006947</v>
+        <v>1.194759225628101</v>
       </c>
       <c r="Q138" t="n">
         <v>3.364905122840729</v>
@@ -7810,25 +7810,25 @@
         <v>245.4705242953738</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1271499426703251</v>
+        <v>0.1271551342608888</v>
       </c>
       <c r="K139" t="n">
-        <v>-30.09634310709095</v>
+        <v>-30.09634829868151</v>
       </c>
       <c r="L139" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M139" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N139" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O139" t="n">
-        <v>-1.68638734234262</v>
+        <v>-1.686385858273052</v>
       </c>
       <c r="P139" t="n">
-        <v>1.68638734234262</v>
+        <v>1.686385858273052</v>
       </c>
       <c r="Q139" t="n">
         <v>3.459950770561167</v>
@@ -7863,25 +7863,25 @@
         <v>383.2893143288585</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2230269208113604</v>
+        <v>0.2230340613899067</v>
       </c>
       <c r="K140" t="n">
-        <v>-30.04388931313513</v>
+        <v>-30.04389645371368</v>
       </c>
       <c r="L140" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M140" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N140" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O140" t="n">
-        <v>-1.633933548386803</v>
+        <v>-1.633934013305218</v>
       </c>
       <c r="P140" t="n">
-        <v>1.633933548386803</v>
+        <v>1.633934013305218</v>
       </c>
       <c r="Q140" t="n">
         <v>6.106055446446691</v>
@@ -7916,25 +7916,25 @@
         <v>372.9828396248517</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2154031031250874</v>
+        <v>0.2154101440056735</v>
       </c>
       <c r="K141" t="n">
-        <v>-23.62696077961655</v>
+        <v>-23.62696782049714</v>
       </c>
       <c r="L141" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M141" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N141" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O141" t="n">
-        <v>4.782994985131776</v>
+        <v>4.782994619911321</v>
       </c>
       <c r="P141" t="n">
-        <v>4.782994985131776</v>
+        <v>4.782994619911321</v>
       </c>
       <c r="Q141" t="n">
         <v>4.564671599437111</v>
@@ -7969,25 +7969,25 @@
         <v>317.7700080571245</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1143866279130563</v>
+        <v>0.1143866512443985</v>
       </c>
       <c r="K142" t="n">
-        <v>-23.02204062783442</v>
+        <v>-23.02204065116576</v>
       </c>
       <c r="L142" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M142" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N142" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.1543432196991006</v>
+        <v>-0.1543433171611213</v>
       </c>
       <c r="P142" t="n">
-        <v>0.1543432196991006</v>
+        <v>0.1543433171611213</v>
       </c>
       <c r="Q142" t="n">
         <v>3.388349501766635</v>
@@ -8022,25 +8022,25 @@
         <v>272.9086110470466</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1460795511370527</v>
+        <v>0.1460794926194815</v>
       </c>
       <c r="K143" t="n">
-        <v>-26.02793999873868</v>
+        <v>-26.02793994022111</v>
       </c>
       <c r="L143" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M143" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N143" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O143" t="n">
-        <v>-3.160242590603364</v>
+        <v>-3.160242606216471</v>
       </c>
       <c r="P143" t="n">
-        <v>3.160242590603364</v>
+        <v>3.160242606216471</v>
       </c>
       <c r="Q143" t="n">
         <v>5.489915781948087</v>
@@ -8075,25 +8075,25 @@
         <v>376.6394405762845</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1184247974468171</v>
+        <v>0.1184246836714529</v>
       </c>
       <c r="K144" t="n">
-        <v>-25.85439053456622</v>
+        <v>-25.85439042079086</v>
       </c>
       <c r="L144" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M144" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N144" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O144" t="n">
-        <v>-2.986693126430907</v>
+        <v>-2.986693086786222</v>
       </c>
       <c r="P144" t="n">
-        <v>2.986693126430907</v>
+        <v>2.986693086786222</v>
       </c>
       <c r="Q144" t="n">
         <v>4.482194053809899</v>
@@ -8128,25 +8128,25 @@
         <v>312.1048195005884</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1076715275943236</v>
+        <v>0.1076715496647189</v>
       </c>
       <c r="K145" t="n">
-        <v>-23.35854044085034</v>
+        <v>-23.35854046292073</v>
       </c>
       <c r="L145" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M145" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N145" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.4908430327150199</v>
+        <v>-0.4908431289160937</v>
       </c>
       <c r="P145" t="n">
-        <v>0.4908430327150199</v>
+        <v>0.4908431289160937</v>
       </c>
       <c r="Q145" t="n">
         <v>4.581036765492932</v>
@@ -8181,25 +8181,25 @@
         <v>362.4609631489744</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2392848579407776</v>
+        <v>0.2392848697036669</v>
       </c>
       <c r="K146" t="n">
-        <v>-24.86069914083663</v>
+        <v>-24.86069915259952</v>
       </c>
       <c r="L146" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M146" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N146" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O146" t="n">
-        <v>-1.993001732701316</v>
+        <v>-1.993001818594884</v>
       </c>
       <c r="P146" t="n">
-        <v>1.993001732701316</v>
+        <v>1.993001818594884</v>
       </c>
       <c r="Q146" t="n">
         <v>4.661172552929856</v>
@@ -8234,25 +8234,25 @@
         <v>245.0364654285829</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1204532950109574</v>
+        <v>0.1204532375519847</v>
       </c>
       <c r="K147" t="n">
-        <v>-24.67452527541708</v>
+        <v>-24.67452521795811</v>
       </c>
       <c r="L147" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M147" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N147" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O147" t="n">
-        <v>-1.806827867281761</v>
+        <v>-1.806827883953467</v>
       </c>
       <c r="P147" t="n">
-        <v>1.806827867281761</v>
+        <v>1.806827883953467</v>
       </c>
       <c r="Q147" t="n">
         <v>3.21725604188169</v>
@@ -8287,25 +8287,25 @@
         <v>317.7814557758111</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1143792470708753</v>
+        <v>0.1143792704073547</v>
       </c>
       <c r="K148" t="n">
-        <v>-23.12025881296626</v>
+        <v>-23.12025883630274</v>
       </c>
       <c r="L148" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M148" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N148" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.2525614048309421</v>
+        <v>-0.2525615022981</v>
       </c>
       <c r="P148" t="n">
-        <v>0.2525614048309421</v>
+        <v>0.2525615022981</v>
       </c>
       <c r="Q148" t="n">
         <v>3.372208677627242</v>
@@ -8340,25 +8340,25 @@
         <v>272.8659970953505</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1460332466213572</v>
+        <v>0.1460331881001622</v>
       </c>
       <c r="K149" t="n">
-        <v>-26.16896724346807</v>
+        <v>-26.16896718494688</v>
       </c>
       <c r="L149" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M149" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N149" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O149" t="n">
-        <v>-3.301269835332754</v>
+        <v>-3.301269850942237</v>
       </c>
       <c r="P149" t="n">
-        <v>3.301269835332754</v>
+        <v>3.301269850942237</v>
       </c>
       <c r="Q149" t="n">
         <v>5.457751067180301</v>
@@ -8393,25 +8393,25 @@
         <v>376.7127827461963</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1185422170540065</v>
+        <v>0.1185421032900713</v>
       </c>
       <c r="K150" t="n">
-        <v>-25.83599003876434</v>
+        <v>-25.83598992500041</v>
       </c>
       <c r="L150" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M150" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N150" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O150" t="n">
-        <v>-2.968292630629026</v>
+        <v>-2.96829259099577</v>
       </c>
       <c r="P150" t="n">
-        <v>2.968292630629026</v>
+        <v>2.96829259099577</v>
       </c>
       <c r="Q150" t="n">
         <v>4.372613539890895</v>
@@ -8446,25 +8446,25 @@
         <v>312.1143294781434</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1076827321215426</v>
+        <v>0.1076827541940695</v>
       </c>
       <c r="K151" t="n">
-        <v>-23.29845973209819</v>
+        <v>-23.29845975417071</v>
       </c>
       <c r="L151" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M151" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N151" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.4307623239628704</v>
+        <v>-0.4307624201660758</v>
       </c>
       <c r="P151" t="n">
-        <v>0.4307623239628704</v>
+        <v>0.4307624201660758</v>
       </c>
       <c r="Q151" t="n">
         <v>4.571515580014437</v>
@@ -8499,25 +8499,25 @@
         <v>317.7602203456341</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1143653154707458</v>
+        <v>0.1143653388011252</v>
       </c>
       <c r="K152" t="n">
-        <v>-22.95652793582685</v>
+        <v>-22.95652795915723</v>
       </c>
       <c r="L152" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M152" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N152" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.08883052769153466</v>
+        <v>-0.08883062515259255</v>
       </c>
       <c r="P152" t="n">
-        <v>0.08883052769153466</v>
+        <v>0.08883062515259255</v>
       </c>
       <c r="Q152" t="n">
         <v>3.367916609733933</v>
@@ -8552,25 +8552,25 @@
         <v>377.2988554284395</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1184161143344369</v>
+        <v>0.1184160003399128</v>
       </c>
       <c r="K153" t="n">
-        <v>-25.68027690352942</v>
+        <v>-25.68027678953489</v>
       </c>
       <c r="L153" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M153" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N153" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O153" t="n">
-        <v>-2.8125794953941</v>
+        <v>-2.812579455530255</v>
       </c>
       <c r="P153" t="n">
-        <v>2.8125794953941</v>
+        <v>2.812579455530255</v>
       </c>
       <c r="Q153" t="n">
         <v>4.538165839631315</v>
@@ -8605,25 +8605,25 @@
         <v>272.8778802051392</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1460577154532139</v>
+        <v>0.1460576569414265</v>
       </c>
       <c r="K154" t="n">
-        <v>-26.0524244603414</v>
+        <v>-26.05242440182961</v>
       </c>
       <c r="L154" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M154" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N154" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O154" t="n">
-        <v>-3.184727052206078</v>
+        <v>-3.184727067824969</v>
       </c>
       <c r="P154" t="n">
-        <v>3.184727052206078</v>
+        <v>3.184727067824969</v>
       </c>
       <c r="Q154" t="n">
         <v>5.452284053967213</v>
@@ -8658,25 +8658,25 @@
         <v>245.0581998117229</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1204822904205081</v>
+        <v>0.1204822329675999</v>
       </c>
       <c r="K155" t="n">
-        <v>-24.55879863984935</v>
+        <v>-24.55879858239644</v>
       </c>
       <c r="L155" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M155" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N155" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O155" t="n">
-        <v>-1.691101231714033</v>
+        <v>-1.691101248391803</v>
       </c>
       <c r="P155" t="n">
-        <v>1.691101231714033</v>
+        <v>1.691101248391803</v>
       </c>
       <c r="Q155" t="n">
         <v>3.20677890624505</v>
@@ -8711,25 +8711,25 @@
         <v>377.2474380600243</v>
       </c>
       <c r="J156" t="n">
-        <v>-0.04492739736838658</v>
+        <v>-0.04492740198719147</v>
       </c>
       <c r="K156" t="n">
-        <v>-22.7654540426641</v>
+        <v>-22.76545403804529</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M156" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N156" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O156" t="n">
-        <v>-4.560250074192954</v>
+        <v>-4.560250072657986</v>
       </c>
       <c r="P156" t="n">
-        <v>4.560250074192954</v>
+        <v>4.560250072657986</v>
       </c>
       <c r="Q156" t="n">
         <v>4.319713564042535</v>
@@ -8764,25 +8764,25 @@
         <v>272.8275742016045</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.05486088382625454</v>
+        <v>-0.05486088619893081</v>
       </c>
       <c r="K157" t="n">
-        <v>-22.70650161344211</v>
+        <v>-22.70650161106943</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M157" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N157" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O157" t="n">
-        <v>-4.501297644970965</v>
+        <v>-4.501297645682126</v>
       </c>
       <c r="P157" t="n">
-        <v>4.501297644970965</v>
+        <v>4.501297645682126</v>
       </c>
       <c r="Q157" t="n">
         <v>5.561125073745194</v>
@@ -8817,25 +8817,25 @@
         <v>375.7099314681035</v>
       </c>
       <c r="J158" t="n">
-        <v>-0.04441853035262966</v>
+        <v>-0.04441853496766512</v>
       </c>
       <c r="K158" t="n">
-        <v>-22.675364006397</v>
+        <v>-22.67536400178196</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M158" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N158" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O158" t="n">
-        <v>-4.470160037925854</v>
+        <v>-4.470160036394656</v>
       </c>
       <c r="P158" t="n">
-        <v>4.470160037925854</v>
+        <v>4.470160036394656</v>
       </c>
       <c r="Q158" t="n">
         <v>5.100910963708278</v>
@@ -8870,28 +8870,28 @@
         <v>272.8219662056803</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.05485840324769242</v>
+        <v>-0.05485840562040423</v>
       </c>
       <c r="K159" t="n">
-        <v>-22.9046136277035</v>
+        <v>-22.90461362533079</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M159" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N159" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O159" t="n">
-        <v>-4.699409659232359</v>
+        <v>-4.699409659943484</v>
       </c>
       <c r="P159" t="n">
-        <v>4.699409659232359</v>
+        <v>4.699409659943484</v>
       </c>
       <c r="Q159" t="n">
-        <v>5.557816724965652</v>
+        <v>5.557816724965653</v>
       </c>
     </row>
     <row r="160">
@@ -8923,25 +8923,25 @@
         <v>410.643144540147</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2073619772228454</v>
+        <v>0.2073619735478189</v>
       </c>
       <c r="K160" t="n">
-        <v>-14.0115969677118</v>
+        <v>-14.01159696403678</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M160" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N160" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O160" t="n">
-        <v>4.193607000759343</v>
+        <v>4.193607001350532</v>
       </c>
       <c r="P160" t="n">
-        <v>4.193607000759343</v>
+        <v>4.193607001350532</v>
       </c>
       <c r="Q160" t="n">
         <v>10.68038522036291</v>
@@ -8976,25 +8976,25 @@
         <v>375.7598335298098</v>
       </c>
       <c r="J161" t="n">
-        <v>-0.04442988308873907</v>
+        <v>-0.04442988770406586</v>
       </c>
       <c r="K161" t="n">
-        <v>-22.71548752775023</v>
+        <v>-22.7154875231349</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M161" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N161" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O161" t="n">
-        <v>-4.510283559279085</v>
+        <v>-4.510283557747595</v>
       </c>
       <c r="P161" t="n">
-        <v>4.510283559279085</v>
+        <v>4.510283557747595</v>
       </c>
       <c r="Q161" t="n">
         <v>5.150866400600791</v>
@@ -9029,25 +9029,25 @@
         <v>272.874785666242</v>
       </c>
       <c r="J162" t="n">
-        <v>-0.05488419600451522</v>
+        <v>-0.05488419837669767</v>
       </c>
       <c r="K162" t="n">
-        <v>-22.81742297729202</v>
+        <v>-22.81742297491984</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M162" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N162" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O162" t="n">
-        <v>-4.612219008820873</v>
+        <v>-4.612219009532527</v>
       </c>
       <c r="P162" t="n">
-        <v>4.612219008820873</v>
+        <v>4.612219009532527</v>
       </c>
       <c r="Q162" t="n">
         <v>5.580474333542464</v>
@@ -9082,25 +9082,25 @@
         <v>410.6435487914616</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2073670943843275</v>
+        <v>0.2073670907086616</v>
       </c>
       <c r="K163" t="n">
-        <v>-14.16313803323701</v>
+        <v>-14.16313802956135</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M163" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N163" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O163" t="n">
-        <v>4.042065935234131</v>
+        <v>4.04206593582596</v>
       </c>
       <c r="P163" t="n">
-        <v>4.042065935234131</v>
+        <v>4.04206593582596</v>
       </c>
       <c r="Q163" t="n">
         <v>10.73319968121509</v>
@@ -9135,25 +9135,25 @@
         <v>299.8536289201786</v>
       </c>
       <c r="J164" t="n">
-        <v>0.3020829623376233</v>
+        <v>0.302083060419374</v>
       </c>
       <c r="K164" t="n">
-        <v>-15.69176429959519</v>
+        <v>-15.69176439767694</v>
       </c>
       <c r="L164" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M164" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N164" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O164" t="n">
-        <v>-2.156381990908525</v>
+        <v>-2.156382035944196</v>
       </c>
       <c r="P164" t="n">
-        <v>2.156381990908525</v>
+        <v>2.156382035944196</v>
       </c>
       <c r="Q164" t="n">
         <v>3.286476075804369</v>
@@ -9188,25 +9188,25 @@
         <v>413.2063843905143</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3879816805287515</v>
+        <v>0.38798174521148</v>
       </c>
       <c r="K165" t="n">
-        <v>-9.986818699898853</v>
+        <v>-9.986818764581582</v>
       </c>
       <c r="L165" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M165" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N165" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O165" t="n">
-        <v>3.548563608787816</v>
+        <v>3.548563597151167</v>
       </c>
       <c r="P165" t="n">
-        <v>3.548563608787816</v>
+        <v>3.548563597151167</v>
       </c>
       <c r="Q165" t="n">
         <v>9.240763695664477</v>
@@ -9241,25 +9241,25 @@
         <v>367.9955551163068</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3920723990597885</v>
+        <v>0.392072495988451</v>
       </c>
       <c r="K166" t="n">
-        <v>-9.765467534237604</v>
+        <v>-9.765467631166267</v>
       </c>
       <c r="L166" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M166" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N166" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O166" t="n">
-        <v>3.769914774449065</v>
+        <v>3.769914730566482</v>
       </c>
       <c r="P166" t="n">
-        <v>3.769914774449065</v>
+        <v>3.769914730566482</v>
       </c>
       <c r="Q166" t="n">
         <v>9.216797525602489</v>
@@ -9294,25 +9294,25 @@
         <v>299.809639559111</v>
       </c>
       <c r="J167" t="n">
-        <v>0.3020541763632778</v>
+        <v>0.3020542744369354</v>
       </c>
       <c r="K167" t="n">
-        <v>-15.61272286341205</v>
+        <v>-15.61272296148571</v>
       </c>
       <c r="L167" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M167" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N167" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O167" t="n">
-        <v>-2.077340554725383</v>
+        <v>-2.077340599752961</v>
       </c>
       <c r="P167" t="n">
-        <v>2.077340554725383</v>
+        <v>2.077340599752961</v>
       </c>
       <c r="Q167" t="n">
         <v>3.246756316105492</v>
@@ -9347,25 +9347,25 @@
         <v>299.8928493112269</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3020888575353045</v>
+        <v>0.3020889556255391</v>
       </c>
       <c r="K168" t="n">
-        <v>-15.8395276643628</v>
+        <v>-15.83952776245303</v>
       </c>
       <c r="L168" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M168" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N168" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O168" t="n">
-        <v>-2.30414535567613</v>
+        <v>-2.304145400720286</v>
       </c>
       <c r="P168" t="n">
-        <v>2.30414535567613</v>
+        <v>2.304145400720286</v>
       </c>
       <c r="Q168" t="n">
         <v>3.337203467263631</v>
@@ -9400,25 +9400,25 @@
         <v>413.2455333650162</v>
       </c>
       <c r="J169" t="n">
-        <v>0.3879940680394949</v>
+        <v>0.3879941327179353</v>
       </c>
       <c r="K169" t="n">
-        <v>-9.657837980800016</v>
+        <v>-9.657838045478456</v>
       </c>
       <c r="L169" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M169" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N169" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O169" t="n">
-        <v>3.877544327886653</v>
+        <v>3.877544316254292</v>
       </c>
       <c r="P169" t="n">
-        <v>3.877544327886653</v>
+        <v>3.877544316254292</v>
       </c>
       <c r="Q169" t="n">
         <v>9.203685532616433</v>
@@ -9453,25 +9453,25 @@
         <v>119.7552166600192</v>
       </c>
       <c r="J170" t="n">
-        <v>0.4747568610878048</v>
+        <v>0.4747558688092699</v>
       </c>
       <c r="K170" t="n">
-        <v>-9.699528784822419</v>
+        <v>-9.699527792543885</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N170" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O170" t="n">
-        <v>-1.287161803760885</v>
+        <v>-1.287161700632797</v>
       </c>
       <c r="P170" t="n">
-        <v>1.287161803760885</v>
+        <v>1.287161700632797</v>
       </c>
       <c r="Q170" t="n">
         <v>3.222489074358212</v>
@@ -9506,25 +9506,25 @@
         <v>368.6344031992585</v>
       </c>
       <c r="J171" t="n">
-        <v>0.9925271013782426</v>
+        <v>0.9925255285160368</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.172702873854305</v>
+        <v>-5.172701300992099</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N171" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O171" t="n">
-        <v>3.23966410720723</v>
+        <v>3.239664790918988</v>
       </c>
       <c r="P171" t="n">
-        <v>3.23966410720723</v>
+        <v>3.239664790918988</v>
       </c>
       <c r="Q171" t="n">
         <v>7.8803829524868</v>
@@ -9559,25 +9559,25 @@
         <v>200.5671025842726</v>
       </c>
       <c r="J172" t="n">
-        <v>-0.09795478314200956</v>
+        <v>-0.09795490222300707</v>
       </c>
       <c r="K172" t="n">
-        <v>-6.744090018799019</v>
+        <v>-6.744089899718022</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N172" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O172" t="n">
-        <v>1.668276962262516</v>
+        <v>1.668276192193066</v>
       </c>
       <c r="P172" t="n">
-        <v>1.668276962262516</v>
+        <v>1.668276192193066</v>
       </c>
       <c r="Q172" t="n">
         <v>61.74785746014945</v>
@@ -9612,25 +9612,25 @@
         <v>368.6525555648983</v>
       </c>
       <c r="J173" t="n">
-        <v>0.9926134338560084</v>
+        <v>0.9926118611071315</v>
       </c>
       <c r="K173" t="n">
-        <v>-4.654547894153901</v>
+        <v>-4.654546321405024</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N173" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O173" t="n">
-        <v>3.757819086907634</v>
+        <v>3.757819770506063</v>
       </c>
       <c r="P173" t="n">
-        <v>3.757819086907634</v>
+        <v>3.757819770506063</v>
       </c>
       <c r="Q173" t="n">
         <v>7.816425144308134</v>
@@ -9665,25 +9665,25 @@
         <v>200.3209143377016</v>
       </c>
       <c r="J174" t="n">
-        <v>-0.09742152458071907</v>
+        <v>-0.09742164416970667</v>
       </c>
       <c r="K174" t="n">
-        <v>-8.347517876980431</v>
+        <v>-8.347517757391444</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N174" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O174" t="n">
-        <v>0.06484910408110345</v>
+        <v>0.06484833451964356</v>
       </c>
       <c r="P174" t="n">
-        <v>0.06484910408110345</v>
+        <v>0.06484833451964356</v>
       </c>
       <c r="Q174" t="n">
         <v>61.80216407210064</v>
@@ -9718,25 +9718,25 @@
         <v>119.7733602366818</v>
       </c>
       <c r="J175" t="n">
-        <v>0.4747645553974369</v>
+        <v>0.4747635630571816</v>
       </c>
       <c r="K175" t="n">
-        <v>-9.644257736610493</v>
+        <v>-9.644256744270237</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N175" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O175" t="n">
-        <v>-1.231890755548958</v>
+        <v>-1.23189065235915</v>
       </c>
       <c r="P175" t="n">
-        <v>1.231890755548958</v>
+        <v>1.23189065235915</v>
       </c>
       <c r="Q175" t="n">
         <v>3.246884251696411</v>
@@ -9771,25 +9771,25 @@
         <v>368.6603283264824</v>
       </c>
       <c r="J176" t="n">
-        <v>0.9925803663093777</v>
+        <v>0.9925787933918446</v>
       </c>
       <c r="K176" t="n">
-        <v>-5.241817144161674</v>
+        <v>-5.241815571244141</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N176" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O176" t="n">
-        <v>3.170549836899861</v>
+        <v>3.170550520666946</v>
       </c>
       <c r="P176" t="n">
-        <v>3.170549836899861</v>
+        <v>3.170550520666946</v>
       </c>
       <c r="Q176" t="n">
         <v>7.893402619693479</v>
@@ -9824,28 +9824,28 @@
         <v>199.7796105023224</v>
       </c>
       <c r="J177" t="n">
-        <v>-0.09616228987211173</v>
+        <v>-0.09616241040595952</v>
       </c>
       <c r="K177" t="n">
-        <v>-8.961019097907666</v>
+        <v>-8.961018977373818</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N177" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.5486521168461316</v>
+        <v>-0.5486528854627313</v>
       </c>
       <c r="P177" t="n">
-        <v>0.5486521168461316</v>
+        <v>0.5486528854627313</v>
       </c>
       <c r="Q177" t="n">
-        <v>61.8175865522177</v>
+        <v>61.81758655221769</v>
       </c>
     </row>
     <row r="178">
@@ -9877,25 +9877,25 @@
         <v>200.2398562138769</v>
       </c>
       <c r="J178" t="n">
-        <v>-0.1821904242237737</v>
+        <v>-0.1821904238688017</v>
       </c>
       <c r="K178" t="n">
-        <v>-0.8461567761951327</v>
+        <v>-0.8461567765501048</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N178" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O178" t="n">
-        <v>3.315959096761802</v>
+        <v>3.315959099240162</v>
       </c>
       <c r="P178" t="n">
-        <v>3.315959096761802</v>
+        <v>3.315959099240162</v>
       </c>
       <c r="Q178" t="n">
         <v>61.92689874323039</v>
@@ -9930,25 +9930,25 @@
         <v>361.6726711052846</v>
       </c>
       <c r="J179" t="n">
-        <v>-0.6191553070531191</v>
+        <v>-0.61915530823868</v>
       </c>
       <c r="K179" t="n">
-        <v>-0.6310697085201236</v>
+        <v>-0.6310697073345626</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N179" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O179" t="n">
-        <v>3.531046164436812</v>
+        <v>3.531046168455704</v>
       </c>
       <c r="P179" t="n">
-        <v>3.531046164436812</v>
+        <v>3.531046168455704</v>
       </c>
       <c r="Q179" t="n">
         <v>3.250612309430952</v>
@@ -9983,25 +9983,25 @@
         <v>349.1942322501384</v>
       </c>
       <c r="J180" t="n">
-        <v>1.260393271378649</v>
+        <v>1.260393275877797</v>
       </c>
       <c r="K180" t="n">
-        <v>-6.124942629399075</v>
+        <v>-6.124942633898224</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N180" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O180" t="n">
-        <v>-1.96282675644214</v>
+        <v>-1.962826758107957</v>
       </c>
       <c r="P180" t="n">
-        <v>1.96282675644214</v>
+        <v>1.962826758107957</v>
       </c>
       <c r="Q180" t="n">
         <v>6.123833754367437</v>
@@ -10036,25 +10036,25 @@
         <v>349.5927984251533</v>
       </c>
       <c r="J181" t="n">
-        <v>1.261781685962987</v>
+        <v>1.261781690470747</v>
       </c>
       <c r="K181" t="n">
-        <v>-8.074616295534611</v>
+        <v>-8.07461630004237</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N181" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O181" t="n">
-        <v>-3.912500422577676</v>
+        <v>-3.912500424252103</v>
       </c>
       <c r="P181" t="n">
-        <v>3.912500422577676</v>
+        <v>3.912500424252103</v>
       </c>
       <c r="Q181" t="n">
         <v>5.734238321921795</v>
@@ -10089,25 +10089,25 @@
         <v>200.1354206564006</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.1818457051199935</v>
+        <v>-0.1818457047641981</v>
       </c>
       <c r="K182" t="n">
-        <v>-0.8890612665649833</v>
+        <v>-0.8890612669207787</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N182" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O182" t="n">
-        <v>3.273054606391952</v>
+        <v>3.273054608869488</v>
       </c>
       <c r="P182" t="n">
-        <v>3.273054606391952</v>
+        <v>3.273054608869488</v>
       </c>
       <c r="Q182" t="n">
         <v>61.93166157797592</v>
@@ -10142,25 +10142,25 @@
         <v>349.3978466256303</v>
       </c>
       <c r="J183" t="n">
-        <v>1.261292983610157</v>
+        <v>1.261292988117715</v>
       </c>
       <c r="K183" t="n">
-        <v>-8.438007133095747</v>
+        <v>-8.438007137603305</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N183" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O183" t="n">
-        <v>-4.275891260138811</v>
+        <v>-4.275891261813038</v>
       </c>
       <c r="P183" t="n">
-        <v>4.275891260138811</v>
+        <v>4.275891261813038</v>
       </c>
       <c r="Q183" t="n">
         <v>5.93601621700068</v>
@@ -10195,25 +10195,25 @@
         <v>200.2267732601068</v>
       </c>
       <c r="J184" t="n">
-        <v>-0.1821167629198293</v>
+        <v>-0.1821167625648492</v>
       </c>
       <c r="K184" t="n">
-        <v>-1.153345507992217</v>
+        <v>-1.153345508347197</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N184" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O184" t="n">
-        <v>3.008770364964718</v>
+        <v>3.00877036744307</v>
       </c>
       <c r="P184" t="n">
-        <v>3.008770364964718</v>
+        <v>3.00877036744307</v>
       </c>
       <c r="Q184" t="n">
         <v>61.90857668905941</v>
@@ -10248,25 +10248,25 @@
         <v>200.1240529943674</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0358415135136867</v>
+        <v>0.03584149883675813</v>
       </c>
       <c r="K185" t="n">
-        <v>-1.106124254079154</v>
+        <v>-1.106124239402225</v>
       </c>
       <c r="L185" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M185" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N185" t="n">
         <v>1.5</v>
       </c>
       <c r="O185" t="n">
-        <v>-2.606124254079154</v>
+        <v>-2.606124239402225</v>
       </c>
       <c r="P185" t="n">
-        <v>2.606124254079154</v>
+        <v>2.606124239402225</v>
       </c>
       <c r="Q185" t="n">
         <v>61.96666991355228</v>
@@ -10301,25 +10301,25 @@
         <v>200.1231163407757</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03584724515192672</v>
+        <v>0.0358472304706714</v>
       </c>
       <c r="K186" t="n">
-        <v>-1.119414491131194</v>
+        <v>-1.119414476449939</v>
       </c>
       <c r="L186" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M186" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N186" t="n">
         <v>1.5</v>
       </c>
       <c r="O186" t="n">
-        <v>-2.619414491131194</v>
+        <v>-2.619414476449939</v>
       </c>
       <c r="P186" t="n">
-        <v>2.619414491131194</v>
+        <v>2.619414476449939</v>
       </c>
       <c r="Q186" t="n">
         <v>61.99071429268441</v>
@@ -10354,25 +10354,25 @@
         <v>361.5313822267732</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1742783325158572</v>
+        <v>0.1742783413349978</v>
       </c>
       <c r="K187" t="n">
-        <v>-0.02295316328440178</v>
+        <v>-0.02295317210354231</v>
       </c>
       <c r="L187" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M187" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N187" t="n">
         <v>1.5</v>
       </c>
       <c r="O187" t="n">
-        <v>-1.522953163284402</v>
+        <v>-1.522953172103542</v>
       </c>
       <c r="P187" t="n">
-        <v>1.522953163284402</v>
+        <v>1.522953172103542</v>
       </c>
       <c r="Q187" t="n">
         <v>3.221587741528591</v>
@@ -10407,25 +10407,25 @@
         <v>200.0745115553039</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03578556639037167</v>
+        <v>0.03578555171444675</v>
       </c>
       <c r="K188" t="n">
-        <v>-1.238425576087243</v>
+        <v>-1.238425561411318</v>
       </c>
       <c r="L188" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M188" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N188" t="n">
         <v>1.5</v>
       </c>
       <c r="O188" t="n">
-        <v>-2.738425576087243</v>
+        <v>-2.738425561411318</v>
       </c>
       <c r="P188" t="n">
-        <v>2.738425576087243</v>
+        <v>2.738425561411318</v>
       </c>
       <c r="Q188" t="n">
         <v>61.93946670533448</v>
@@ -10460,25 +10460,25 @@
         <v>200.0822935994189</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02469529021334171</v>
+        <v>0.02469511160861515</v>
       </c>
       <c r="K189" t="n">
-        <v>3.268379537899302</v>
+        <v>3.268379716504029</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M189" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N189" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O189" t="n">
-        <v>-3.615210338568998</v>
+        <v>-3.615210855851986</v>
       </c>
       <c r="P189" t="n">
-        <v>3.615210338568998</v>
+        <v>3.615210855851986</v>
       </c>
       <c r="Q189" t="n">
         <v>61.86932586733971</v>
@@ -10513,25 +10513,25 @@
         <v>341.1776431056728</v>
       </c>
       <c r="J190" t="n">
-        <v>-0.2985073069712953</v>
+        <v>-0.2984989380277838</v>
       </c>
       <c r="K190" t="n">
-        <v>30.73823146453569</v>
+        <v>30.73822309559218</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.01700462130075263</v>
+        <v>-0.01700381395843612</v>
       </c>
       <c r="M190" t="n">
-        <v>-0.02774809052601302</v>
+        <v>-0.02774744443859951</v>
       </c>
       <c r="N190" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="O190" t="n">
-        <v>-1.894540257009922</v>
+        <v>-1.894544020335417</v>
       </c>
       <c r="P190" t="n">
-        <v>1.894540257009922</v>
+        <v>1.894544020335417</v>
       </c>
       <c r="Q190" t="n">
         <v>3.344126360974697</v>
@@ -10566,25 +10566,25 @@
         <v>515.199725076134</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1607575959089189</v>
+        <v>0.1607523078893536</v>
       </c>
       <c r="K191" t="n">
-        <v>28.60243967892639</v>
+        <v>28.60244496694596</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.01700462130075263</v>
+        <v>-0.01700381395843612</v>
       </c>
       <c r="M191" t="n">
-        <v>-0.02774809052601302</v>
+        <v>-0.02774744443859951</v>
       </c>
       <c r="N191" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="O191" t="n">
-        <v>-4.030332042619214</v>
+        <v>-4.030322148981632</v>
       </c>
       <c r="P191" t="n">
-        <v>4.030332042619214</v>
+        <v>4.030322148981632</v>
       </c>
       <c r="Q191" t="n">
         <v>3.900664793596304</v>
@@ -10619,25 +10619,25 @@
         <v>430.5919580414605</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1031416476201557</v>
+        <v>0.1031522544928904</v>
       </c>
       <c r="K192" t="n">
-        <v>34.21939800411303</v>
+        <v>34.2193873972403</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M192" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N192" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O192" t="n">
-        <v>-3.473515225653749</v>
+        <v>-3.473538920644081</v>
       </c>
       <c r="P192" t="n">
-        <v>3.473515225653749</v>
+        <v>3.473538920644081</v>
       </c>
       <c r="Q192" t="n">
         <v>11.48143893982399</v>
@@ -10672,25 +10672,25 @@
         <v>257.4822851958538</v>
       </c>
       <c r="J193" t="n">
-        <v>-0.2212706092870249</v>
+        <v>-0.2212925734226516</v>
       </c>
       <c r="K193" t="n">
-        <v>34.5793098707165</v>
+        <v>34.57933183485213</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M193" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N193" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O193" t="n">
-        <v>-3.113603359050281</v>
+        <v>-3.113594483032252</v>
       </c>
       <c r="P193" t="n">
-        <v>3.113603359050281</v>
+        <v>3.113594483032252</v>
       </c>
       <c r="Q193" t="n">
         <v>4.05858491422911</v>
@@ -10725,25 +10725,25 @@
         <v>290.2139715258167</v>
       </c>
       <c r="J194" t="n">
-        <v>-0.2295146592682187</v>
+        <v>-0.2295297714863977</v>
       </c>
       <c r="K194" t="n">
-        <v>33.16996459925276</v>
+        <v>33.16997971147094</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M194" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N194" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O194" t="n">
-        <v>-4.522948630514023</v>
+        <v>-4.522946606413441</v>
       </c>
       <c r="P194" t="n">
-        <v>4.522948630514023</v>
+        <v>4.522946606413441</v>
       </c>
       <c r="Q194" t="n">
         <v>10.46182581052737</v>
@@ -10778,25 +10778,25 @@
         <v>129.5669657157243</v>
       </c>
       <c r="J195" t="n">
-        <v>-0.1284673563529282</v>
+        <v>-0.1284762633758163</v>
       </c>
       <c r="K195" t="n">
-        <v>36.82741055234401</v>
+        <v>36.8274194593669</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M195" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N195" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.8655026774227679</v>
+        <v>-0.8655068585174774</v>
       </c>
       <c r="P195" t="n">
-        <v>0.8655026774227679</v>
+        <v>0.8655068585174774</v>
       </c>
       <c r="Q195" t="n">
         <v>4.158922354972754</v>
@@ -10831,25 +10831,25 @@
         <v>429.9941846263285</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1027901727010416</v>
+        <v>0.1028007485223412</v>
       </c>
       <c r="K196" t="n">
-        <v>34.30857277205709</v>
+        <v>34.30856219623579</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M196" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N196" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O196" t="n">
-        <v>-3.38434045770969</v>
+        <v>-3.384364121648588</v>
       </c>
       <c r="P196" t="n">
-        <v>3.38434045770969</v>
+        <v>3.384364121648588</v>
       </c>
       <c r="Q196" t="n">
         <v>11.98504416914266</v>
@@ -10884,25 +10884,25 @@
         <v>257.6470745390086</v>
       </c>
       <c r="J197" t="n">
-        <v>-0.22132788054153</v>
+        <v>-0.2213498514924552</v>
       </c>
       <c r="K197" t="n">
-        <v>34.32289821285787</v>
+        <v>34.32292018380879</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M197" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N197" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O197" t="n">
-        <v>-3.370015016908916</v>
+        <v>-3.370006134075588</v>
       </c>
       <c r="P197" t="n">
-        <v>3.370015016908916</v>
+        <v>3.370006134075588</v>
       </c>
       <c r="Q197" t="n">
         <v>4.104467823554792</v>
@@ -10937,25 +10937,25 @@
         <v>129.639396793956</v>
       </c>
       <c r="J198" t="n">
-        <v>-0.1282627069949243</v>
+        <v>-0.1282715967063979</v>
       </c>
       <c r="K198" t="n">
-        <v>38.20631839298331</v>
+        <v>38.20632728269478</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M198" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N198" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O198" t="n">
-        <v>0.5134051632165253</v>
+        <v>0.5134009648104012</v>
       </c>
       <c r="P198" t="n">
-        <v>0.5134051632165253</v>
+        <v>0.5134009648104012</v>
       </c>
       <c r="Q198" t="n">
         <v>3.827882942868994</v>
@@ -10990,25 +10990,25 @@
         <v>313.381137440437</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05920178806071874</v>
+        <v>0.0592057206080554</v>
       </c>
       <c r="K199" t="n">
-        <v>39.61803005212325</v>
+        <v>39.61802611957592</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M199" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N199" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O199" t="n">
-        <v>1.925116822356472</v>
+        <v>1.925099801691537</v>
       </c>
       <c r="P199" t="n">
-        <v>1.925116822356472</v>
+        <v>1.925099801691537</v>
       </c>
       <c r="Q199" t="n">
         <v>3.67290956658744</v>
@@ -11043,25 +11043,25 @@
         <v>430.5335299452596</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1031000914849685</v>
+        <v>0.1031106951431227</v>
       </c>
       <c r="K200" t="n">
-        <v>34.29588856726541</v>
+        <v>34.29587796360725</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M200" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N200" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O200" t="n">
-        <v>-3.397024662501373</v>
+        <v>-3.397048354277125</v>
       </c>
       <c r="P200" t="n">
-        <v>3.397024662501373</v>
+        <v>3.397048354277125</v>
       </c>
       <c r="Q200" t="n">
         <v>11.54851056106582</v>
@@ -11096,25 +11096,25 @@
         <v>257.7711274797834</v>
       </c>
       <c r="J201" t="n">
-        <v>-0.2213783046026947</v>
+        <v>-0.221400281128119</v>
       </c>
       <c r="K201" t="n">
-        <v>33.95769955165482</v>
+        <v>33.95772152818024</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M201" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N201" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O201" t="n">
-        <v>-3.735213678111961</v>
+        <v>-3.735204789704134</v>
       </c>
       <c r="P201" t="n">
-        <v>3.735213678111961</v>
+        <v>3.735204789704134</v>
       </c>
       <c r="Q201" t="n">
         <v>4.156857547187879</v>
@@ -11149,25 +11149,25 @@
         <v>313.4648114172345</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05925298332977746</v>
+        <v>0.05925691650237042</v>
       </c>
       <c r="K202" t="n">
-        <v>39.66046426455586</v>
+        <v>39.66046033138326</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M202" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N202" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O202" t="n">
-        <v>1.967551034789075</v>
+        <v>1.967534013498884</v>
       </c>
       <c r="P202" t="n">
-        <v>1.967551034789075</v>
+        <v>1.967534013498884</v>
       </c>
       <c r="Q202" t="n">
         <v>3.696128532799414</v>
@@ -11202,25 +11202,25 @@
         <v>348.5622763713852</v>
       </c>
       <c r="J203" t="n">
-        <v>-0.1385434482437304</v>
+        <v>-0.1385434505776217</v>
       </c>
       <c r="K203" t="n">
-        <v>41.14174310261208</v>
+        <v>41.14174310494597</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M203" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N203" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O203" t="n">
-        <v>-1.297223243800005</v>
+        <v>-1.297223242539118</v>
       </c>
       <c r="P203" t="n">
-        <v>1.297223243800005</v>
+        <v>1.297223242539118</v>
       </c>
       <c r="Q203" t="n">
         <v>6.776587582242398</v>
@@ -11255,25 +11255,25 @@
         <v>130.5449011617825</v>
       </c>
       <c r="J204" t="n">
-        <v>-0.01134285498132215</v>
+        <v>-0.01134285573404981</v>
       </c>
       <c r="K204" t="n">
-        <v>42.10316871741654</v>
+        <v>42.10316871816927</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M204" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N204" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.3357976289955431</v>
+        <v>-0.3357976293158202</v>
       </c>
       <c r="P204" t="n">
-        <v>0.3357976289955431</v>
+        <v>0.3357976293158202</v>
       </c>
       <c r="Q204" t="n">
         <v>5.67037234172343</v>
@@ -11308,25 +11308,25 @@
         <v>146.6658376064175</v>
       </c>
       <c r="J205" t="n">
-        <v>-0.01102751370278554</v>
+        <v>-0.01102751452851436</v>
       </c>
       <c r="K205" t="n">
-        <v>37.92762716851197</v>
+        <v>37.9276271693377</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M205" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N205" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O205" t="n">
-        <v>-4.511339177900119</v>
+        <v>-4.511339178147395</v>
       </c>
       <c r="P205" t="n">
-        <v>4.511339177900119</v>
+        <v>4.511339178147395</v>
       </c>
       <c r="Q205" t="n">
         <v>3.264825481734119</v>
@@ -11361,25 +11361,25 @@
         <v>381.6036131534149</v>
       </c>
       <c r="J206" t="n">
-        <v>-0.1275684645233142</v>
+        <v>-0.1275684656378928</v>
       </c>
       <c r="K206" t="n">
-        <v>44.07024872458935</v>
+        <v>44.07024872570393</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M206" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N206" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O206" t="n">
-        <v>1.631282378177261</v>
+        <v>1.631282378218835</v>
       </c>
       <c r="P206" t="n">
-        <v>1.631282378177261</v>
+        <v>1.631282378218835</v>
       </c>
       <c r="Q206" t="n">
         <v>4.430676917217134</v>
@@ -11414,25 +11414,25 @@
         <v>312.804082924476</v>
       </c>
       <c r="J207" t="n">
-        <v>0.002735313026761332</v>
+        <v>0.002735313356986069</v>
       </c>
       <c r="K207" t="n">
-        <v>40.32318567744525</v>
+        <v>40.32318567711502</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M207" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N207" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O207" t="n">
-        <v>-2.115780668966842</v>
+        <v>-2.115780670370071</v>
       </c>
       <c r="P207" t="n">
-        <v>2.115780668966842</v>
+        <v>2.115780670370071</v>
       </c>
       <c r="Q207" t="n">
         <v>3.98382418988797</v>
@@ -11467,25 +11467,25 @@
         <v>346.6923180192944</v>
       </c>
       <c r="J208" t="n">
-        <v>-0.1381466657861878</v>
+        <v>-0.1381466681113039</v>
       </c>
       <c r="K208" t="n">
-        <v>38.7853293309327</v>
+        <v>38.78532933325781</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M208" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N208" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O208" t="n">
-        <v>-3.65363701547939</v>
+        <v>-3.653637014227279</v>
       </c>
       <c r="P208" t="n">
-        <v>3.65363701547939</v>
+        <v>3.653637014227279</v>
       </c>
       <c r="Q208" t="n">
         <v>4.765702133964106</v>
@@ -11520,25 +11520,25 @@
         <v>131.1216165969452</v>
       </c>
       <c r="J209" t="n">
-        <v>-0.01130415799627826</v>
+        <v>-0.01130415875121571</v>
       </c>
       <c r="K209" t="n">
-        <v>43.01437430883748</v>
+        <v>43.01437430959242</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M209" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N209" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O209" t="n">
-        <v>0.5754079624253947</v>
+        <v>0.5754079621073274</v>
       </c>
       <c r="P209" t="n">
-        <v>0.5754079624253947</v>
+        <v>0.5754079621073274</v>
       </c>
       <c r="Q209" t="n">
         <v>6.536204654715486</v>
@@ -11573,25 +11573,25 @@
         <v>381.4882385100386</v>
       </c>
       <c r="J210" t="n">
-        <v>-0.1275698917923336</v>
+        <v>-0.1275698929074309</v>
       </c>
       <c r="K210" t="n">
-        <v>43.19622252739739</v>
+        <v>43.19622252851249</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M210" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N210" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O210" t="n">
-        <v>0.7572561809853013</v>
+        <v>0.7572561810273939</v>
       </c>
       <c r="P210" t="n">
-        <v>0.7572561809853013</v>
+        <v>0.7572561810273939</v>
       </c>
       <c r="Q210" t="n">
         <v>4.380264313048619</v>
@@ -11626,25 +11626,25 @@
         <v>312.7076296648987</v>
       </c>
       <c r="J211" t="n">
-        <v>0.002644575827261519</v>
+        <v>0.002644576156711764</v>
       </c>
       <c r="K211" t="n">
-        <v>40.52500249393969</v>
+        <v>40.52500249361024</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M211" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N211" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O211" t="n">
-        <v>-1.913963852472399</v>
+        <v>-1.913963853874854</v>
       </c>
       <c r="P211" t="n">
-        <v>1.913963852472399</v>
+        <v>1.913963853874854</v>
       </c>
       <c r="Q211" t="n">
         <v>4.155740576181119</v>
@@ -11679,25 +11679,25 @@
         <v>347.226405368641</v>
       </c>
       <c r="J212" t="n">
-        <v>-0.1382816151799204</v>
+        <v>-0.138281617507289</v>
       </c>
       <c r="K212" t="n">
-        <v>40.53158732372105</v>
+        <v>40.53158732604842</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M212" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N212" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O212" t="n">
-        <v>-1.907379022691039</v>
+        <v>-1.907379021436675</v>
       </c>
       <c r="P212" t="n">
-        <v>1.907379022691039</v>
+        <v>1.907379021436675</v>
       </c>
       <c r="Q212" t="n">
         <v>5.20474011920396</v>
@@ -11732,25 +11732,25 @@
         <v>131.0038178294227</v>
       </c>
       <c r="J213" t="n">
-        <v>-0.01135435464483692</v>
+        <v>-0.01135435540049201</v>
       </c>
       <c r="K213" t="n">
-        <v>42.82718109390051</v>
+        <v>42.82718109465617</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M213" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N213" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O213" t="n">
-        <v>0.3882147474884263</v>
+        <v>0.3882147471710766</v>
       </c>
       <c r="P213" t="n">
-        <v>0.3882147474884263</v>
+        <v>0.3882147471710766</v>
       </c>
       <c r="Q213" t="n">
         <v>6.641002193630225</v>
@@ -11785,25 +11785,25 @@
         <v>312.7419369440324</v>
       </c>
       <c r="J214" t="n">
-        <v>0.002597715477257623</v>
+        <v>0.00259771580657997</v>
       </c>
       <c r="K214" t="n">
-        <v>40.473174629943</v>
+        <v>40.47317462961368</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M214" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N214" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O214" t="n">
-        <v>-1.965791716469084</v>
+        <v>-1.965791717871411</v>
       </c>
       <c r="P214" t="n">
-        <v>1.965791716469084</v>
+        <v>1.965791717871411</v>
       </c>
       <c r="Q214" t="n">
         <v>4.188618607426707</v>
@@ -11838,25 +11838,25 @@
         <v>120.4195251979276</v>
       </c>
       <c r="J215" t="n">
-        <v>-0.05430198414661191</v>
+        <v>-0.05429027304045775</v>
       </c>
       <c r="K215" t="n">
-        <v>44.42701717772019</v>
+        <v>44.42700546661403</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M215" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N215" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O215" t="n">
-        <v>-3.312048499710464</v>
+        <v>-3.312051188418266</v>
       </c>
       <c r="P215" t="n">
-        <v>3.312048499710464</v>
+        <v>3.312051188418266</v>
       </c>
       <c r="Q215" t="n">
         <v>3.953503890785184</v>
@@ -11891,25 +11891,25 @@
         <v>375.7914781515838</v>
       </c>
       <c r="J216" t="n">
-        <v>-0.0189572396439317</v>
+        <v>-0.01894350351069107</v>
       </c>
       <c r="K216" t="n">
-        <v>44.05660662328995</v>
+        <v>44.05659288715671</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M216" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N216" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O216" t="n">
-        <v>-3.682459054140701</v>
+        <v>-3.682463767875589</v>
       </c>
       <c r="P216" t="n">
-        <v>3.682459054140701</v>
+        <v>3.682463767875589</v>
       </c>
       <c r="Q216" t="n">
         <v>3.703052072521506</v>
@@ -11944,25 +11944,25 @@
         <v>318.4937701094711</v>
       </c>
       <c r="J217" t="n">
-        <v>-0.02153327169152419</v>
+        <v>-0.02152037814360597</v>
       </c>
       <c r="K217" t="n">
-        <v>43.67433955470759</v>
+        <v>43.67432666115968</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M217" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N217" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O217" t="n">
-        <v>-4.064726122723059</v>
+        <v>-4.064729993872625</v>
       </c>
       <c r="P217" t="n">
-        <v>4.064726122723059</v>
+        <v>4.064729993872625</v>
       </c>
       <c r="Q217" t="n">
         <v>7.690118617845288</v>
@@ -11997,25 +11997,25 @@
         <v>381.6015261421294</v>
       </c>
       <c r="J218" t="n">
-        <v>0.002119714110776272</v>
+        <v>0.002129320826334435</v>
       </c>
       <c r="K218" t="n">
-        <v>47.88016801832688</v>
+        <v>47.88015841161132</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M218" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N218" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1411023408962251</v>
+        <v>0.1411017565790189</v>
       </c>
       <c r="P218" t="n">
-        <v>0.1411023408962251</v>
+        <v>0.1411017565790189</v>
       </c>
       <c r="Q218" t="n">
         <v>4.470344227314583</v>
@@ -12050,25 +12050,25 @@
         <v>310.4835420295876</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01892911414301324</v>
+        <v>0.01892650933309881</v>
       </c>
       <c r="K219" t="n">
-        <v>48.15937551229246</v>
+        <v>48.15937811710237</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M219" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N219" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O219" t="n">
-        <v>0.4203098348618042</v>
+        <v>0.4203214620700706</v>
       </c>
       <c r="P219" t="n">
-        <v>0.4203098348618042</v>
+        <v>0.4203214620700706</v>
       </c>
       <c r="Q219" t="n">
         <v>6.5912848147228</v>
@@ -12103,25 +12103,25 @@
         <v>313.253500919853</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01931013550662897</v>
+        <v>0.01930742216515569</v>
       </c>
       <c r="K220" t="n">
-        <v>48.26539517053417</v>
+        <v>48.26539788387564</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M220" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N220" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O220" t="n">
-        <v>0.5263294931035176</v>
+        <v>0.5263412288433429</v>
       </c>
       <c r="P220" t="n">
-        <v>0.5263294931035176</v>
+        <v>0.5263412288433429</v>
       </c>
       <c r="Q220" t="n">
         <v>3.533939755589741</v>
@@ -12156,25 +12156,25 @@
         <v>277.2047862847348</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01332350967540918</v>
+        <v>0.01332202121276538</v>
       </c>
       <c r="K221" t="n">
-        <v>43.36682835323406</v>
+        <v>43.3668298416967</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M221" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N221" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O221" t="n">
-        <v>-4.372237324196597</v>
+        <v>-4.372226813335601</v>
       </c>
       <c r="P221" t="n">
-        <v>4.372237324196597</v>
+        <v>4.372226813335601</v>
       </c>
       <c r="Q221" t="n">
         <v>4.019574456391894</v>
@@ -12209,28 +12209,28 @@
         <v>120.4957561481768</v>
       </c>
       <c r="J222" t="n">
-        <v>-0.05431807897009833</v>
+        <v>-0.05430636618579854</v>
       </c>
       <c r="K222" t="n">
-        <v>44.47818397818329</v>
+        <v>44.47817226539899</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M222" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N222" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O222" t="n">
-        <v>-3.260881699247363</v>
+        <v>-3.260884389633311</v>
       </c>
       <c r="P222" t="n">
-        <v>3.260881699247363</v>
+        <v>3.260884389633311</v>
       </c>
       <c r="Q222" t="n">
-        <v>4.047270348776171</v>
+        <v>4.047270348776172</v>
       </c>
     </row>
     <row r="223">
@@ -12262,28 +12262,28 @@
         <v>348.5945238394681</v>
       </c>
       <c r="J223" t="n">
-        <v>-0.06848435661589036</v>
+        <v>-0.06846478248704813</v>
       </c>
       <c r="K223" t="n">
-        <v>43.76501386193674</v>
+        <v>43.76499428780789</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M223" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N223" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O223" t="n">
-        <v>-3.974051815493915</v>
+        <v>-3.974062367224406</v>
       </c>
       <c r="P223" t="n">
-        <v>3.974051815493915</v>
+        <v>3.974062367224406</v>
       </c>
       <c r="Q223" t="n">
-        <v>7.157954138091521</v>
+        <v>7.157954138091522</v>
       </c>
     </row>
     <row r="224">
@@ -12315,25 +12315,25 @@
         <v>142.297538970433</v>
       </c>
       <c r="J224" t="n">
-        <v>-0.04437232105748734</v>
+        <v>-0.04436574038210495</v>
       </c>
       <c r="K224" t="n">
-        <v>46.17988921571376</v>
+        <v>46.17988263503837</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M224" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N224" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O224" t="n">
-        <v>-1.559176461716895</v>
+        <v>-1.559174019993925</v>
       </c>
       <c r="P224" t="n">
-        <v>1.559176461716895</v>
+        <v>1.559174019993925</v>
       </c>
       <c r="Q224" t="n">
         <v>4.880814931611589</v>
@@ -12368,25 +12368,25 @@
         <v>316.5500623245358</v>
       </c>
       <c r="J225" t="n">
-        <v>-0.02175816020275789</v>
+        <v>-0.02174527062204135</v>
       </c>
       <c r="K225" t="n">
-        <v>46.4397042984854</v>
+        <v>46.43969140890468</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M225" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N225" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O225" t="n">
-        <v>-1.299361378945257</v>
+        <v>-1.299365246127621</v>
       </c>
       <c r="P225" t="n">
-        <v>1.299361378945257</v>
+        <v>1.299365246127621</v>
       </c>
       <c r="Q225" t="n">
         <v>5.657853012478749</v>
@@ -12421,25 +12421,25 @@
         <v>441.1671429522848</v>
       </c>
       <c r="J226" t="n">
-        <v>0.009972223879273656</v>
+        <v>0.009981585217417432</v>
       </c>
       <c r="K226" t="n">
-        <v>46.13840908172124</v>
+        <v>46.1383997203831</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M226" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N226" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O226" t="n">
-        <v>-1.60065659570941</v>
+        <v>-1.600656934649201</v>
       </c>
       <c r="P226" t="n">
-        <v>1.60065659570941</v>
+        <v>1.600656934649201</v>
       </c>
       <c r="Q226" t="n">
         <v>3.354124777395296</v>
@@ -12474,25 +12474,25 @@
         <v>382.1998602609266</v>
       </c>
       <c r="J227" t="n">
-        <v>0.002187585657772217</v>
+        <v>0.002197192484999277</v>
       </c>
       <c r="K227" t="n">
-        <v>47.75882133964987</v>
+        <v>47.75881173282264</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M227" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N227" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O227" t="n">
-        <v>0.0197556622192181</v>
+        <v>0.01975507779034302</v>
       </c>
       <c r="P227" t="n">
-        <v>0.0197556622192181</v>
+        <v>0.01975507779034302</v>
       </c>
       <c r="Q227" t="n">
         <v>4.994377041633417</v>
@@ -12527,25 +12527,25 @@
         <v>311.3245076961567</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01903986815685244</v>
+        <v>0.01903722945195341</v>
       </c>
       <c r="K228" t="n">
-        <v>48.22159191483137</v>
+        <v>48.22159455353627</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M228" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N228" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O228" t="n">
-        <v>0.4825262374007195</v>
+        <v>0.4825378985039706</v>
       </c>
       <c r="P228" t="n">
-        <v>0.4825262374007195</v>
+        <v>0.4825378985039706</v>
       </c>
       <c r="Q228" t="n">
         <v>5.632301679190954</v>
@@ -12580,25 +12580,25 @@
         <v>120.3410949179482</v>
       </c>
       <c r="J229" t="n">
-        <v>-0.0542900567534943</v>
+        <v>-0.05427834865022874</v>
       </c>
       <c r="K229" t="n">
-        <v>44.36799172073927</v>
+        <v>44.367980012636</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M229" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N229" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O229" t="n">
-        <v>-3.371073956691383</v>
+        <v>-3.371076642396297</v>
       </c>
       <c r="P229" t="n">
-        <v>3.371073956691383</v>
+        <v>3.371076642396297</v>
       </c>
       <c r="Q229" t="n">
         <v>3.896286019568657</v>
@@ -12633,25 +12633,25 @@
         <v>317.0832472450415</v>
       </c>
       <c r="J230" t="n">
-        <v>-0.02170299401281994</v>
+        <v>-0.02169010217076561</v>
       </c>
       <c r="K230" t="n">
-        <v>44.48532454916875</v>
+        <v>44.4853116573267</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M230" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N230" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O230" t="n">
-        <v>-3.2537411282619</v>
+        <v>-3.253744997705603</v>
       </c>
       <c r="P230" t="n">
-        <v>3.2537411282619</v>
+        <v>3.253744997705603</v>
       </c>
       <c r="Q230" t="n">
         <v>6.205602193500466</v>
@@ -12686,25 +12686,25 @@
         <v>310.7841020510803</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0189483581333576</v>
+        <v>0.01894573746786676</v>
       </c>
       <c r="K231" t="n">
-        <v>48.2252698735489</v>
+        <v>48.22527249421439</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M231" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N231" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O231" t="n">
-        <v>0.4862041961182513</v>
+        <v>0.4862158391820941</v>
       </c>
       <c r="P231" t="n">
-        <v>0.4862041961182513</v>
+        <v>0.4862158391820941</v>
       </c>
       <c r="Q231" t="n">
         <v>6.147089353774875</v>
@@ -12739,25 +12739,25 @@
         <v>143.1417699987811</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04181376092531508</v>
+        <v>0.04181375154231404</v>
       </c>
       <c r="K232" t="n">
-        <v>48.76071395538386</v>
+        <v>48.76071396476686</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M232" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N232" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O232" t="n">
-        <v>-4.511435505591074</v>
+        <v>-4.511435508992953</v>
       </c>
       <c r="P232" t="n">
-        <v>4.511435505591074</v>
+        <v>4.511435508992953</v>
       </c>
       <c r="Q232" t="n">
         <v>3.359898981342293</v>
@@ -12792,25 +12792,25 @@
         <v>439.7048434670493</v>
       </c>
       <c r="J233" t="n">
-        <v>-0.1535857772368558</v>
+        <v>-0.1535857904942404</v>
       </c>
       <c r="K233" t="n">
-        <v>48.79545296398707</v>
+        <v>48.79545297724445</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M233" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N233" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O233" t="n">
-        <v>-4.47669649698787</v>
+        <v>-4.476696496515366</v>
       </c>
       <c r="P233" t="n">
-        <v>4.47669649698787</v>
+        <v>4.476696496515366</v>
       </c>
       <c r="Q233" t="n">
         <v>4.677973194963582</v>
@@ -12845,25 +12845,25 @@
         <v>234.3929708499112</v>
       </c>
       <c r="J234" t="n">
-        <v>-0.05678292336244084</v>
+        <v>-0.05678294468461331</v>
       </c>
       <c r="K234" t="n">
-        <v>50.94456485688031</v>
+        <v>50.94456487820248</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M234" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N234" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O234" t="n">
-        <v>-2.327584604094632</v>
+        <v>-2.32758459555734</v>
       </c>
       <c r="P234" t="n">
-        <v>2.327584604094632</v>
+        <v>2.32758459555734</v>
       </c>
       <c r="Q234" t="n">
         <v>4.389900998989835</v>
@@ -12898,28 +12898,28 @@
         <v>440.1662565787525</v>
       </c>
       <c r="J235" t="n">
-        <v>-0.1537394007142225</v>
+        <v>-0.1537394139724455</v>
       </c>
       <c r="K235" t="n">
-        <v>50.53023783138414</v>
+        <v>50.53023784464236</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M235" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N235" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O235" t="n">
-        <v>-2.741911629590795</v>
+        <v>-2.741911629117453</v>
       </c>
       <c r="P235" t="n">
-        <v>2.741911629590795</v>
+        <v>2.741911629117453</v>
       </c>
       <c r="Q235" t="n">
-        <v>4.306996173664314</v>
+        <v>4.306996173664315</v>
       </c>
     </row>
     <row r="236">
@@ -12951,25 +12951,25 @@
         <v>281.0237565937236</v>
       </c>
       <c r="J236" t="n">
-        <v>-0.08774309030874861</v>
+        <v>-0.08774309665363944</v>
       </c>
       <c r="K236" t="n">
-        <v>48.77878763383338</v>
+        <v>48.77878764017827</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M236" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N236" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O236" t="n">
-        <v>-4.493361827141555</v>
+        <v>-4.493361833581545</v>
       </c>
       <c r="P236" t="n">
-        <v>4.493361827141555</v>
+        <v>4.493361833581545</v>
       </c>
       <c r="Q236" t="n">
         <v>3.297959244919675</v>
@@ -13004,25 +13004,25 @@
         <v>440.08645803975</v>
       </c>
       <c r="J237" t="n">
-        <v>-0.1537190029691118</v>
+        <v>-0.1537190162371687</v>
       </c>
       <c r="K237" t="n">
-        <v>50.13649629654565</v>
+        <v>50.13649630981371</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M237" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N237" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O237" t="n">
-        <v>-3.135653164429286</v>
+        <v>-3.13565316394611</v>
       </c>
       <c r="P237" t="n">
-        <v>3.135653164429286</v>
+        <v>3.13565316394611</v>
       </c>
       <c r="Q237" t="n">
         <v>4.505082450457595</v>
@@ -13057,25 +13057,25 @@
         <v>275.7458053883034</v>
       </c>
       <c r="J238" t="n">
-        <v>-0.09592629385693385</v>
+        <v>-0.09592630395702173</v>
       </c>
       <c r="K238" t="n">
-        <v>52.51520992974712</v>
+        <v>52.51520993984721</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M238" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N238" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.7569395312278147</v>
+        <v>-0.7569395339126075</v>
       </c>
       <c r="P238" t="n">
-        <v>0.7569395312278147</v>
+        <v>0.7569395339126075</v>
       </c>
       <c r="Q238" t="n">
         <v>3.404357391235997</v>
@@ -13110,25 +13110,25 @@
         <v>233.2757083034396</v>
       </c>
       <c r="J239" t="n">
-        <v>-0.05667511254095103</v>
+        <v>-0.05667513380164024</v>
       </c>
       <c r="K239" t="n">
-        <v>49.9972386909092</v>
+        <v>49.99723871216989</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M239" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N239" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O239" t="n">
-        <v>-3.274910770065738</v>
+        <v>-3.274910761589929</v>
       </c>
       <c r="P239" t="n">
-        <v>3.274910770065738</v>
+        <v>3.274910761589929</v>
       </c>
       <c r="Q239" t="n">
         <v>3.778187671517512</v>
